--- a/BackTest/2019-11-01 BackTest RNT.xlsx
+++ b/BackTest/2019-11-01 BackTest RNT.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>0.2000000000000011</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-100</v>
+      </c>
       <c r="L12" t="n">
         <v>13.17</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>0.3000000000000007</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-100</v>
+      </c>
       <c r="L13" t="n">
         <v>13.14</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>0.5</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
       <c r="L14" t="n">
         <v>13.13</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>0.6999999999999993</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L15" t="n">
         <v>13.11</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>0.7999999999999989</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-14.28571428571428</v>
+      </c>
       <c r="L16" t="n">
         <v>13.1</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>0.8999999999999986</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>14.28571428571428</v>
+      </c>
       <c r="L17" t="n">
         <v>13.1</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>0.8999999999999986</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>14.28571428571428</v>
+      </c>
       <c r="L18" t="n">
         <v>13.11</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>0.8999999999999986</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>14.28571428571428</v>
+      </c>
       <c r="L19" t="n">
         <v>13.12</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>0.9999999999999982</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
       <c r="L20" t="n">
         <v>13.12</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>0.9999999999999982</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
       <c r="L21" t="n">
         <v>13.12</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>1.199999999999999</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>33.33333333333346</v>
+      </c>
       <c r="L22" t="n">
         <v>13.14</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>1.299999999999999</v>
       </c>
       <c r="K23" t="n">
-        <v>7.692307692307672</v>
+        <v>25.00000000000017</v>
       </c>
       <c r="L23" t="n">
         <v>13.18</v>
@@ -1466,7 +1488,7 @@
         <v>1.299999999999999</v>
       </c>
       <c r="K24" t="n">
-        <v>7.692307692307672</v>
+        <v>66.66666666666676</v>
       </c>
       <c r="L24" t="n">
         <v>13.2</v>
@@ -1515,7 +1537,7 @@
         <v>1.299999999999999</v>
       </c>
       <c r="K25" t="n">
-        <v>16.66666666666679</v>
+        <v>60.00000000000014</v>
       </c>
       <c r="L25" t="n">
         <v>13.24</v>
@@ -1564,7 +1586,7 @@
         <v>1.299999999999999</v>
       </c>
       <c r="K26" t="n">
-        <v>16.66666666666679</v>
+        <v>50.00000000000022</v>
       </c>
       <c r="L26" t="n">
         <v>13.27</v>
@@ -1662,7 +1684,7 @@
         <v>1.5</v>
       </c>
       <c r="K28" t="n">
-        <v>7.692307692307672</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>13.27</v>
@@ -1711,7 +1733,7 @@
         <v>1.5</v>
       </c>
       <c r="K29" t="n">
-        <v>7.692307692307672</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L29" t="n">
         <v>13.27</v>
@@ -1760,7 +1782,7 @@
         <v>1.5</v>
       </c>
       <c r="K30" t="n">
-        <v>7.692307692307672</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L30" t="n">
         <v>13.28</v>
@@ -1809,7 +1831,7 @@
         <v>1.6</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>-50.00000000000022</v>
       </c>
       <c r="L31" t="n">
         <v>13.28</v>
@@ -1860,7 +1882,7 @@
         <v>1.800000000000001</v>
       </c>
       <c r="K32" t="n">
-        <v>12.50000000000007</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L32" t="n">
         <v>13.28</v>
@@ -1911,7 +1933,7 @@
         <v>1.900000000000002</v>
       </c>
       <c r="K33" t="n">
-        <v>12.49999999999994</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L33" t="n">
         <v>13.26</v>
@@ -1962,7 +1984,7 @@
         <v>1.900000000000002</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L34" t="n">
         <v>13.24</v>
@@ -2013,7 +2035,7 @@
         <v>2.000000000000004</v>
       </c>
       <c r="K35" t="n">
-        <v>23.07692307692306</v>
+        <v>-14.28571428571414</v>
       </c>
       <c r="L35" t="n">
         <v>13.23</v>
@@ -2064,7 +2086,7 @@
         <v>2.000000000000004</v>
       </c>
       <c r="K36" t="n">
-        <v>16.66666666666669</v>
+        <v>20.00000000000014</v>
       </c>
       <c r="L36" t="n">
         <v>13.22</v>
@@ -2115,7 +2137,7 @@
         <v>2.100000000000003</v>
       </c>
       <c r="K37" t="n">
-        <v>16.66666666666669</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L37" t="n">
         <v>13.24</v>
@@ -2166,7 +2188,7 @@
         <v>2.200000000000003</v>
       </c>
       <c r="K38" t="n">
-        <v>7.692307692307776</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L38" t="n">
         <v>13.25</v>
@@ -2217,7 +2239,7 @@
         <v>2.200000000000003</v>
       </c>
       <c r="K39" t="n">
-        <v>7.692307692307776</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L39" t="n">
         <v>13.26000000000001</v>
@@ -2268,7 +2290,7 @@
         <v>2.200000000000003</v>
       </c>
       <c r="K40" t="n">
-        <v>16.66666666666669</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L40" t="n">
         <v>13.27000000000001</v>
@@ -2319,7 +2341,7 @@
         <v>2.200000000000003</v>
       </c>
       <c r="K41" t="n">
-        <v>16.66666666666669</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>13.29000000000001</v>
@@ -2370,7 +2392,7 @@
         <v>2.300000000000004</v>
       </c>
       <c r="K42" t="n">
-        <v>-9.090909090909179</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>13.28000000000001</v>
@@ -2421,7 +2443,7 @@
         <v>2.300000000000004</v>
       </c>
       <c r="K43" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>13.28000000000001</v>
@@ -2472,7 +2494,7 @@
         <v>2.400000000000004</v>
       </c>
       <c r="K44" t="n">
-        <v>-27.27272727272722</v>
+        <v>-50.00000000000022</v>
       </c>
       <c r="L44" t="n">
         <v>13.27000000000001</v>
@@ -2523,7 +2545,7 @@
         <v>2.500000000000004</v>
       </c>
       <c r="K45" t="n">
-        <v>-16.66666666666669</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L45" t="n">
         <v>13.26000000000001</v>
@@ -2574,7 +2596,7 @@
         <v>2.500000000000004</v>
       </c>
       <c r="K46" t="n">
-        <v>-16.66666666666669</v>
+        <v>-50.00000000000022</v>
       </c>
       <c r="L46" t="n">
         <v>13.25</v>
@@ -2625,7 +2647,7 @@
         <v>2.600000000000003</v>
       </c>
       <c r="K47" t="n">
-        <v>-9.090909090909033</v>
+        <v>-50.00000000000022</v>
       </c>
       <c r="L47" t="n">
         <v>13.22</v>
@@ -2676,7 +2698,7 @@
         <v>2.600000000000003</v>
       </c>
       <c r="K48" t="n">
-        <v>-9.090909090909033</v>
+        <v>-50.00000000000022</v>
       </c>
       <c r="L48" t="n">
         <v>13.2</v>
@@ -2727,7 +2749,7 @@
         <v>2.600000000000003</v>
       </c>
       <c r="K49" t="n">
-        <v>-9.090909090909033</v>
+        <v>-50.00000000000022</v>
       </c>
       <c r="L49" t="n">
         <v>13.18</v>
@@ -2778,7 +2800,7 @@
         <v>2.700000000000003</v>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L50" t="n">
         <v>13.17</v>
@@ -2829,7 +2851,7 @@
         <v>2.800000000000002</v>
       </c>
       <c r="K51" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L51" t="n">
         <v>13.15</v>
@@ -2880,7 +2902,7 @@
         <v>2.900000000000002</v>
       </c>
       <c r="K52" t="n">
-        <v>-9.090909090909207</v>
+        <v>0</v>
       </c>
       <c r="L52" t="n">
         <v>13.15</v>
@@ -2931,7 +2953,7 @@
         <v>3.000000000000002</v>
       </c>
       <c r="K53" t="n">
-        <v>-9.090909090909062</v>
+        <v>0</v>
       </c>
       <c r="L53" t="n">
         <v>13.14</v>
@@ -2982,7 +3004,7 @@
         <v>3.000000000000002</v>
       </c>
       <c r="K54" t="n">
-        <v>-9.090909090909062</v>
+        <v>-20</v>
       </c>
       <c r="L54" t="n">
         <v>13.14</v>
@@ -3033,7 +3055,7 @@
         <v>3.000000000000002</v>
       </c>
       <c r="K55" t="n">
-        <v>-20.00000000000014</v>
+        <v>-20</v>
       </c>
       <c r="L55" t="n">
         <v>13.13</v>
@@ -3084,7 +3106,7 @@
         <v>3.000000000000002</v>
       </c>
       <c r="K56" t="n">
-        <v>-20.00000000000014</v>
+        <v>0</v>
       </c>
       <c r="L56" t="n">
         <v>13.12</v>
@@ -3135,7 +3157,7 @@
         <v>3.000000000000002</v>
       </c>
       <c r="K57" t="n">
-        <v>-33.33333333333346</v>
+        <v>0</v>
       </c>
       <c r="L57" t="n">
         <v>13.12</v>
@@ -3186,7 +3208,7 @@
         <v>3.100000000000001</v>
       </c>
       <c r="K58" t="n">
-        <v>-33.33333333333346</v>
+        <v>-20</v>
       </c>
       <c r="L58" t="n">
         <v>13.11</v>
@@ -3237,7 +3259,7 @@
         <v>3.300000000000001</v>
       </c>
       <c r="K59" t="n">
-        <v>-9.090909090909239</v>
+        <v>0</v>
       </c>
       <c r="L59" t="n">
         <v>13.12</v>
@@ -3288,7 +3310,7 @@
         <v>3.300000000000001</v>
       </c>
       <c r="K60" t="n">
-        <v>-9.090909090909239</v>
+        <v>20</v>
       </c>
       <c r="L60" t="n">
         <v>13.12</v>
@@ -3339,7 +3361,7 @@
         <v>3.400000000000002</v>
       </c>
       <c r="K61" t="n">
-        <v>0</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L61" t="n">
         <v>13.14</v>
@@ -3390,7 +3412,7 @@
         <v>3.500000000000004</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L62" t="n">
         <v>13.14</v>
@@ -3441,7 +3463,7 @@
         <v>3.600000000000005</v>
       </c>
       <c r="K63" t="n">
-        <v>7.692307692307796</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L63" t="n">
         <v>13.16</v>
@@ -3492,7 +3514,7 @@
         <v>3.700000000000006</v>
       </c>
       <c r="K64" t="n">
-        <v>7.69230769230765</v>
+        <v>14.28571428571414</v>
       </c>
       <c r="L64" t="n">
         <v>13.17</v>
@@ -3543,7 +3565,7 @@
         <v>3.800000000000006</v>
       </c>
       <c r="K65" t="n">
-        <v>-7.69230769230765</v>
+        <v>0</v>
       </c>
       <c r="L65" t="n">
         <v>13.17</v>
@@ -3594,7 +3616,7 @@
         <v>3.800000000000006</v>
       </c>
       <c r="K66" t="n">
-        <v>-7.69230769230765</v>
+        <v>0</v>
       </c>
       <c r="L66" t="n">
         <v>13.17</v>
@@ -3645,7 +3667,7 @@
         <v>3.900000000000006</v>
       </c>
       <c r="K67" t="n">
-        <v>7.69230769230765</v>
+        <v>24.99999999999978</v>
       </c>
       <c r="L67" t="n">
         <v>13.18</v>
@@ -3696,7 +3718,7 @@
         <v>3.900000000000006</v>
       </c>
       <c r="K68" t="n">
-        <v>7.69230769230765</v>
+        <v>0</v>
       </c>
       <c r="L68" t="n">
         <v>13.2</v>
@@ -3747,7 +3769,7 @@
         <v>4.000000000000007</v>
       </c>
       <c r="K69" t="n">
-        <v>14.28571428571432</v>
+        <v>14.28571428571436</v>
       </c>
       <c r="L69" t="n">
         <v>13.21</v>
@@ -3798,7 +3820,7 @@
         <v>4.000000000000007</v>
       </c>
       <c r="K70" t="n">
-        <v>7.692307692307776</v>
+        <v>0</v>
       </c>
       <c r="L70" t="n">
         <v>13.22</v>
@@ -3849,7 +3871,7 @@
         <v>4.000000000000007</v>
       </c>
       <c r="K71" t="n">
-        <v>16.66666666666669</v>
+        <v>20.00000000000014</v>
       </c>
       <c r="L71" t="n">
         <v>13.22</v>
@@ -3900,7 +3922,7 @@
         <v>4.100000000000007</v>
       </c>
       <c r="K72" t="n">
-        <v>16.66666666666669</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L72" t="n">
         <v>13.24</v>
@@ -3951,7 +3973,7 @@
         <v>4.300000000000006</v>
       </c>
       <c r="K73" t="n">
-        <v>38.46153846153834</v>
+        <v>66.66666666666676</v>
       </c>
       <c r="L73" t="n">
         <v>13.27</v>
@@ -4002,7 +4024,7 @@
         <v>4.300000000000006</v>
       </c>
       <c r="K74" t="n">
-        <v>38.46153846153834</v>
+        <v>100</v>
       </c>
       <c r="L74" t="n">
         <v>13.31</v>
@@ -4053,7 +4075,7 @@
         <v>4.400000000000006</v>
       </c>
       <c r="K75" t="n">
-        <v>42.85714285714271</v>
+        <v>100</v>
       </c>
       <c r="L75" t="n">
         <v>13.37</v>
@@ -4104,7 +4126,7 @@
         <v>4.400000000000006</v>
       </c>
       <c r="K76" t="n">
-        <v>42.85714285714271</v>
+        <v>100</v>
       </c>
       <c r="L76" t="n">
         <v>13.43</v>
@@ -4155,7 +4177,7 @@
         <v>4.600000000000005</v>
       </c>
       <c r="K77" t="n">
-        <v>24.99999999999997</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L77" t="n">
         <v>13.46</v>
@@ -4206,7 +4228,7 @@
         <v>4.600000000000005</v>
       </c>
       <c r="K78" t="n">
-        <v>33.33333333333325</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L78" t="n">
         <v>13.49</v>
@@ -4257,7 +4279,7 @@
         <v>4.700000000000005</v>
       </c>
       <c r="K79" t="n">
-        <v>14.28571428571432</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L79" t="n">
         <v>13.5</v>
@@ -4312,7 +4334,7 @@
         <v>4.700000000000005</v>
       </c>
       <c r="K80" t="n">
-        <v>14.28571428571432</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L80" t="n">
         <v>13.51</v>
@@ -4369,7 +4391,7 @@
         <v>4.700000000000005</v>
       </c>
       <c r="K81" t="n">
-        <v>7.69230769230765</v>
+        <v>0</v>
       </c>
       <c r="L81" t="n">
         <v>13.52</v>
@@ -4426,7 +4448,7 @@
         <v>4.800000000000004</v>
       </c>
       <c r="K82" t="n">
-        <v>23.07692307692312</v>
+        <v>-20</v>
       </c>
       <c r="L82" t="n">
         <v>13.53</v>
@@ -4483,7 +4505,7 @@
         <v>4.800000000000004</v>
       </c>
       <c r="K83" t="n">
-        <v>16.66666666666662</v>
+        <v>-20</v>
       </c>
       <c r="L83" t="n">
         <v>13.52</v>
@@ -4540,7 +4562,7 @@
         <v>4.900000000000004</v>
       </c>
       <c r="K84" t="n">
-        <v>33.33333333333343</v>
+        <v>-20</v>
       </c>
       <c r="L84" t="n">
         <v>13.52</v>
@@ -4597,7 +4619,7 @@
         <v>5.000000000000004</v>
       </c>
       <c r="K85" t="n">
-        <v>33.33333333333343</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L85" t="n">
         <v>13.5</v>
@@ -4654,7 +4676,7 @@
         <v>5.100000000000003</v>
       </c>
       <c r="K86" t="n">
-        <v>38.46153846153855</v>
+        <v>20</v>
       </c>
       <c r="L86" t="n">
         <v>13.49</v>
@@ -4711,7 +4733,7 @@
         <v>5.200000000000003</v>
       </c>
       <c r="K87" t="n">
-        <v>23.07692307692318</v>
+        <v>0</v>
       </c>
       <c r="L87" t="n">
         <v>13.49</v>
@@ -4768,7 +4790,7 @@
         <v>5.300000000000002</v>
       </c>
       <c r="K88" t="n">
-        <v>14.28571428571439</v>
+        <v>0</v>
       </c>
       <c r="L88" t="n">
         <v>13.48</v>
@@ -4823,7 +4845,7 @@
         <v>5.400000000000002</v>
       </c>
       <c r="K89" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L89" t="n">
         <v>13.47</v>
@@ -4880,7 +4902,7 @@
         <v>5.700000000000001</v>
       </c>
       <c r="K90" t="n">
-        <v>17.64705882352941</v>
+        <v>20</v>
       </c>
       <c r="L90" t="n">
         <v>13.49</v>
@@ -4937,7 +4959,7 @@
         <v>5.700000000000001</v>
       </c>
       <c r="K91" t="n">
-        <v>17.64705882352941</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L91" t="n">
         <v>13.51</v>
@@ -4994,7 +5016,7 @@
         <v>5.700000000000001</v>
       </c>
       <c r="K92" t="n">
-        <v>12.5</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L92" t="n">
         <v>13.52</v>
@@ -5108,7 +5130,7 @@
         <v>5.700000000000001</v>
       </c>
       <c r="K94" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L94" t="n">
         <v>13.53</v>
@@ -5165,7 +5187,7 @@
         <v>5.700000000000001</v>
       </c>
       <c r="K95" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L95" t="n">
         <v>13.54</v>
@@ -5222,7 +5244,7 @@
         <v>5.800000000000001</v>
       </c>
       <c r="K96" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L96" t="n">
         <v>13.55</v>
@@ -5279,7 +5301,7 @@
         <v>5.800000000000001</v>
       </c>
       <c r="K97" t="n">
-        <v>16.66666666666666</v>
+        <v>60</v>
       </c>
       <c r="L97" t="n">
         <v>13.57</v>
@@ -5336,7 +5358,7 @@
         <v>5.9</v>
       </c>
       <c r="K98" t="n">
-        <v>7.692307692307693</v>
+        <v>60</v>
       </c>
       <c r="L98" t="n">
         <v>13.59</v>
@@ -5393,7 +5415,7 @@
         <v>6.100000000000001</v>
       </c>
       <c r="K99" t="n">
-        <v>28.57142857142867</v>
+        <v>50.00000000000022</v>
       </c>
       <c r="L99" t="n">
         <v>13.64</v>
@@ -5450,7 +5472,7 @@
         <v>6.200000000000003</v>
       </c>
       <c r="K100" t="n">
-        <v>19.99999999999995</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L100" t="n">
         <v>13.65</v>
@@ -5507,7 +5529,7 @@
         <v>6.300000000000004</v>
       </c>
       <c r="K101" t="n">
-        <v>25.00000000000003</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L101" t="n">
         <v>13.67</v>
@@ -5564,7 +5586,7 @@
         <v>6.300000000000004</v>
       </c>
       <c r="K102" t="n">
-        <v>20.00000000000005</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L102" t="n">
         <v>13.69</v>
@@ -5621,7 +5643,7 @@
         <v>6.300000000000004</v>
       </c>
       <c r="K103" t="n">
-        <v>20.00000000000005</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L103" t="n">
         <v>13.71</v>
@@ -5678,7 +5700,7 @@
         <v>6.400000000000006</v>
       </c>
       <c r="K104" t="n">
-        <v>6.666666666666635</v>
+        <v>14.28571428571414</v>
       </c>
       <c r="L104" t="n">
         <v>13.72</v>
@@ -5735,7 +5757,7 @@
         <v>6.500000000000007</v>
       </c>
       <c r="K105" t="n">
-        <v>20</v>
+        <v>14.28571428571436</v>
       </c>
       <c r="L105" t="n">
         <v>13.74</v>
@@ -5792,7 +5814,7 @@
         <v>6.500000000000007</v>
       </c>
       <c r="K106" t="n">
-        <v>14.28571428571432</v>
+        <v>14.28571428571436</v>
       </c>
       <c r="L106" t="n">
         <v>13.75000000000001</v>
@@ -5849,7 +5871,7 @@
         <v>6.500000000000007</v>
       </c>
       <c r="K107" t="n">
-        <v>23.07692307692306</v>
+        <v>33.33333333333314</v>
       </c>
       <c r="L107" t="n">
         <v>13.76000000000001</v>
@@ -5900,7 +5922,7 @@
         <v>6.500000000000007</v>
       </c>
       <c r="K108" t="n">
-        <v>33.33333333333324</v>
+        <v>0</v>
       </c>
       <c r="L108" t="n">
         <v>13.78000000000001</v>
@@ -5951,7 +5973,7 @@
         <v>6.500000000000007</v>
       </c>
       <c r="K109" t="n">
-        <v>45.45454545454525</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L109" t="n">
         <v>13.78000000000001</v>
@@ -6002,7 +6024,7 @@
         <v>6.800000000000006</v>
       </c>
       <c r="K110" t="n">
-        <v>45.45454545454525</v>
+        <v>59.99999999999957</v>
       </c>
       <c r="L110" t="n">
         <v>13.82000000000001</v>
@@ -6053,7 +6075,7 @@
         <v>6.900000000000006</v>
       </c>
       <c r="K111" t="n">
-        <v>49.99999999999978</v>
+        <v>66.66666666666627</v>
       </c>
       <c r="L111" t="n">
         <v>13.86000000000001</v>
@@ -6104,7 +6126,7 @@
         <v>6.900000000000006</v>
       </c>
       <c r="K112" t="n">
-        <v>49.99999999999978</v>
+        <v>66.66666666666627</v>
       </c>
       <c r="L112" t="n">
         <v>13.90000000000001</v>
@@ -6155,7 +6177,7 @@
         <v>6.900000000000006</v>
       </c>
       <c r="K113" t="n">
-        <v>49.99999999999978</v>
+        <v>100</v>
       </c>
       <c r="L113" t="n">
         <v>13.94</v>
@@ -6206,7 +6228,7 @@
         <v>7.100000000000005</v>
       </c>
       <c r="K114" t="n">
-        <v>28.57142857142851</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L114" t="n">
         <v>13.97</v>
@@ -6257,7 +6279,7 @@
         <v>7.200000000000005</v>
       </c>
       <c r="K115" t="n">
-        <v>33.33333333333325</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L115" t="n">
         <v>14</v>
@@ -6308,7 +6330,7 @@
         <v>7.300000000000004</v>
       </c>
       <c r="K116" t="n">
-        <v>33.33333333333325</v>
+        <v>50</v>
       </c>
       <c r="L116" t="n">
         <v>14.04</v>
@@ -6359,7 +6381,7 @@
         <v>7.400000000000006</v>
       </c>
       <c r="K117" t="n">
-        <v>37.49999999999997</v>
+        <v>55.55555555555565</v>
       </c>
       <c r="L117" t="n">
         <v>14.09</v>
@@ -6410,7 +6432,7 @@
         <v>7.400000000000006</v>
       </c>
       <c r="K118" t="n">
-        <v>46.66666666666657</v>
+        <v>55.55555555555565</v>
       </c>
       <c r="L118" t="n">
         <v>14.14</v>
@@ -6461,7 +6483,7 @@
         <v>7.400000000000006</v>
       </c>
       <c r="K119" t="n">
-        <v>38.46153846153834</v>
+        <v>33.33333333333353</v>
       </c>
       <c r="L119" t="n">
         <v>14.19</v>
@@ -6512,7 +6534,7 @@
         <v>7.500000000000007</v>
       </c>
       <c r="K120" t="n">
-        <v>38.46153846153834</v>
+        <v>0</v>
       </c>
       <c r="L120" t="n">
         <v>14.2</v>
@@ -6563,7 +6585,7 @@
         <v>7.700000000000006</v>
       </c>
       <c r="K121" t="n">
-        <v>14.28571428571421</v>
+        <v>-24.99999999999989</v>
       </c>
       <c r="L121" t="n">
         <v>14.18</v>
@@ -6614,7 +6636,7 @@
         <v>7.800000000000006</v>
       </c>
       <c r="K122" t="n">
-        <v>6.666666666666635</v>
+        <v>-33.3333333333332</v>
       </c>
       <c r="L122" t="n">
         <v>14.15</v>
@@ -6665,7 +6687,7 @@
         <v>7.800000000000006</v>
       </c>
       <c r="K123" t="n">
-        <v>6.666666666666635</v>
+        <v>-14.28571428571421</v>
       </c>
       <c r="L123" t="n">
         <v>14.12</v>
@@ -6716,7 +6738,7 @@
         <v>7.800000000000006</v>
       </c>
       <c r="K124" t="n">
-        <v>14.28571428571436</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L124" t="n">
         <v>14.11</v>
@@ -6767,7 +6789,7 @@
         <v>7.900000000000006</v>
       </c>
       <c r="K125" t="n">
-        <v>14.28571428571425</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L125" t="n">
         <v>14.1</v>
@@ -6818,7 +6840,7 @@
         <v>7.900000000000006</v>
       </c>
       <c r="K126" t="n">
-        <v>14.28571428571425</v>
+        <v>-60.00000000000014</v>
       </c>
       <c r="L126" t="n">
         <v>14.08000000000001</v>
@@ -6869,7 +6891,7 @@
         <v>8.000000000000005</v>
       </c>
       <c r="K127" t="n">
-        <v>6.666666666666651</v>
+        <v>-66.66666666666676</v>
       </c>
       <c r="L127" t="n">
         <v>14.04000000000001</v>
@@ -6924,7 +6946,7 @@
         <v>8.100000000000005</v>
       </c>
       <c r="K128" t="n">
-        <v>12.49999999999997</v>
+        <v>-42.857142857143</v>
       </c>
       <c r="L128" t="n">
         <v>14.01000000000001</v>
@@ -6983,7 +7005,7 @@
         <v>8.200000000000005</v>
       </c>
       <c r="K129" t="n">
-        <v>17.64705882352937</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L129" t="n">
         <v>13.99</v>
@@ -7040,7 +7062,7 @@
         <v>8.300000000000004</v>
       </c>
       <c r="K130" t="n">
-        <v>6.666666666666651</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L130" t="n">
         <v>13.99</v>
@@ -7099,7 +7121,7 @@
         <v>8.400000000000004</v>
       </c>
       <c r="K131" t="n">
-        <v>-6.666666666666651</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L131" t="n">
         <v>14</v>
@@ -7158,7 +7180,7 @@
         <v>8.500000000000004</v>
       </c>
       <c r="K132" t="n">
-        <v>-12.49999999999997</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L132" t="n">
         <v>14.01</v>
@@ -7217,7 +7239,7 @@
         <v>8.500000000000004</v>
       </c>
       <c r="K133" t="n">
-        <v>-12.49999999999997</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L133" t="n">
         <v>14.02</v>
@@ -7335,7 +7357,7 @@
         <v>8.600000000000003</v>
       </c>
       <c r="K135" t="n">
-        <v>-14.28571428571425</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L135" t="n">
         <v>14.02</v>
@@ -7394,7 +7416,7 @@
         <v>8.700000000000003</v>
       </c>
       <c r="K136" t="n">
-        <v>-28.5714285714285</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L136" t="n">
         <v>14</v>
@@ -7451,7 +7473,7 @@
         <v>8.900000000000004</v>
       </c>
       <c r="K137" t="n">
-        <v>-46.66666666666679</v>
+        <v>-50.00000000000011</v>
       </c>
       <c r="L137" t="n">
         <v>13.97</v>
@@ -7502,7 +7524,7 @@
         <v>9.100000000000005</v>
       </c>
       <c r="K138" t="n">
-        <v>-29.41176470588237</v>
+        <v>-33.3333333333332</v>
       </c>
       <c r="L138" t="n">
         <v>13.95</v>
@@ -7553,7 +7575,7 @@
         <v>9.300000000000006</v>
       </c>
       <c r="K139" t="n">
-        <v>-36.84210526315794</v>
+        <v>-59.99999999999985</v>
       </c>
       <c r="L139" t="n">
         <v>13.9</v>
@@ -7604,7 +7626,7 @@
         <v>9.600000000000007</v>
       </c>
       <c r="K140" t="n">
-        <v>-14.28571428571424</v>
+        <v>-16.66666666666657</v>
       </c>
       <c r="L140" t="n">
         <v>13.87</v>
@@ -7655,7 +7677,7 @@
         <v>9.600000000000007</v>
       </c>
       <c r="K141" t="n">
-        <v>-5.263157894736822</v>
+        <v>-9.090909090909033</v>
       </c>
       <c r="L141" t="n">
         <v>13.85</v>
@@ -7706,7 +7728,7 @@
         <v>9.600000000000007</v>
       </c>
       <c r="K142" t="n">
-        <v>0</v>
+        <v>-9.090909090909033</v>
       </c>
       <c r="L142" t="n">
         <v>13.84000000000001</v>
@@ -7757,7 +7779,7 @@
         <v>9.600000000000007</v>
       </c>
       <c r="K143" t="n">
-        <v>0</v>
+        <v>-9.090909090909033</v>
       </c>
       <c r="L143" t="n">
         <v>13.83000000000001</v>
@@ -7859,7 +7881,7 @@
         <v>9.700000000000006</v>
       </c>
       <c r="K145" t="n">
-        <v>0</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L145" t="n">
         <v>13.83000000000001</v>
@@ -7910,7 +7932,7 @@
         <v>9.700000000000006</v>
       </c>
       <c r="K146" t="n">
-        <v>0</v>
+        <v>49.99999999999989</v>
       </c>
       <c r="L146" t="n">
         <v>13.85</v>
@@ -7961,7 +7983,7 @@
         <v>9.900000000000006</v>
       </c>
       <c r="K147" t="n">
-        <v>15.78947368421047</v>
+        <v>49.99999999999978</v>
       </c>
       <c r="L147" t="n">
         <v>13.91000000000001</v>
@@ -8012,7 +8034,7 @@
         <v>10.00000000000001</v>
       </c>
       <c r="K148" t="n">
-        <v>5.263157894736822</v>
+        <v>71.4285714285715</v>
       </c>
       <c r="L148" t="n">
         <v>13.94</v>
@@ -8063,7 +8085,7 @@
         <v>10.00000000000001</v>
       </c>
       <c r="K149" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L149" t="n">
         <v>13.99</v>
@@ -8114,7 +8136,7 @@
         <v>10.00000000000001</v>
       </c>
       <c r="K150" t="n">
-        <v>-5.882352941176446</v>
+        <v>50</v>
       </c>
       <c r="L150" t="n">
         <v>14.01</v>
@@ -8165,7 +8187,7 @@
         <v>10.6</v>
       </c>
       <c r="K151" t="n">
-        <v>-27.27272727272724</v>
+        <v>-40.00000000000011</v>
       </c>
       <c r="L151" t="n">
         <v>13.97</v>
@@ -8216,7 +8238,7 @@
         <v>10.90000000000001</v>
       </c>
       <c r="K152" t="n">
-        <v>-8.333333333333297</v>
+        <v>-7.692307692307672</v>
       </c>
       <c r="L152" t="n">
         <v>13.96</v>
@@ -8267,7 +8289,7 @@
         <v>11.1</v>
       </c>
       <c r="K153" t="n">
-        <v>0</v>
+        <v>6.666666666666651</v>
       </c>
       <c r="L153" t="n">
         <v>13.97</v>
@@ -8318,7 +8340,7 @@
         <v>11.3</v>
       </c>
       <c r="K154" t="n">
-        <v>-7.142857142857116</v>
+        <v>-12.49999999999997</v>
       </c>
       <c r="L154" t="n">
         <v>13.96</v>
@@ -8369,7 +8391,7 @@
         <v>11.40000000000001</v>
       </c>
       <c r="K155" t="n">
-        <v>-7.142857142857174</v>
+        <v>-17.64705882352946</v>
       </c>
       <c r="L155" t="n">
         <v>13.93</v>
@@ -8420,7 +8442,7 @@
         <v>11.60000000000001</v>
       </c>
       <c r="K156" t="n">
-        <v>3.448275862068949</v>
+        <v>-17.64705882352934</v>
       </c>
       <c r="L156" t="n">
         <v>13.92</v>
@@ -8471,7 +8493,7 @@
         <v>11.60000000000001</v>
       </c>
       <c r="K157" t="n">
-        <v>11.11111111111112</v>
+        <v>-12.49999999999994</v>
       </c>
       <c r="L157" t="n">
         <v>13.89</v>
@@ -8522,7 +8544,7 @@
         <v>11.60000000000001</v>
       </c>
       <c r="K158" t="n">
-        <v>3.999999999999983</v>
+        <v>-12.49999999999994</v>
       </c>
       <c r="L158" t="n">
         <v>13.87</v>
@@ -8573,7 +8595,7 @@
         <v>11.70000000000001</v>
       </c>
       <c r="K159" t="n">
-        <v>16.66666666666668</v>
+        <v>-5.882352941176446</v>
       </c>
       <c r="L159" t="n">
         <v>13.86</v>
@@ -8624,7 +8646,7 @@
         <v>11.70000000000001</v>
       </c>
       <c r="K160" t="n">
-        <v>4.761904761904746</v>
+        <v>45.4545454545454</v>
       </c>
       <c r="L160" t="n">
         <v>13.85</v>
@@ -8675,7 +8697,7 @@
         <v>11.70000000000001</v>
       </c>
       <c r="K161" t="n">
-        <v>4.761904761904746</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L161" t="n">
         <v>13.90000000000001</v>
@@ -8726,7 +8748,7 @@
         <v>11.80000000000001</v>
       </c>
       <c r="K162" t="n">
-        <v>9.090909090909062</v>
+        <v>14.28571428571421</v>
       </c>
       <c r="L162" t="n">
         <v>13.93</v>
@@ -8777,7 +8799,7 @@
         <v>11.90000000000001</v>
       </c>
       <c r="K163" t="n">
-        <v>13.04347826086953</v>
+        <v>66.66666666666627</v>
       </c>
       <c r="L163" t="n">
         <v>13.95</v>
@@ -8828,7 +8850,7 @@
         <v>11.90000000000001</v>
       </c>
       <c r="K164" t="n">
-        <v>13.04347826086953</v>
+        <v>100</v>
       </c>
       <c r="L164" t="n">
         <v>13.99</v>
@@ -8879,7 +8901,7 @@
         <v>12.00000000000001</v>
       </c>
       <c r="K165" t="n">
-        <v>4.347826086956508</v>
+        <v>50</v>
       </c>
       <c r="L165" t="n">
         <v>14.03</v>
@@ -8930,7 +8952,7 @@
         <v>12.00000000000001</v>
       </c>
       <c r="K166" t="n">
-        <v>4.347826086956508</v>
+        <v>50</v>
       </c>
       <c r="L166" t="n">
         <v>14.05</v>
@@ -8981,7 +9003,7 @@
         <v>12.00000000000001</v>
       </c>
       <c r="K167" t="n">
-        <v>-4.761904761904746</v>
+        <v>50</v>
       </c>
       <c r="L167" t="n">
         <v>14.07</v>
@@ -9032,7 +9054,7 @@
         <v>12.00000000000001</v>
       </c>
       <c r="K168" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L168" t="n">
         <v>14.09</v>
@@ -9083,7 +9105,7 @@
         <v>12.00000000000001</v>
       </c>
       <c r="K169" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L169" t="n">
         <v>14.1</v>
@@ -9134,7 +9156,7 @@
         <v>12.00000000000001</v>
       </c>
       <c r="K170" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L170" t="n">
         <v>14.11</v>
@@ -9185,7 +9207,7 @@
         <v>12.00000000000001</v>
       </c>
       <c r="K171" t="n">
-        <v>42.85714285714282</v>
+        <v>0</v>
       </c>
       <c r="L171" t="n">
         <v>14.12</v>
@@ -9236,7 +9258,7 @@
         <v>12.00000000000001</v>
       </c>
       <c r="K172" t="n">
-        <v>27.27272727272718</v>
+        <v>-100</v>
       </c>
       <c r="L172" t="n">
         <v>14.12</v>
@@ -9287,7 +9309,7 @@
         <v>12.00000000000001</v>
       </c>
       <c r="K173" t="n">
-        <v>11.11111111111107</v>
+        <v>-100</v>
       </c>
       <c r="L173" t="n">
         <v>14.11</v>
@@ -9338,7 +9360,7 @@
         <v>12.1</v>
       </c>
       <c r="K174" t="n">
-        <v>24.99999999999989</v>
+        <v>-100</v>
       </c>
       <c r="L174" t="n">
         <v>14.09</v>
@@ -9389,7 +9411,7 @@
         <v>12.1</v>
       </c>
       <c r="K175" t="n">
-        <v>42.857142857143</v>
+        <v>-100</v>
       </c>
       <c r="L175" t="n">
         <v>14.08</v>
@@ -9440,7 +9462,7 @@
         <v>12.1</v>
       </c>
       <c r="K176" t="n">
-        <v>20</v>
+        <v>-100</v>
       </c>
       <c r="L176" t="n">
         <v>14.07</v>
@@ -9491,7 +9513,7 @@
         <v>12.2</v>
       </c>
       <c r="K177" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L177" t="n">
         <v>14.07</v>
@@ -9542,7 +9564,7 @@
         <v>12.2</v>
       </c>
       <c r="K178" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L178" t="n">
         <v>14.07</v>
@@ -9593,7 +9615,7 @@
         <v>12.2</v>
       </c>
       <c r="K179" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L179" t="n">
         <v>14.07</v>
@@ -9644,7 +9666,7 @@
         <v>12.2</v>
       </c>
       <c r="K180" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L180" t="n">
         <v>14.07</v>
@@ -9695,7 +9717,7 @@
         <v>12.2</v>
       </c>
       <c r="K181" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L181" t="n">
         <v>14.07</v>
@@ -9746,7 +9768,7 @@
         <v>12.3</v>
       </c>
       <c r="K182" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L182" t="n">
         <v>14.06</v>
@@ -9797,7 +9819,7 @@
         <v>12.5</v>
       </c>
       <c r="K183" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L183" t="n">
         <v>14.07</v>
@@ -9848,7 +9870,7 @@
         <v>12.7</v>
       </c>
       <c r="K184" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="L184" t="n">
         <v>14.07</v>
@@ -9899,7 +9921,7 @@
         <v>12.8</v>
       </c>
       <c r="K185" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L185" t="n">
         <v>14.08</v>
@@ -10001,7 +10023,7 @@
         <v>12.9</v>
       </c>
       <c r="K187" t="n">
-        <v>-11.11111111111111</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L187" t="n">
         <v>14.08</v>
@@ -10052,7 +10074,7 @@
         <v>13</v>
       </c>
       <c r="K188" t="n">
-        <v>-20</v>
+        <v>-25</v>
       </c>
       <c r="L188" t="n">
         <v>14.06</v>
@@ -10103,7 +10125,7 @@
         <v>13.1</v>
       </c>
       <c r="K189" t="n">
-        <v>-27.27272727272727</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L189" t="n">
         <v>14.03</v>
@@ -10154,7 +10176,7 @@
         <v>13.1</v>
       </c>
       <c r="K190" t="n">
-        <v>-27.27272727272727</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L190" t="n">
         <v>14</v>
@@ -10205,7 +10227,7 @@
         <v>13.2</v>
       </c>
       <c r="K191" t="n">
-        <v>-16.66666666666666</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L191" t="n">
         <v>13.98</v>
@@ -10256,7 +10278,7 @@
         <v>13.3</v>
       </c>
       <c r="K192" t="n">
-        <v>-23.07692307692308</v>
+        <v>-50</v>
       </c>
       <c r="L192" t="n">
         <v>13.96</v>
@@ -10307,7 +10329,7 @@
         <v>13.3</v>
       </c>
       <c r="K193" t="n">
-        <v>-23.07692307692308</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L193" t="n">
         <v>13.92000000000001</v>
@@ -10358,7 +10380,7 @@
         <v>13.3</v>
       </c>
       <c r="K194" t="n">
-        <v>-16.66666666666666</v>
+        <v>-60</v>
       </c>
       <c r="L194" t="n">
         <v>13.90000000000001</v>
@@ -10409,7 +10431,7 @@
         <v>13.3</v>
       </c>
       <c r="K195" t="n">
-        <v>-16.66666666666666</v>
+        <v>-60</v>
       </c>
       <c r="L195" t="n">
         <v>13.87000000000001</v>
@@ -10460,7 +10482,7 @@
         <v>13.3</v>
       </c>
       <c r="K196" t="n">
-        <v>-16.66666666666666</v>
+        <v>-50</v>
       </c>
       <c r="L196" t="n">
         <v>13.84000000000001</v>
@@ -10511,7 +10533,7 @@
         <v>13.4</v>
       </c>
       <c r="K197" t="n">
-        <v>-33.33333333333343</v>
+        <v>-50.00000000000022</v>
       </c>
       <c r="L197" t="n">
         <v>13.81000000000001</v>
@@ -10562,7 +10584,7 @@
         <v>13.5</v>
       </c>
       <c r="K198" t="n">
-        <v>-23.07692307692301</v>
+        <v>0</v>
       </c>
       <c r="L198" t="n">
         <v>13.80000000000001</v>
@@ -10613,7 +10635,7 @@
         <v>13.5</v>
       </c>
       <c r="K199" t="n">
-        <v>-23.07692307692301</v>
+        <v>0</v>
       </c>
       <c r="L199" t="n">
         <v>13.80000000000001</v>
@@ -10664,7 +10686,7 @@
         <v>13.5</v>
       </c>
       <c r="K200" t="n">
-        <v>-23.07692307692301</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L200" t="n">
         <v>13.80000000000001</v>
@@ -10715,7 +10737,7 @@
         <v>13.6</v>
       </c>
       <c r="K201" t="n">
-        <v>-28.57142857142859</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L201" t="n">
         <v>13.78000000000001</v>
@@ -10766,7 +10788,7 @@
         <v>13.70000000000001</v>
       </c>
       <c r="K202" t="n">
-        <v>-14.28571428571421</v>
+        <v>0</v>
       </c>
       <c r="L202" t="n">
         <v>13.78000000000001</v>
@@ -10817,7 +10839,7 @@
         <v>13.70000000000001</v>
       </c>
       <c r="K203" t="n">
-        <v>-33.33333333333314</v>
+        <v>0</v>
       </c>
       <c r="L203" t="n">
         <v>13.78000000000001</v>
@@ -10868,7 +10890,7 @@
         <v>13.80000000000001</v>
       </c>
       <c r="K204" t="n">
-        <v>-27.27272727272722</v>
+        <v>-20</v>
       </c>
       <c r="L204" t="n">
         <v>13.77000000000001</v>
@@ -10919,7 +10941,7 @@
         <v>14.00000000000001</v>
       </c>
       <c r="K205" t="n">
-        <v>-16.66666666666652</v>
+        <v>14.28571428571407</v>
       </c>
       <c r="L205" t="n">
         <v>13.78000000000001</v>
@@ -10970,7 +10992,7 @@
         <v>14.00000000000001</v>
       </c>
       <c r="K206" t="n">
-        <v>-16.66666666666652</v>
+        <v>33.33333333333314</v>
       </c>
       <c r="L206" t="n">
         <v>13.79000000000001</v>
@@ -11021,7 +11043,7 @@
         <v>14.20000000000001</v>
       </c>
       <c r="K207" t="n">
-        <v>7.692307692307629</v>
+        <v>42.85714285714242</v>
       </c>
       <c r="L207" t="n">
         <v>13.83000000000001</v>
@@ -11072,7 +11094,7 @@
         <v>14.40000000000001</v>
       </c>
       <c r="K208" t="n">
-        <v>0</v>
+        <v>11.11111111111102</v>
       </c>
       <c r="L208" t="n">
         <v>13.84000000000001</v>
@@ -11123,7 +11145,7 @@
         <v>14.60000000000001</v>
       </c>
       <c r="K209" t="n">
-        <v>19.99999999999986</v>
+        <v>27.2727272727271</v>
       </c>
       <c r="L209" t="n">
         <v>13.87</v>
@@ -11174,7 +11196,7 @@
         <v>14.60000000000001</v>
       </c>
       <c r="K210" t="n">
-        <v>19.99999999999986</v>
+        <v>39.99999999999996</v>
       </c>
       <c r="L210" t="n">
         <v>13.9</v>
@@ -11225,7 +11247,7 @@
         <v>14.70000000000001</v>
       </c>
       <c r="K211" t="n">
-        <v>6.666666666666619</v>
+        <v>19.99999999999993</v>
       </c>
       <c r="L211" t="n">
         <v>13.93</v>
@@ -11276,7 +11298,7 @@
         <v>14.70000000000001</v>
       </c>
       <c r="K212" t="n">
-        <v>14.28571428571418</v>
+        <v>19.99999999999993</v>
       </c>
       <c r="L212" t="n">
         <v>13.95</v>
@@ -11327,7 +11349,7 @@
         <v>14.70000000000001</v>
       </c>
       <c r="K213" t="n">
-        <v>14.28571428571418</v>
+        <v>33.33333333333346</v>
       </c>
       <c r="L213" t="n">
         <v>13.97</v>
@@ -11378,7 +11400,7 @@
         <v>14.80000000000001</v>
       </c>
       <c r="K214" t="n">
-        <v>6.666666666666619</v>
+        <v>0</v>
       </c>
       <c r="L214" t="n">
         <v>13.99</v>
@@ -11429,7 +11451,7 @@
         <v>14.80000000000001</v>
       </c>
       <c r="K215" t="n">
-        <v>6.666666666666619</v>
+        <v>0</v>
       </c>
       <c r="L215" t="n">
         <v>13.99</v>
@@ -11480,7 +11502,7 @@
         <v>14.80000000000001</v>
       </c>
       <c r="K216" t="n">
-        <v>6.666666666666619</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L216" t="n">
         <v>13.99</v>
@@ -11531,7 +11553,7 @@
         <v>14.80000000000001</v>
       </c>
       <c r="K217" t="n">
-        <v>14.28571428571432</v>
+        <v>0</v>
       </c>
       <c r="L217" t="n">
         <v>13.97</v>
@@ -11582,7 +11604,7 @@
         <v>14.90000000000001</v>
       </c>
       <c r="K218" t="n">
-        <v>14.28571428571421</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L218" t="n">
         <v>13.98</v>
@@ -11633,7 +11655,7 @@
         <v>15.00000000000001</v>
       </c>
       <c r="K219" t="n">
-        <v>6.666666666666635</v>
+        <v>-50</v>
       </c>
       <c r="L219" t="n">
         <v>13.96</v>
@@ -11684,7 +11706,7 @@
         <v>15.1</v>
       </c>
       <c r="K220" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="L220" t="n">
         <v>13.93000000000001</v>
@@ -11735,7 +11757,7 @@
         <v>15.1</v>
       </c>
       <c r="K221" t="n">
-        <v>6.666666666666761</v>
+        <v>-50</v>
       </c>
       <c r="L221" t="n">
         <v>13.91000000000001</v>
@@ -11786,7 +11808,7 @@
         <v>15.2</v>
       </c>
       <c r="K222" t="n">
-        <v>6.666666666666651</v>
+        <v>-20</v>
       </c>
       <c r="L222" t="n">
         <v>13.90000000000001</v>
@@ -11837,7 +11859,7 @@
         <v>15.3</v>
       </c>
       <c r="K223" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L223" t="n">
         <v>13.88000000000001</v>
@@ -11888,7 +11910,7 @@
         <v>15.40000000000001</v>
       </c>
       <c r="K224" t="n">
-        <v>0</v>
+        <v>-33.33333333333353</v>
       </c>
       <c r="L224" t="n">
         <v>13.86000000000001</v>
@@ -11939,7 +11961,7 @@
         <v>15.40000000000001</v>
       </c>
       <c r="K225" t="n">
-        <v>-14.28571428571439</v>
+        <v>-33.33333333333353</v>
       </c>
       <c r="L225" t="n">
         <v>13.84000000000001</v>
@@ -11990,7 +12012,7 @@
         <v>15.40000000000001</v>
       </c>
       <c r="K226" t="n">
-        <v>-14.28571428571439</v>
+        <v>-33.33333333333353</v>
       </c>
       <c r="L226" t="n">
         <v>13.82</v>
@@ -12041,7 +12063,7 @@
         <v>15.60000000000001</v>
       </c>
       <c r="K227" t="n">
-        <v>-14.28571428571425</v>
+        <v>-14.28571428571421</v>
       </c>
       <c r="L227" t="n">
         <v>13.82</v>
@@ -12143,7 +12165,7 @@
         <v>15.60000000000001</v>
       </c>
       <c r="K229" t="n">
-        <v>-19.99999999999993</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L229" t="n">
         <v>13.81000000000001</v>
@@ -12194,7 +12216,7 @@
         <v>15.80000000000001</v>
       </c>
       <c r="K230" t="n">
-        <v>0</v>
+        <v>42.85714285714264</v>
       </c>
       <c r="L230" t="n">
         <v>13.84</v>
@@ -12245,7 +12267,7 @@
         <v>15.90000000000001</v>
       </c>
       <c r="K231" t="n">
-        <v>0</v>
+        <v>14.28571428571421</v>
       </c>
       <c r="L231" t="n">
         <v>13.86</v>
@@ -12296,7 +12318,7 @@
         <v>15.90000000000001</v>
       </c>
       <c r="K232" t="n">
-        <v>0</v>
+        <v>33.33333333333314</v>
       </c>
       <c r="L232" t="n">
         <v>13.87</v>
@@ -12347,7 +12369,7 @@
         <v>15.90000000000001</v>
       </c>
       <c r="K233" t="n">
-        <v>0</v>
+        <v>60.00000000000014</v>
       </c>
       <c r="L233" t="n">
         <v>13.89</v>
@@ -12398,7 +12420,7 @@
         <v>15.90000000000001</v>
       </c>
       <c r="K234" t="n">
-        <v>9.090909090909062</v>
+        <v>60.00000000000014</v>
       </c>
       <c r="L234" t="n">
         <v>13.92</v>
@@ -12449,7 +12471,7 @@
         <v>16.00000000000001</v>
       </c>
       <c r="K235" t="n">
-        <v>0</v>
+        <v>33.33333333333343</v>
       </c>
       <c r="L235" t="n">
         <v>13.94</v>
@@ -12500,7 +12522,7 @@
         <v>16.10000000000001</v>
       </c>
       <c r="K236" t="n">
-        <v>7.69230769230765</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L236" t="n">
         <v>13.97</v>
@@ -12551,7 +12573,7 @@
         <v>16.20000000000001</v>
       </c>
       <c r="K237" t="n">
-        <v>14.2857142857142</v>
+        <v>33.33333333333304</v>
       </c>
       <c r="L237" t="n">
         <v>13.99</v>
@@ -12602,7 +12624,7 @@
         <v>16.20000000000001</v>
       </c>
       <c r="K238" t="n">
-        <v>7.69230769230764</v>
+        <v>33.33333333333304</v>
       </c>
       <c r="L238" t="n">
         <v>14.01</v>
@@ -12653,7 +12675,7 @@
         <v>16.20000000000001</v>
       </c>
       <c r="K239" t="n">
-        <v>16.66666666666654</v>
+        <v>0</v>
       </c>
       <c r="L239" t="n">
         <v>14.03</v>
@@ -12704,7 +12726,7 @@
         <v>16.20000000000001</v>
       </c>
       <c r="K240" t="n">
-        <v>27.27272727272705</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L240" t="n">
         <v>14.03</v>
@@ -12755,7 +12777,7 @@
         <v>16.20000000000001</v>
       </c>
       <c r="K241" t="n">
-        <v>27.27272727272705</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L241" t="n">
         <v>14.04</v>
@@ -12806,7 +12828,7 @@
         <v>16.30000000000001</v>
       </c>
       <c r="K242" t="n">
-        <v>27.27272727272701</v>
+        <v>49.99999999999911</v>
       </c>
       <c r="L242" t="n">
         <v>14.06</v>
@@ -12857,7 +12879,7 @@
         <v>16.30000000000001</v>
       </c>
       <c r="K243" t="n">
-        <v>39.99999999999957</v>
+        <v>49.99999999999911</v>
       </c>
       <c r="L243" t="n">
         <v>14.08</v>
@@ -12908,7 +12930,7 @@
         <v>16.30000000000001</v>
       </c>
       <c r="K244" t="n">
-        <v>55.5555555555552</v>
+        <v>99.99999999999822</v>
       </c>
       <c r="L244" t="n">
         <v>14.1</v>
@@ -12959,7 +12981,7 @@
         <v>16.30000000000001</v>
       </c>
       <c r="K245" t="n">
-        <v>55.5555555555552</v>
+        <v>99.99999999999822</v>
       </c>
       <c r="L245" t="n">
         <v>14.13</v>
@@ -13010,7 +13032,7 @@
         <v>16.30000000000001</v>
       </c>
       <c r="K246" t="n">
-        <v>55.5555555555552</v>
+        <v>99.99999999999822</v>
       </c>
       <c r="L246" t="n">
         <v>14.15</v>
@@ -13061,7 +13083,7 @@
         <v>16.50000000000001</v>
       </c>
       <c r="K247" t="n">
-        <v>11.11111111111102</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L247" t="n">
         <v>14.14</v>
@@ -13112,7 +13134,7 @@
         <v>16.80000000000001</v>
       </c>
       <c r="K248" t="n">
-        <v>33.33333333333324</v>
+        <v>33.33333333333343</v>
       </c>
       <c r="L248" t="n">
         <v>14.16</v>
@@ -13163,7 +13185,7 @@
         <v>16.90000000000001</v>
       </c>
       <c r="K249" t="n">
-        <v>38.46153846153828</v>
+        <v>42.85714285714278</v>
       </c>
       <c r="L249" t="n">
         <v>14.19</v>
@@ -13214,7 +13236,7 @@
         <v>16.90000000000001</v>
       </c>
       <c r="K250" t="n">
-        <v>27.27272727272717</v>
+        <v>42.85714285714278</v>
       </c>
       <c r="L250" t="n">
         <v>14.22</v>
@@ -13265,7 +13287,7 @@
         <v>16.90000000000001</v>
       </c>
       <c r="K251" t="n">
-        <v>39.99999999999975</v>
+        <v>33.33333333333343</v>
       </c>
       <c r="L251" t="n">
         <v>14.25</v>
@@ -13316,7 +13338,7 @@
         <v>16.90000000000001</v>
       </c>
       <c r="K252" t="n">
-        <v>39.99999999999975</v>
+        <v>33.33333333333343</v>
       </c>
       <c r="L252" t="n">
         <v>14.27</v>
@@ -13367,7 +13389,7 @@
         <v>17.10000000000001</v>
       </c>
       <c r="K253" t="n">
-        <v>49.99999999999971</v>
+        <v>50</v>
       </c>
       <c r="L253" t="n">
         <v>14.31</v>
@@ -13418,7 +13440,7 @@
         <v>17.20000000000001</v>
       </c>
       <c r="K254" t="n">
-        <v>53.84615384615361</v>
+        <v>55.55555555555565</v>
       </c>
       <c r="L254" t="n">
         <v>14.36</v>
@@ -13469,7 +13491,7 @@
         <v>17.70000000000001</v>
       </c>
       <c r="K255" t="n">
-        <v>76.47058823529392</v>
+        <v>71.4285714285715</v>
       </c>
       <c r="L255" t="n">
         <v>14.46</v>
@@ -13520,7 +13542,7 @@
         <v>17.80000000000001</v>
       </c>
       <c r="K256" t="n">
-        <v>64.70588235294105</v>
+        <v>84.61538461538454</v>
       </c>
       <c r="L256" t="n">
         <v>14.55</v>
@@ -13571,7 +13593,7 @@
         <v>18.00000000000001</v>
       </c>
       <c r="K257" t="n">
-        <v>44.44444444444446</v>
+        <v>50</v>
       </c>
       <c r="L257" t="n">
         <v>14.64</v>
@@ -13622,7 +13644,7 @@
         <v>18.00000000000001</v>
       </c>
       <c r="K258" t="n">
-        <v>44.44444444444446</v>
+        <v>45.45454545454554</v>
       </c>
       <c r="L258" t="n">
         <v>14.7</v>
@@ -13673,7 +13695,7 @@
         <v>18.00000000000001</v>
       </c>
       <c r="K259" t="n">
-        <v>44.44444444444446</v>
+        <v>45.45454545454554</v>
       </c>
       <c r="L259" t="n">
         <v>14.75</v>
@@ -13724,7 +13746,7 @@
         <v>18.00000000000001</v>
       </c>
       <c r="K260" t="n">
-        <v>44.44444444444446</v>
+        <v>45.45454545454554</v>
       </c>
       <c r="L260" t="n">
         <v>14.8</v>
@@ -13775,7 +13797,7 @@
         <v>18.20000000000001</v>
       </c>
       <c r="K261" t="n">
-        <v>29.99999999999998</v>
+        <v>23.07692307692304</v>
       </c>
       <c r="L261" t="n">
         <v>14.83</v>
@@ -13826,7 +13848,7 @@
         <v>18.30000000000001</v>
       </c>
       <c r="K262" t="n">
-        <v>20.00000000000002</v>
+        <v>0</v>
       </c>
       <c r="L262" t="n">
         <v>14.85</v>
@@ -13877,7 +13899,7 @@
         <v>18.30000000000001</v>
       </c>
       <c r="K263" t="n">
-        <v>20.00000000000002</v>
+        <v>-9.090909090909047</v>
       </c>
       <c r="L263" t="n">
         <v>14.85</v>
@@ -13928,7 +13950,7 @@
         <v>18.50000000000001</v>
       </c>
       <c r="K264" t="n">
-        <v>9.090909090909143</v>
+        <v>-99.99999999999977</v>
       </c>
       <c r="L264" t="n">
         <v>14.82</v>
@@ -13979,7 +14001,7 @@
         <v>18.60000000000001</v>
       </c>
       <c r="K265" t="n">
-        <v>13.04347826086961</v>
+        <v>-75.00000000000023</v>
       </c>
       <c r="L265" t="n">
         <v>14.75</v>
@@ -14030,7 +14052,7 @@
         <v>18.70000000000001</v>
       </c>
       <c r="K266" t="n">
-        <v>16.66666666666669</v>
+        <v>-42.857142857143</v>
       </c>
       <c r="L266" t="n">
         <v>14.7</v>
@@ -14081,7 +14103,7 @@
         <v>18.70000000000001</v>
       </c>
       <c r="K267" t="n">
-        <v>27.27272727272727</v>
+        <v>-42.857142857143</v>
       </c>
       <c r="L267" t="n">
         <v>14.67</v>
@@ -14132,7 +14154,7 @@
         <v>18.90000000000001</v>
       </c>
       <c r="K268" t="n">
-        <v>4.761904761904749</v>
+        <v>-55.55555555555565</v>
       </c>
       <c r="L268" t="n">
         <v>14.62</v>
@@ -14183,7 +14205,7 @@
         <v>19.00000000000001</v>
       </c>
       <c r="K269" t="n">
-        <v>4.761904761904758</v>
+        <v>-40.00000000000018</v>
       </c>
       <c r="L269" t="n">
         <v>14.58</v>
@@ -14234,7 +14256,7 @@
         <v>19.10000000000001</v>
       </c>
       <c r="K270" t="n">
-        <v>0</v>
+        <v>-33.33333333333326</v>
       </c>
       <c r="L270" t="n">
         <v>14.53</v>
@@ -14285,7 +14307,7 @@
         <v>19.20000000000001</v>
       </c>
       <c r="K271" t="n">
-        <v>4.347826086956512</v>
+        <v>-11.11111111111109</v>
       </c>
       <c r="L271" t="n">
         <v>14.51</v>
@@ -14336,7 +14358,7 @@
         <v>19.20000000000001</v>
       </c>
       <c r="K272" t="n">
-        <v>4.347826086956512</v>
+        <v>-11.11111111111109</v>
       </c>
       <c r="L272" t="n">
         <v>14.5</v>
@@ -14387,7 +14409,7 @@
         <v>19.20000000000001</v>
       </c>
       <c r="K273" t="n">
-        <v>-4.761904761904749</v>
+        <v>14.28571428571425</v>
       </c>
       <c r="L273" t="n">
         <v>14.49</v>
@@ -14438,7 +14460,7 @@
         <v>19.40000000000001</v>
       </c>
       <c r="K274" t="n">
-        <v>-18.18181818181812</v>
+        <v>-24.99999999999989</v>
       </c>
       <c r="L274" t="n">
         <v>14.48</v>
@@ -14489,7 +14511,7 @@
         <v>19.60000000000001</v>
       </c>
       <c r="K275" t="n">
-        <v>-36.84210526315789</v>
+        <v>-11.11111111111109</v>
       </c>
       <c r="L275" t="n">
         <v>14.48</v>
@@ -14540,7 +14562,7 @@
         <v>19.70000000000001</v>
       </c>
       <c r="K276" t="n">
-        <v>-36.84210526315789</v>
+        <v>-19.99999999999993</v>
       </c>
       <c r="L276" t="n">
         <v>14.46</v>
@@ -14591,7 +14613,7 @@
         <v>19.70000000000001</v>
       </c>
       <c r="K277" t="n">
-        <v>-29.41176470588237</v>
+        <v>0</v>
       </c>
       <c r="L277" t="n">
         <v>14.44000000000001</v>
@@ -14642,7 +14664,7 @@
         <v>19.70000000000001</v>
       </c>
       <c r="K278" t="n">
-        <v>-29.41176470588237</v>
+        <v>-14.28571428571418</v>
       </c>
       <c r="L278" t="n">
         <v>14.44000000000001</v>
@@ -14693,7 +14715,7 @@
         <v>19.70000000000001</v>
       </c>
       <c r="K279" t="n">
-        <v>-29.41176470588237</v>
+        <v>0</v>
       </c>
       <c r="L279" t="n">
         <v>14.43000000000001</v>
@@ -14744,7 +14766,7 @@
         <v>19.80000000000001</v>
       </c>
       <c r="K280" t="n">
-        <v>-33.3333333333333</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L280" t="n">
         <v>14.42000000000001</v>
@@ -14795,7 +14817,7 @@
         <v>19.90000000000001</v>
       </c>
       <c r="K281" t="n">
-        <v>-17.64705882352932</v>
+        <v>-14.28571428571418</v>
       </c>
       <c r="L281" t="n">
         <v>14.41000000000001</v>
@@ -14846,7 +14868,7 @@
         <v>20.00000000000001</v>
       </c>
       <c r="K282" t="n">
-        <v>-5.88235294117644</v>
+        <v>0</v>
       </c>
       <c r="L282" t="n">
         <v>14.41000000000001</v>
@@ -14897,7 +14919,7 @@
         <v>20.10000000000002</v>
       </c>
       <c r="K283" t="n">
-        <v>0</v>
+        <v>42.85714285714231</v>
       </c>
       <c r="L283" t="n">
         <v>14.42000000000001</v>
@@ -14948,7 +14970,7 @@
         <v>20.10000000000002</v>
       </c>
       <c r="K284" t="n">
-        <v>12.49999999999992</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L284" t="n">
         <v>14.45000000000001</v>
@@ -14999,7 +15021,7 @@
         <v>20.20000000000002</v>
       </c>
       <c r="K285" t="n">
-        <v>0</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L285" t="n">
         <v>14.45000000000001</v>
@@ -15050,7 +15072,7 @@
         <v>20.20000000000002</v>
       </c>
       <c r="K286" t="n">
-        <v>-6.666666666666611</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L286" t="n">
         <v>14.46</v>
@@ -15101,7 +15123,7 @@
         <v>20.30000000000002</v>
       </c>
       <c r="K287" t="n">
-        <v>-12.49999999999989</v>
+        <v>0</v>
       </c>
       <c r="L287" t="n">
         <v>14.46</v>
@@ -15152,7 +15174,7 @@
         <v>20.40000000000002</v>
       </c>
       <c r="K288" t="n">
-        <v>6.666666666666596</v>
+        <v>14.28571428571403</v>
       </c>
       <c r="L288" t="n">
         <v>14.47</v>
@@ -15203,7 +15225,7 @@
         <v>20.40000000000002</v>
       </c>
       <c r="K289" t="n">
-        <v>0</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L289" t="n">
         <v>14.48</v>
@@ -15254,7 +15276,7 @@
         <v>20.50000000000002</v>
       </c>
       <c r="K290" t="n">
-        <v>14.28571428571411</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L290" t="n">
         <v>14.51</v>
@@ -15356,7 +15378,7 @@
         <v>20.70000000000002</v>
       </c>
       <c r="K292" t="n">
-        <v>-6.666666666666579</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L292" t="n">
         <v>14.51</v>
@@ -15407,7 +15429,7 @@
         <v>20.90000000000003</v>
       </c>
       <c r="K293" t="n">
-        <v>-17.64705882352928</v>
+        <v>-49.99999999999933</v>
       </c>
       <c r="L293" t="n">
         <v>14.47</v>
@@ -15458,7 +15480,7 @@
         <v>21.00000000000003</v>
       </c>
       <c r="K294" t="n">
-        <v>0</v>
+        <v>-24.99999999999956</v>
       </c>
       <c r="L294" t="n">
         <v>14.44</v>
@@ -15509,7 +15531,7 @@
         <v>21.10000000000003</v>
       </c>
       <c r="K295" t="n">
-        <v>-6.666666666666549</v>
+        <v>-11.11111111111091</v>
       </c>
       <c r="L295" t="n">
         <v>14.43</v>
@@ -15560,7 +15582,7 @@
         <v>21.20000000000003</v>
       </c>
       <c r="K296" t="n">
-        <v>-6.666666666666549</v>
+        <v>-11.11111111111091</v>
       </c>
       <c r="L296" t="n">
         <v>14.41000000000001</v>
@@ -15611,7 +15633,7 @@
         <v>21.30000000000003</v>
       </c>
       <c r="K297" t="n">
-        <v>-12.49999999999989</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L297" t="n">
         <v>14.39</v>
@@ -15662,7 +15684,7 @@
         <v>21.30000000000003</v>
       </c>
       <c r="K298" t="n">
-        <v>-12.49999999999989</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L298" t="n">
         <v>14.36</v>

--- a/BackTest/2019-11-01 BackTest RNT.xlsx
+++ b/BackTest/2019-11-01 BackTest RNT.xlsx
@@ -486,13 +486,17 @@
         <v>13.87</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="K3" t="n">
+        <v>13.3</v>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -527,8 +531,14 @@
         <v>0</v>
       </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -562,8 +572,14 @@
         <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -1046,13 +1062,17 @@
         <v>13.62333333333334</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="K19" t="n">
+        <v>13.2</v>
+      </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
@@ -1081,14 +1101,22 @@
         <v>13.60833333333334</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="K20" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1116,14 +1144,22 @@
         <v>13.59333333333334</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1641,17 +1677,13 @@
         <v>13.38000000000001</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K36" t="n">
-        <v>13.3</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
@@ -1680,22 +1712,14 @@
         <v>13.36666666666667</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="K37" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1729,14 +1753,8 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1770,14 +1788,8 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1811,14 +1823,8 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1852,14 +1858,8 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1893,14 +1893,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1934,14 +1928,8 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1969,22 +1957,14 @@
         <v>13.28500000000001</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K44" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2012,22 +1992,14 @@
         <v>13.27166666666668</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="K45" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2055,22 +2027,14 @@
         <v>13.26000000000001</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="K46" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2098,22 +2062,14 @@
         <v>13.24666666666668</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K47" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2141,22 +2097,14 @@
         <v>13.23500000000001</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K48" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2184,22 +2132,14 @@
         <v>13.22500000000001</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K49" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2227,22 +2167,14 @@
         <v>13.22500000000001</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="K50" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2270,22 +2202,14 @@
         <v>13.22166666666668</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K51" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2313,22 +2237,14 @@
         <v>13.22000000000001</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="K52" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2356,22 +2272,14 @@
         <v>13.21833333333335</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K53" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2399,22 +2307,14 @@
         <v>13.21333333333335</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K54" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2442,22 +2342,14 @@
         <v>13.21000000000002</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K55" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2485,22 +2377,14 @@
         <v>13.20333333333335</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K56" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2528,22 +2412,14 @@
         <v>13.20166666666668</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K57" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2571,22 +2447,14 @@
         <v>13.19833333333335</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>13</v>
-      </c>
-      <c r="K58" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2614,22 +2482,14 @@
         <v>13.19500000000002</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K59" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2657,22 +2517,14 @@
         <v>13.19500000000002</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="K60" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2700,22 +2552,14 @@
         <v>13.19500000000002</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K61" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2743,22 +2587,14 @@
         <v>13.19333333333335</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="K62" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2786,22 +2622,14 @@
         <v>13.19333333333335</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K63" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2829,22 +2657,14 @@
         <v>13.19166666666669</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="K64" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2872,22 +2692,14 @@
         <v>13.19000000000002</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="K65" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2915,22 +2727,14 @@
         <v>13.18833333333335</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="K66" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2958,22 +2762,14 @@
         <v>13.18833333333335</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="K67" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3001,22 +2797,14 @@
         <v>13.19000000000002</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="K68" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3044,22 +2832,14 @@
         <v>13.19333333333335</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K69" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3087,22 +2867,14 @@
         <v>13.19666666666668</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K70" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3130,22 +2902,14 @@
         <v>13.20000000000002</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K71" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3173,22 +2937,14 @@
         <v>13.20500000000001</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K72" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3216,22 +2972,14 @@
         <v>13.21500000000001</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="K73" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3259,22 +3007,14 @@
         <v>13.22166666666668</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="K74" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3308,14 +3048,8 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3349,14 +3083,8 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3390,14 +3118,8 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3431,14 +3153,8 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3472,14 +3188,8 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3513,14 +3223,8 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3554,14 +3258,8 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3595,14 +3293,8 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3636,14 +3328,8 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3677,14 +3363,8 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3718,14 +3398,8 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3759,14 +3433,8 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3800,14 +3468,8 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3841,14 +3503,8 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3882,14 +3538,8 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3923,14 +3573,8 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3964,14 +3608,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4005,14 +3643,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4046,14 +3678,8 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4087,14 +3713,8 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4128,14 +3748,8 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4169,14 +3783,8 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4210,14 +3818,8 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4251,14 +3853,8 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4292,14 +3888,8 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4333,14 +3923,8 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4374,14 +3958,8 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4415,14 +3993,8 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4456,14 +4028,8 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4497,14 +4063,8 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4538,14 +4098,8 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4579,14 +4133,8 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4620,14 +4168,8 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4661,14 +4203,8 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4702,14 +4238,8 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4743,14 +4273,8 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4784,14 +4308,8 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4825,14 +4343,8 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4866,14 +4378,8 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4907,14 +4413,8 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4948,14 +4448,8 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4989,14 +4483,8 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -5027,19 +4515,13 @@
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
-        <v>1.070187969924812</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -5068,7 +4550,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
@@ -5208,7 +4690,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>

--- a/BackTest/2019-11-01 BackTest RNT.xlsx
+++ b/BackTest/2019-11-01 BackTest RNT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M277"/>
+  <dimension ref="A1:M278"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,7 +433,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="C2" t="n">
         <v>13.3</v>
@@ -442,16 +442,16 @@
         <v>13.3</v>
       </c>
       <c r="E2" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="F2" t="n">
-        <v>2966.5413</v>
+        <v>85014.2738</v>
       </c>
       <c r="G2" t="n">
         <v>13.87</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>13.3</v>
       </c>
       <c r="F3" t="n">
-        <v>75253.3129</v>
+        <v>2966.5413</v>
       </c>
       <c r="G3" t="n">
         <v>13.87</v>
@@ -519,18 +519,20 @@
         <v>13.3</v>
       </c>
       <c r="F4" t="n">
-        <v>17351.7246</v>
+        <v>75253.3129</v>
       </c>
       <c r="G4" t="n">
-        <v>13.86833333333333</v>
+        <v>13.87</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>13.3</v>
+      </c>
       <c r="K4" t="n">
         <v>13.3</v>
       </c>
@@ -548,30 +550,32 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="C5" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="D5" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="E5" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="F5" t="n">
-        <v>420945.1561</v>
+        <v>17351.7246</v>
       </c>
       <c r="G5" t="n">
-        <v>13.865</v>
+        <v>13.86833333333333</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>13.3</v>
+      </c>
       <c r="K5" t="n">
         <v>13.3</v>
       </c>
@@ -589,7 +593,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="C6" t="n">
         <v>13.2</v>
@@ -598,13 +602,13 @@
         <v>13.2</v>
       </c>
       <c r="E6" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="F6" t="n">
-        <v>85630.0998</v>
+        <v>420945.1561</v>
       </c>
       <c r="G6" t="n">
-        <v>13.85166666666667</v>
+        <v>13.865</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -624,7 +628,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="C7" t="n">
         <v>13.2</v>
@@ -633,13 +637,13 @@
         <v>13.2</v>
       </c>
       <c r="E7" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="F7" t="n">
-        <v>4383.6553</v>
+        <v>85630.0998</v>
       </c>
       <c r="G7" t="n">
-        <v>13.835</v>
+        <v>13.85166666666667</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -659,22 +663,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="C8" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="D8" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="E8" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="F8" t="n">
-        <v>31296.7943</v>
+        <v>4383.6553</v>
       </c>
       <c r="G8" t="n">
-        <v>13.82333333333333</v>
+        <v>13.835</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -706,10 +710,10 @@
         <v>13.1</v>
       </c>
       <c r="F9" t="n">
-        <v>67743.20450000001</v>
+        <v>31296.7943</v>
       </c>
       <c r="G9" t="n">
-        <v>13.80666666666667</v>
+        <v>13.82333333333333</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -741,10 +745,10 @@
         <v>13.1</v>
       </c>
       <c r="F10" t="n">
-        <v>259287.3703</v>
+        <v>67743.20450000001</v>
       </c>
       <c r="G10" t="n">
-        <v>13.78833333333333</v>
+        <v>13.80666666666667</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -776,10 +780,10 @@
         <v>13.1</v>
       </c>
       <c r="F11" t="n">
-        <v>11994.6212</v>
+        <v>259287.3703</v>
       </c>
       <c r="G11" t="n">
-        <v>13.76833333333334</v>
+        <v>13.78833333333333</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -811,10 +815,10 @@
         <v>13.1</v>
       </c>
       <c r="F12" t="n">
-        <v>42159.7063</v>
+        <v>11994.6212</v>
       </c>
       <c r="G12" t="n">
-        <v>13.75333333333334</v>
+        <v>13.76833333333334</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,22 +838,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="C13" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="D13" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="E13" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="F13" t="n">
-        <v>27696.489</v>
+        <v>42159.7063</v>
       </c>
       <c r="G13" t="n">
-        <v>13.72833333333334</v>
+        <v>13.75333333333334</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -869,22 +873,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="D14" t="n">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="E14" t="n">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="F14" t="n">
-        <v>6115.856</v>
+        <v>27696.489</v>
       </c>
       <c r="G14" t="n">
-        <v>13.71</v>
+        <v>13.72833333333334</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -907,19 +911,19 @@
         <v>13.2</v>
       </c>
       <c r="C15" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="D15" t="n">
         <v>13.2</v>
       </c>
       <c r="E15" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="F15" t="n">
-        <v>13383.5249</v>
+        <v>6115.856</v>
       </c>
       <c r="G15" t="n">
-        <v>13.68833333333334</v>
+        <v>13.71</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -942,19 +946,19 @@
         <v>13.2</v>
       </c>
       <c r="C16" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="D16" t="n">
         <v>13.2</v>
       </c>
       <c r="E16" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="F16" t="n">
-        <v>38291.8881</v>
+        <v>13383.5249</v>
       </c>
       <c r="G16" t="n">
-        <v>13.66833333333334</v>
+        <v>13.68833333333334</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -977,19 +981,19 @@
         <v>13.2</v>
       </c>
       <c r="C17" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="D17" t="n">
         <v>13.2</v>
       </c>
       <c r="E17" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="F17" t="n">
-        <v>9996.060600000001</v>
+        <v>38291.8881</v>
       </c>
       <c r="G17" t="n">
-        <v>13.65166666666667</v>
+        <v>13.66833333333334</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1021,10 +1025,10 @@
         <v>13.2</v>
       </c>
       <c r="F18" t="n">
-        <v>9061.731100000001</v>
+        <v>9996.060600000001</v>
       </c>
       <c r="G18" t="n">
-        <v>13.63500000000001</v>
+        <v>13.65166666666667</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1056,23 +1060,19 @@
         <v>13.2</v>
       </c>
       <c r="F19" t="n">
-        <v>13820.9052</v>
+        <v>9061.731100000001</v>
       </c>
       <c r="G19" t="n">
-        <v>13.62333333333334</v>
+        <v>13.63500000000001</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="K19" t="n">
-        <v>13.2</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
@@ -1083,40 +1083,32 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="C20" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="D20" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="E20" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="F20" t="n">
-        <v>27210.1885</v>
+        <v>13820.9052</v>
       </c>
       <c r="G20" t="n">
-        <v>13.60833333333334</v>
+        <v>13.62333333333334</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="K20" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1138,28 +1130,20 @@
         <v>13.1</v>
       </c>
       <c r="F21" t="n">
-        <v>48412.2575</v>
+        <v>27210.1885</v>
       </c>
       <c r="G21" t="n">
-        <v>13.59333333333334</v>
+        <v>13.60833333333334</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K21" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1172,19 +1156,19 @@
         <v>13.1</v>
       </c>
       <c r="C22" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="D22" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="E22" t="n">
         <v>13.1</v>
       </c>
       <c r="F22" t="n">
-        <v>163345.7704</v>
+        <v>48412.2575</v>
       </c>
       <c r="G22" t="n">
-        <v>13.57833333333334</v>
+        <v>13.59333333333334</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1204,22 +1188,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>13.4</v>
+        <v>13.1</v>
       </c>
       <c r="C23" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="D23" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="E23" t="n">
-        <v>13.4</v>
+        <v>13.1</v>
       </c>
       <c r="F23" t="n">
-        <v>20943.2835</v>
+        <v>163345.7704</v>
       </c>
       <c r="G23" t="n">
-        <v>13.56833333333334</v>
+        <v>13.57833333333334</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1251,10 +1235,10 @@
         <v>13.4</v>
       </c>
       <c r="F24" t="n">
-        <v>17721.0447</v>
+        <v>20943.2835</v>
       </c>
       <c r="G24" t="n">
-        <v>13.55666666666667</v>
+        <v>13.56833333333334</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1286,10 +1270,10 @@
         <v>13.4</v>
       </c>
       <c r="F25" t="n">
-        <v>268530.3731</v>
+        <v>17721.0447</v>
       </c>
       <c r="G25" t="n">
-        <v>13.54666666666667</v>
+        <v>13.55666666666667</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1321,10 +1305,10 @@
         <v>13.4</v>
       </c>
       <c r="F26" t="n">
-        <v>33685.4332</v>
+        <v>268530.3731</v>
       </c>
       <c r="G26" t="n">
-        <v>13.53833333333334</v>
+        <v>13.54666666666667</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1344,22 +1328,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>13.2</v>
+        <v>13.4</v>
       </c>
       <c r="C27" t="n">
-        <v>13.2</v>
+        <v>13.4</v>
       </c>
       <c r="D27" t="n">
-        <v>13.2</v>
+        <v>13.4</v>
       </c>
       <c r="E27" t="n">
-        <v>13.2</v>
+        <v>13.4</v>
       </c>
       <c r="F27" t="n">
-        <v>32682.7778</v>
+        <v>33685.4332</v>
       </c>
       <c r="G27" t="n">
-        <v>13.52500000000001</v>
+        <v>13.53833333333334</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1391,10 +1375,10 @@
         <v>13.2</v>
       </c>
       <c r="F28" t="n">
-        <v>17676.7421</v>
+        <v>32682.7778</v>
       </c>
       <c r="G28" t="n">
-        <v>13.50500000000001</v>
+        <v>13.52500000000001</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1426,10 +1410,10 @@
         <v>13.2</v>
       </c>
       <c r="F29" t="n">
-        <v>11964.6347</v>
+        <v>17676.7421</v>
       </c>
       <c r="G29" t="n">
-        <v>13.48833333333334</v>
+        <v>13.50500000000001</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1461,10 +1445,10 @@
         <v>13.2</v>
       </c>
       <c r="F30" t="n">
-        <v>92933.7142</v>
+        <v>11964.6347</v>
       </c>
       <c r="G30" t="n">
-        <v>13.47166666666667</v>
+        <v>13.48833333333334</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1484,22 +1468,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="C31" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="D31" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="E31" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="F31" t="n">
-        <v>14621.2808</v>
+        <v>92933.7142</v>
       </c>
       <c r="G31" t="n">
-        <v>13.45166666666668</v>
+        <v>13.47166666666667</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1519,22 +1503,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="C32" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="D32" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="E32" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="F32" t="n">
-        <v>14929.9129</v>
+        <v>14621.2808</v>
       </c>
       <c r="G32" t="n">
-        <v>13.43500000000001</v>
+        <v>13.45166666666668</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1557,19 +1541,19 @@
         <v>13.2</v>
       </c>
       <c r="C33" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="D33" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="E33" t="n">
         <v>13.2</v>
       </c>
       <c r="F33" t="n">
-        <v>5000</v>
+        <v>14929.9129</v>
       </c>
       <c r="G33" t="n">
-        <v>13.41666666666668</v>
+        <v>13.43500000000001</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1601,10 +1585,10 @@
         <v>13.2</v>
       </c>
       <c r="F34" t="n">
-        <v>5252.8241</v>
+        <v>5000</v>
       </c>
       <c r="G34" t="n">
-        <v>13.40333333333334</v>
+        <v>13.41666666666668</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1627,19 +1611,19 @@
         <v>13.2</v>
       </c>
       <c r="C35" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="D35" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="E35" t="n">
         <v>13.2</v>
       </c>
       <c r="F35" t="n">
-        <v>19984.8558</v>
+        <v>5252.8241</v>
       </c>
       <c r="G35" t="n">
-        <v>13.39500000000001</v>
+        <v>13.40333333333334</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1659,7 +1643,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="C36" t="n">
         <v>13.3</v>
@@ -1668,13 +1652,13 @@
         <v>13.3</v>
       </c>
       <c r="E36" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="F36" t="n">
-        <v>115.0387</v>
+        <v>19984.8558</v>
       </c>
       <c r="G36" t="n">
-        <v>13.38000000000001</v>
+        <v>13.39500000000001</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1694,22 +1678,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="C37" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="D37" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="E37" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="F37" t="n">
-        <v>2974.1791</v>
+        <v>115.0387</v>
       </c>
       <c r="G37" t="n">
-        <v>13.36666666666667</v>
+        <v>13.38000000000001</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1729,22 +1713,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="C38" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="D38" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="E38" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="F38" t="n">
-        <v>1500</v>
+        <v>2974.1791</v>
       </c>
       <c r="G38" t="n">
-        <v>13.35666666666667</v>
+        <v>13.36666666666667</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1776,10 +1760,10 @@
         <v>13.3</v>
       </c>
       <c r="F39" t="n">
-        <v>15500</v>
+        <v>1500</v>
       </c>
       <c r="G39" t="n">
-        <v>13.34666666666667</v>
+        <v>13.35666666666667</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1811,10 +1795,10 @@
         <v>13.3</v>
       </c>
       <c r="F40" t="n">
-        <v>23821.8045</v>
+        <v>15500</v>
       </c>
       <c r="G40" t="n">
-        <v>13.33500000000001</v>
+        <v>13.34666666666667</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1846,10 +1830,10 @@
         <v>13.3</v>
       </c>
       <c r="F41" t="n">
-        <v>4899.19</v>
+        <v>23821.8045</v>
       </c>
       <c r="G41" t="n">
-        <v>13.32666666666667</v>
+        <v>13.33500000000001</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1869,22 +1853,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="C42" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="D42" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="E42" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="F42" t="n">
-        <v>64889.5293</v>
+        <v>4899.19</v>
       </c>
       <c r="G42" t="n">
-        <v>13.31333333333334</v>
+        <v>13.32666666666667</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1916,10 +1900,10 @@
         <v>13.2</v>
       </c>
       <c r="F43" t="n">
-        <v>7575.757575757576</v>
+        <v>64889.5293</v>
       </c>
       <c r="G43" t="n">
-        <v>13.30000000000001</v>
+        <v>13.31333333333334</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1939,22 +1923,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="C44" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="D44" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="E44" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="F44" t="n">
-        <v>38491.3589</v>
+        <v>7575.757575757576</v>
       </c>
       <c r="G44" t="n">
-        <v>13.28500000000001</v>
+        <v>13.30000000000001</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1974,22 +1958,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="C45" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="D45" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="E45" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="F45" t="n">
-        <v>16913.45412424242</v>
+        <v>38491.3589</v>
       </c>
       <c r="G45" t="n">
-        <v>13.27166666666668</v>
+        <v>13.28500000000001</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2021,10 +2005,10 @@
         <v>13.2</v>
       </c>
       <c r="F46" t="n">
-        <v>8971.545875757576</v>
+        <v>16913.45412424242</v>
       </c>
       <c r="G46" t="n">
-        <v>13.26000000000001</v>
+        <v>13.27166666666668</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2044,22 +2028,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="C47" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="D47" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="E47" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="F47" t="n">
-        <v>107929.6115</v>
+        <v>8971.545875757576</v>
       </c>
       <c r="G47" t="n">
-        <v>13.24666666666668</v>
+        <v>13.26000000000001</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2091,10 +2075,10 @@
         <v>13.1</v>
       </c>
       <c r="F48" t="n">
-        <v>50298.9375</v>
+        <v>107929.6115</v>
       </c>
       <c r="G48" t="n">
-        <v>13.23500000000001</v>
+        <v>13.24666666666668</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2126,10 +2110,10 @@
         <v>13.1</v>
       </c>
       <c r="F49" t="n">
-        <v>100</v>
+        <v>50298.9375</v>
       </c>
       <c r="G49" t="n">
-        <v>13.22500000000001</v>
+        <v>13.23500000000001</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2149,19 +2133,19 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="C50" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="D50" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="E50" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="F50" t="n">
-        <v>770</v>
+        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>13.22500000000001</v>
@@ -2184,22 +2168,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="C51" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="D51" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="E51" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="F51" t="n">
-        <v>44152.4338</v>
+        <v>770</v>
       </c>
       <c r="G51" t="n">
-        <v>13.22166666666668</v>
+        <v>13.22500000000001</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2219,22 +2203,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="C52" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="D52" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="E52" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="F52" t="n">
-        <v>3147.79</v>
+        <v>44152.4338</v>
       </c>
       <c r="G52" t="n">
-        <v>13.22000000000001</v>
+        <v>13.22166666666668</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2254,22 +2238,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="C53" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="D53" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="E53" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="F53" t="n">
-        <v>10</v>
+        <v>3147.79</v>
       </c>
       <c r="G53" t="n">
-        <v>13.21833333333335</v>
+        <v>13.22000000000001</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2301,10 +2285,10 @@
         <v>13.1</v>
       </c>
       <c r="F54" t="n">
-        <v>25107.8792</v>
+        <v>10</v>
       </c>
       <c r="G54" t="n">
-        <v>13.21333333333335</v>
+        <v>13.21833333333335</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2336,10 +2320,10 @@
         <v>13.1</v>
       </c>
       <c r="F55" t="n">
-        <v>55000</v>
+        <v>25107.8792</v>
       </c>
       <c r="G55" t="n">
-        <v>13.21000000000002</v>
+        <v>13.21333333333335</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2371,10 +2355,10 @@
         <v>13.1</v>
       </c>
       <c r="F56" t="n">
-        <v>75323.6376</v>
+        <v>55000</v>
       </c>
       <c r="G56" t="n">
-        <v>13.20333333333335</v>
+        <v>13.21000000000002</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2406,10 +2390,10 @@
         <v>13.1</v>
       </c>
       <c r="F57" t="n">
-        <v>121509.7808</v>
+        <v>75323.6376</v>
       </c>
       <c r="G57" t="n">
-        <v>13.20166666666668</v>
+        <v>13.20333333333335</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2429,22 +2413,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="C58" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="D58" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="E58" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="F58" t="n">
-        <v>172295.7153</v>
+        <v>121509.7808</v>
       </c>
       <c r="G58" t="n">
-        <v>13.19833333333335</v>
+        <v>13.20166666666668</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2464,22 +2448,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="C59" t="n">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="D59" t="n">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="E59" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="F59" t="n">
-        <v>14436.0826</v>
+        <v>172295.7153</v>
       </c>
       <c r="G59" t="n">
-        <v>13.19500000000002</v>
+        <v>13.19833333333335</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2499,7 +2483,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="C60" t="n">
         <v>13.2</v>
@@ -2508,10 +2492,10 @@
         <v>13.2</v>
       </c>
       <c r="E60" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="F60" t="n">
-        <v>521886.03</v>
+        <v>14436.0826</v>
       </c>
       <c r="G60" t="n">
         <v>13.19500000000002</v>
@@ -2534,19 +2518,19 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="C61" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="D61" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="E61" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="F61" t="n">
-        <v>10</v>
+        <v>521886.03</v>
       </c>
       <c r="G61" t="n">
         <v>13.19500000000002</v>
@@ -2569,22 +2553,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="C62" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="D62" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="E62" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="F62" t="n">
-        <v>71597.2062</v>
+        <v>10</v>
       </c>
       <c r="G62" t="n">
-        <v>13.19333333333335</v>
+        <v>13.19500000000002</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2604,19 +2588,19 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="C63" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="D63" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="E63" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="F63" t="n">
-        <v>10</v>
+        <v>71597.2062</v>
       </c>
       <c r="G63" t="n">
         <v>13.19333333333335</v>
@@ -2639,22 +2623,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="C64" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="D64" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="E64" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="F64" t="n">
-        <v>9377.104499999999</v>
+        <v>10</v>
       </c>
       <c r="G64" t="n">
-        <v>13.19166666666669</v>
+        <v>13.19333333333335</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2677,19 +2661,19 @@
         <v>13.2</v>
       </c>
       <c r="C65" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="D65" t="n">
         <v>13.2</v>
       </c>
       <c r="E65" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="F65" t="n">
-        <v>85394.1906</v>
+        <v>9377.104499999999</v>
       </c>
       <c r="G65" t="n">
-        <v>13.19000000000002</v>
+        <v>13.19166666666669</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2721,10 +2705,10 @@
         <v>13.1</v>
       </c>
       <c r="F66" t="n">
-        <v>74023.9146</v>
+        <v>85394.1906</v>
       </c>
       <c r="G66" t="n">
-        <v>13.18833333333335</v>
+        <v>13.19000000000002</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2747,16 +2731,16 @@
         <v>13.2</v>
       </c>
       <c r="C67" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="D67" t="n">
         <v>13.2</v>
       </c>
       <c r="E67" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="F67" t="n">
-        <v>1230</v>
+        <v>74023.9146</v>
       </c>
       <c r="G67" t="n">
         <v>13.18833333333335</v>
@@ -2791,10 +2775,10 @@
         <v>13.2</v>
       </c>
       <c r="F68" t="n">
-        <v>16986.3235</v>
+        <v>1230</v>
       </c>
       <c r="G68" t="n">
-        <v>13.19000000000002</v>
+        <v>13.18833333333335</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2814,22 +2798,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="C69" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="D69" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="E69" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="F69" t="n">
-        <v>10</v>
+        <v>16986.3235</v>
       </c>
       <c r="G69" t="n">
-        <v>13.19333333333335</v>
+        <v>13.19000000000002</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2861,10 +2845,10 @@
         <v>13.3</v>
       </c>
       <c r="F70" t="n">
-        <v>1237.4436</v>
+        <v>10</v>
       </c>
       <c r="G70" t="n">
-        <v>13.19666666666668</v>
+        <v>13.19333333333335</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2896,10 +2880,10 @@
         <v>13.3</v>
       </c>
       <c r="F71" t="n">
-        <v>209129.1211</v>
+        <v>1237.4436</v>
       </c>
       <c r="G71" t="n">
-        <v>13.20000000000002</v>
+        <v>13.19666666666668</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2922,19 +2906,19 @@
         <v>13.3</v>
       </c>
       <c r="C72" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="D72" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="E72" t="n">
         <v>13.3</v>
       </c>
       <c r="F72" t="n">
-        <v>20596.8007</v>
+        <v>209129.1211</v>
       </c>
       <c r="G72" t="n">
-        <v>13.20500000000001</v>
+        <v>13.20000000000002</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2954,22 +2938,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="C73" t="n">
         <v>13.4</v>
       </c>
-      <c r="C73" t="n">
-        <v>13.6</v>
-      </c>
       <c r="D73" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="E73" t="n">
-        <v>13.4</v>
+        <v>13.3</v>
       </c>
       <c r="F73" t="n">
-        <v>526544.1176</v>
+        <v>20596.8007</v>
       </c>
       <c r="G73" t="n">
-        <v>13.21500000000001</v>
+        <v>13.20500000000001</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2989,22 +2973,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="C74" t="n">
         <v>13.6</v>
       </c>
       <c r="D74" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="E74" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="F74" t="n">
-        <v>141393.8648</v>
+        <v>526544.1176</v>
       </c>
       <c r="G74" t="n">
-        <v>13.22166666666668</v>
+        <v>13.21500000000001</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3024,22 +3008,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="C75" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="D75" t="n">
         <v>13.7</v>
       </c>
       <c r="E75" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="F75" t="n">
-        <v>12684.7143</v>
+        <v>141393.8648</v>
       </c>
       <c r="G75" t="n">
-        <v>13.23333333333335</v>
+        <v>13.22166666666668</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3059,7 +3043,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="C76" t="n">
         <v>13.7</v>
@@ -3071,10 +3055,10 @@
         <v>13.6</v>
       </c>
       <c r="F76" t="n">
-        <v>22192.8156</v>
+        <v>12684.7143</v>
       </c>
       <c r="G76" t="n">
-        <v>13.24333333333335</v>
+        <v>13.23333333333335</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3097,19 +3081,19 @@
         <v>13.6</v>
       </c>
       <c r="C77" t="n">
-        <v>13.5</v>
+        <v>13.7</v>
       </c>
       <c r="D77" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="E77" t="n">
         <v>13.6</v>
       </c>
-      <c r="E77" t="n">
-        <v>13.5</v>
-      </c>
       <c r="F77" t="n">
-        <v>24.568</v>
+        <v>22192.8156</v>
       </c>
       <c r="G77" t="n">
-        <v>13.24833333333335</v>
+        <v>13.24333333333335</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3129,22 +3113,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="C78" t="n">
         <v>13.5</v>
       </c>
       <c r="D78" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="E78" t="n">
         <v>13.5</v>
       </c>
       <c r="F78" t="n">
-        <v>97455.8518</v>
+        <v>24.568</v>
       </c>
       <c r="G78" t="n">
-        <v>13.25333333333335</v>
+        <v>13.24833333333335</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3164,22 +3148,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="C79" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="D79" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="E79" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="F79" t="n">
-        <v>23064.9864</v>
+        <v>97455.8518</v>
       </c>
       <c r="G79" t="n">
-        <v>13.25666666666668</v>
+        <v>13.25333333333335</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3211,10 +3195,10 @@
         <v>13.4</v>
       </c>
       <c r="F80" t="n">
-        <v>214343.5956</v>
+        <v>23064.9864</v>
       </c>
       <c r="G80" t="n">
-        <v>13.26166666666668</v>
+        <v>13.25666666666668</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3246,10 +3230,10 @@
         <v>13.4</v>
       </c>
       <c r="F81" t="n">
-        <v>312200.522</v>
+        <v>214343.5956</v>
       </c>
       <c r="G81" t="n">
-        <v>13.26666666666668</v>
+        <v>13.26166666666668</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3269,22 +3253,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="C82" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="D82" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="E82" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="F82" t="n">
-        <v>333</v>
+        <v>312200.522</v>
       </c>
       <c r="G82" t="n">
-        <v>13.27000000000001</v>
+        <v>13.26666666666668</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3316,10 +3300,10 @@
         <v>13.5</v>
       </c>
       <c r="F83" t="n">
-        <v>177819.037</v>
+        <v>333</v>
       </c>
       <c r="G83" t="n">
-        <v>13.27166666666668</v>
+        <v>13.27000000000001</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3339,22 +3323,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="C84" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="D84" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="E84" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="F84" t="n">
-        <v>333</v>
+        <v>177819.037</v>
       </c>
       <c r="G84" t="n">
-        <v>13.27500000000001</v>
+        <v>13.27166666666668</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3374,22 +3358,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="C85" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="D85" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="E85" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="F85" t="n">
-        <v>16199.4074</v>
+        <v>333</v>
       </c>
       <c r="G85" t="n">
-        <v>13.27666666666668</v>
+        <v>13.27500000000001</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3409,22 +3393,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="C86" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="D86" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="E86" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="F86" t="n">
-        <v>333</v>
+        <v>16199.4074</v>
       </c>
       <c r="G86" t="n">
-        <v>13.28000000000001</v>
+        <v>13.27666666666668</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3444,22 +3428,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="C87" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="D87" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="E87" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="F87" t="n">
-        <v>9020</v>
+        <v>333</v>
       </c>
       <c r="G87" t="n">
-        <v>13.28500000000001</v>
+        <v>13.28000000000001</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3479,22 +3463,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="C88" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="D88" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="E88" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="F88" t="n">
-        <v>89071.65119999999</v>
+        <v>9020</v>
       </c>
       <c r="G88" t="n">
-        <v>13.28833333333335</v>
+        <v>13.28500000000001</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3514,22 +3498,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="C89" t="n">
         <v>13.4</v>
       </c>
-      <c r="C89" t="n">
-        <v>13.3</v>
-      </c>
       <c r="D89" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="E89" t="n">
         <v>13.4</v>
       </c>
-      <c r="E89" t="n">
-        <v>13.3</v>
-      </c>
       <c r="F89" t="n">
-        <v>135661.4934</v>
+        <v>89071.65119999999</v>
       </c>
       <c r="G89" t="n">
-        <v>13.29000000000001</v>
+        <v>13.28833333333335</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3549,22 +3533,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="C90" t="n">
-        <v>13.6</v>
+        <v>13.3</v>
       </c>
       <c r="D90" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="E90" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="F90" t="n">
-        <v>6000</v>
+        <v>135661.4934</v>
       </c>
       <c r="G90" t="n">
-        <v>13.29666666666668</v>
+        <v>13.29000000000001</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3593,13 +3577,13 @@
         <v>13.6</v>
       </c>
       <c r="E91" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="F91" t="n">
-        <v>12079.0457</v>
+        <v>6000</v>
       </c>
       <c r="G91" t="n">
-        <v>13.30500000000001</v>
+        <v>13.29666666666668</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3619,7 +3603,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="C92" t="n">
         <v>13.6</v>
@@ -3628,13 +3612,13 @@
         <v>13.6</v>
       </c>
       <c r="E92" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="F92" t="n">
-        <v>1044.6139</v>
+        <v>12079.0457</v>
       </c>
       <c r="G92" t="n">
-        <v>13.31000000000001</v>
+        <v>13.30500000000001</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3654,7 +3638,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="C93" t="n">
         <v>13.6</v>
@@ -3663,13 +3647,13 @@
         <v>13.6</v>
       </c>
       <c r="E93" t="n">
-        <v>13.4</v>
+        <v>13.6</v>
       </c>
       <c r="F93" t="n">
-        <v>16170.2299</v>
+        <v>1044.6139</v>
       </c>
       <c r="G93" t="n">
-        <v>13.31666666666668</v>
+        <v>13.31000000000001</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3689,7 +3673,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="C94" t="n">
         <v>13.6</v>
@@ -3698,13 +3682,13 @@
         <v>13.6</v>
       </c>
       <c r="E94" t="n">
-        <v>13.6</v>
+        <v>13.4</v>
       </c>
       <c r="F94" t="n">
-        <v>109926.3602</v>
+        <v>16170.2299</v>
       </c>
       <c r="G94" t="n">
-        <v>13.32333333333334</v>
+        <v>13.31666666666668</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3736,10 +3720,10 @@
         <v>13.6</v>
       </c>
       <c r="F95" t="n">
-        <v>15290.3308</v>
+        <v>109926.3602</v>
       </c>
       <c r="G95" t="n">
-        <v>13.32833333333335</v>
+        <v>13.32333333333334</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3762,19 +3746,19 @@
         <v>13.6</v>
       </c>
       <c r="C96" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="D96" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="E96" t="n">
         <v>13.6</v>
       </c>
       <c r="F96" t="n">
-        <v>153849.3414</v>
+        <v>15290.3308</v>
       </c>
       <c r="G96" t="n">
-        <v>13.33500000000001</v>
+        <v>13.32833333333335</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3794,7 +3778,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="C97" t="n">
         <v>13.7</v>
@@ -3803,13 +3787,13 @@
         <v>13.7</v>
       </c>
       <c r="E97" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="F97" t="n">
-        <v>121566.6423</v>
+        <v>153849.3414</v>
       </c>
       <c r="G97" t="n">
-        <v>13.34000000000001</v>
+        <v>13.33500000000001</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3832,19 +3816,19 @@
         <v>13.7</v>
       </c>
       <c r="C98" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="D98" t="n">
         <v>13.7</v>
       </c>
       <c r="E98" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="F98" t="n">
-        <v>81215.47440000001</v>
+        <v>121566.6423</v>
       </c>
       <c r="G98" t="n">
-        <v>13.34500000000002</v>
+        <v>13.34000000000001</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3864,22 +3848,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="C99" t="n">
-        <v>13.8</v>
+        <v>13.6</v>
       </c>
       <c r="D99" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="E99" t="n">
-        <v>13.8</v>
+        <v>13.6</v>
       </c>
       <c r="F99" t="n">
-        <v>56270.1013</v>
+        <v>81215.47440000001</v>
       </c>
       <c r="G99" t="n">
-        <v>13.35333333333335</v>
+        <v>13.34500000000002</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3899,22 +3883,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="C100" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="D100" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="E100" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="F100" t="n">
-        <v>14267.49</v>
+        <v>56270.1013</v>
       </c>
       <c r="G100" t="n">
-        <v>13.36000000000002</v>
+        <v>13.35333333333335</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3937,19 +3921,19 @@
         <v>13.7</v>
       </c>
       <c r="C101" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="D101" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="E101" t="n">
         <v>13.7</v>
       </c>
       <c r="F101" t="n">
-        <v>56553.1573</v>
+        <v>14267.49</v>
       </c>
       <c r="G101" t="n">
-        <v>13.36833333333335</v>
+        <v>13.36000000000002</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3969,7 +3953,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="C102" t="n">
         <v>13.8</v>
@@ -3978,13 +3962,13 @@
         <v>13.8</v>
       </c>
       <c r="E102" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="F102" t="n">
-        <v>72455.2173</v>
+        <v>56553.1573</v>
       </c>
       <c r="G102" t="n">
-        <v>13.37833333333335</v>
+        <v>13.36833333333335</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4016,10 +4000,10 @@
         <v>13.8</v>
       </c>
       <c r="F103" t="n">
-        <v>112476.3768</v>
+        <v>72455.2173</v>
       </c>
       <c r="G103" t="n">
-        <v>13.38833333333335</v>
+        <v>13.37833333333335</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4039,22 +4023,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="C104" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="D104" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="E104" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="F104" t="n">
-        <v>6310</v>
+        <v>112476.3768</v>
       </c>
       <c r="G104" t="n">
-        <v>13.39833333333335</v>
+        <v>13.38833333333335</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4074,22 +4058,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="C105" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="D105" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="E105" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="F105" t="n">
-        <v>26260.3623</v>
+        <v>6310</v>
       </c>
       <c r="G105" t="n">
-        <v>13.40833333333335</v>
+        <v>13.39833333333335</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4121,10 +4105,10 @@
         <v>13.8</v>
       </c>
       <c r="F106" t="n">
-        <v>25223.1739</v>
+        <v>26260.3623</v>
       </c>
       <c r="G106" t="n">
-        <v>13.41833333333335</v>
+        <v>13.40833333333335</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4156,10 +4140,10 @@
         <v>13.8</v>
       </c>
       <c r="F107" t="n">
-        <v>92620.37669999999</v>
+        <v>25223.1739</v>
       </c>
       <c r="G107" t="n">
-        <v>13.43000000000001</v>
+        <v>13.41833333333335</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4191,10 +4175,10 @@
         <v>13.8</v>
       </c>
       <c r="F108" t="n">
-        <v>72699.3839</v>
+        <v>92620.37669999999</v>
       </c>
       <c r="G108" t="n">
-        <v>13.44166666666668</v>
+        <v>13.43000000000001</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4226,10 +4210,10 @@
         <v>13.8</v>
       </c>
       <c r="F109" t="n">
-        <v>14492.75362318841</v>
+        <v>72699.3839</v>
       </c>
       <c r="G109" t="n">
-        <v>13.45333333333334</v>
+        <v>13.44166666666668</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4252,19 +4236,19 @@
         <v>13.8</v>
       </c>
       <c r="C110" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="D110" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="E110" t="n">
         <v>13.8</v>
       </c>
       <c r="F110" t="n">
-        <v>204060.870155535</v>
+        <v>14492.75362318841</v>
       </c>
       <c r="G110" t="n">
-        <v>13.46833333333334</v>
+        <v>13.45333333333334</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4284,22 +4268,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="C111" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="D111" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="E111" t="n">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="F111" t="n">
-        <v>345219.3038522625</v>
+        <v>204060.870155535</v>
       </c>
       <c r="G111" t="n">
-        <v>13.48666666666668</v>
+        <v>13.46833333333334</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4319,7 +4303,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="C112" t="n">
         <v>14.2</v>
@@ -4328,13 +4312,13 @@
         <v>14.2</v>
       </c>
       <c r="E112" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="F112" t="n">
-        <v>2816.901408450704</v>
+        <v>345219.3038522625</v>
       </c>
       <c r="G112" t="n">
-        <v>13.50333333333334</v>
+        <v>13.48666666666668</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4366,10 +4350,10 @@
         <v>14.2</v>
       </c>
       <c r="F113" t="n">
-        <v>171348.0281380282</v>
+        <v>2816.901408450704</v>
       </c>
       <c r="G113" t="n">
-        <v>13.52166666666668</v>
+        <v>13.50333333333334</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4389,22 +4373,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="C114" t="n">
-        <v>14</v>
+        <v>14.2</v>
       </c>
       <c r="D114" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="E114" t="n">
-        <v>14</v>
+        <v>14.2</v>
       </c>
       <c r="F114" t="n">
-        <v>21024.4028</v>
+        <v>171348.0281380282</v>
       </c>
       <c r="G114" t="n">
-        <v>13.53666666666667</v>
+        <v>13.52166666666668</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4424,28 +4408,28 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="C115" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="D115" t="n">
         <v>14.1</v>
       </c>
       <c r="E115" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="F115" t="n">
-        <v>18862.50742340425</v>
+        <v>21024.4028</v>
       </c>
       <c r="G115" t="n">
-        <v>13.55333333333334</v>
+        <v>13.53666666666667</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
@@ -4459,28 +4443,28 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="C116" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="D116" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="E116" t="n">
-        <v>14.1</v>
+        <v>13.9</v>
       </c>
       <c r="F116" t="n">
-        <v>3522.671337159125</v>
+        <v>18862.50742340425</v>
       </c>
       <c r="G116" t="n">
-        <v>13.57166666666668</v>
+        <v>13.55333333333334</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
@@ -4497,19 +4481,19 @@
         <v>14.1</v>
       </c>
       <c r="C117" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="D117" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="E117" t="n">
         <v>14.1</v>
       </c>
       <c r="F117" t="n">
-        <v>131626.5034</v>
+        <v>3522.671337159125</v>
       </c>
       <c r="G117" t="n">
-        <v>13.59166666666667</v>
+        <v>13.57166666666668</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4529,7 +4513,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>14.3</v>
+        <v>14.1</v>
       </c>
       <c r="C118" t="n">
         <v>14.3</v>
@@ -4538,13 +4522,13 @@
         <v>14.3</v>
       </c>
       <c r="E118" t="n">
-        <v>14.3</v>
+        <v>14.1</v>
       </c>
       <c r="F118" t="n">
-        <v>57971.6083</v>
+        <v>131626.5034</v>
       </c>
       <c r="G118" t="n">
-        <v>13.61333333333334</v>
+        <v>13.59166666666667</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4576,10 +4560,10 @@
         <v>14.3</v>
       </c>
       <c r="F119" t="n">
-        <v>24272.9858</v>
+        <v>57971.6083</v>
       </c>
       <c r="G119" t="n">
-        <v>13.63166666666667</v>
+        <v>13.61333333333334</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4599,22 +4583,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="C120" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="D120" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="E120" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="F120" t="n">
-        <v>8215.422500000001</v>
+        <v>24272.9858</v>
       </c>
       <c r="G120" t="n">
-        <v>13.64833333333334</v>
+        <v>13.63166666666667</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4634,22 +4618,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="C121" t="n">
-        <v>14</v>
+        <v>14.2</v>
       </c>
       <c r="D121" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="E121" t="n">
-        <v>14</v>
+        <v>14.2</v>
       </c>
       <c r="F121" t="n">
-        <v>46474.6367</v>
+        <v>8215.422500000001</v>
       </c>
       <c r="G121" t="n">
-        <v>13.66000000000001</v>
+        <v>13.64833333333334</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4669,22 +4653,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>13.9</v>
+        <v>14.1</v>
       </c>
       <c r="C122" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="D122" t="n">
-        <v>13.9</v>
+        <v>14.1</v>
       </c>
       <c r="E122" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="F122" t="n">
-        <v>8857.1422</v>
+        <v>46474.6367</v>
       </c>
       <c r="G122" t="n">
-        <v>13.67166666666667</v>
+        <v>13.66000000000001</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4716,10 +4700,10 @@
         <v>13.9</v>
       </c>
       <c r="F123" t="n">
-        <v>8194.883900000001</v>
+        <v>8857.1422</v>
       </c>
       <c r="G123" t="n">
-        <v>13.68166666666667</v>
+        <v>13.67166666666667</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4751,10 +4735,10 @@
         <v>13.9</v>
       </c>
       <c r="F124" t="n">
-        <v>1221.31</v>
+        <v>8194.883900000001</v>
       </c>
       <c r="G124" t="n">
-        <v>13.69333333333334</v>
+        <v>13.68166666666667</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4774,22 +4758,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="C125" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="D125" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="E125" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="F125" t="n">
-        <v>3184.5711</v>
+        <v>1221.31</v>
       </c>
       <c r="G125" t="n">
-        <v>13.70833333333334</v>
+        <v>13.69333333333334</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4821,10 +4805,10 @@
         <v>14</v>
       </c>
       <c r="F126" t="n">
-        <v>4100.5717</v>
+        <v>3184.5711</v>
       </c>
       <c r="G126" t="n">
-        <v>13.72333333333334</v>
+        <v>13.70833333333334</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4844,22 +4828,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="C127" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="D127" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="E127" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="F127" t="n">
-        <v>8878.5988</v>
+        <v>4100.5717</v>
       </c>
       <c r="G127" t="n">
-        <v>13.735</v>
+        <v>13.72333333333334</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4879,22 +4863,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="C128" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="D128" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="E128" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="F128" t="n">
-        <v>2898.1071</v>
+        <v>8878.5988</v>
       </c>
       <c r="G128" t="n">
-        <v>13.74833333333333</v>
+        <v>13.735</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4917,19 +4901,19 @@
         <v>14</v>
       </c>
       <c r="C129" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="D129" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="E129" t="n">
         <v>14</v>
       </c>
       <c r="F129" t="n">
-        <v>10744.2778</v>
+        <v>2898.1071</v>
       </c>
       <c r="G129" t="n">
-        <v>13.76166666666667</v>
+        <v>13.74833333333333</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4949,22 +4933,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>14.2</v>
+        <v>14</v>
       </c>
       <c r="C130" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="D130" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="E130" t="n">
-        <v>14.2</v>
+        <v>14</v>
       </c>
       <c r="F130" t="n">
-        <v>3000</v>
+        <v>10744.2778</v>
       </c>
       <c r="G130" t="n">
-        <v>13.77666666666667</v>
+        <v>13.76166666666667</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4984,22 +4968,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="C131" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="D131" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="E131" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="F131" t="n">
-        <v>7460</v>
+        <v>3000</v>
       </c>
       <c r="G131" t="n">
-        <v>13.79</v>
+        <v>13.77666666666667</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5019,22 +5003,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="C132" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="D132" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="E132" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="F132" t="n">
-        <v>59485.5819</v>
+        <v>7460</v>
       </c>
       <c r="G132" t="n">
-        <v>13.80000000000001</v>
+        <v>13.79</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5066,10 +5050,10 @@
         <v>14</v>
       </c>
       <c r="F133" t="n">
-        <v>13157.9847</v>
+        <v>59485.5819</v>
       </c>
       <c r="G133" t="n">
-        <v>13.80666666666667</v>
+        <v>13.80000000000001</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5101,10 +5085,10 @@
         <v>14</v>
       </c>
       <c r="F134" t="n">
-        <v>3000</v>
+        <v>13157.9847</v>
       </c>
       <c r="G134" t="n">
-        <v>13.81333333333334</v>
+        <v>13.80666666666667</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5124,22 +5108,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="C135" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="D135" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="E135" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="F135" t="n">
-        <v>27050.7807</v>
+        <v>3000</v>
       </c>
       <c r="G135" t="n">
-        <v>13.81666666666667</v>
+        <v>13.81333333333334</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5159,22 +5143,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="C136" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="D136" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="E136" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="F136" t="n">
-        <v>26049.3045</v>
+        <v>27050.7807</v>
       </c>
       <c r="G136" t="n">
-        <v>13.81833333333334</v>
+        <v>13.81666666666667</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5194,22 +5178,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="C137" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="D137" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="E137" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="F137" t="n">
-        <v>65212.8746</v>
+        <v>26049.3045</v>
       </c>
       <c r="G137" t="n">
-        <v>13.82</v>
+        <v>13.81833333333334</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5229,22 +5213,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="C138" t="n">
         <v>13.6</v>
       </c>
-      <c r="C138" t="n">
-        <v>13.8</v>
-      </c>
       <c r="D138" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="E138" t="n">
         <v>13.6</v>
       </c>
       <c r="F138" t="n">
-        <v>26115.1515</v>
+        <v>65212.8746</v>
       </c>
       <c r="G138" t="n">
-        <v>13.825</v>
+        <v>13.82</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5264,10 +5248,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>13.8</v>
+        <v>13.6</v>
       </c>
       <c r="C139" t="n">
-        <v>13.6</v>
+        <v>13.8</v>
       </c>
       <c r="D139" t="n">
         <v>13.8</v>
@@ -5276,10 +5260,10 @@
         <v>13.6</v>
       </c>
       <c r="F139" t="n">
-        <v>116557.2472</v>
+        <v>26115.1515</v>
       </c>
       <c r="G139" t="n">
-        <v>13.82833333333334</v>
+        <v>13.825</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5299,22 +5283,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="C140" t="n">
-        <v>13.9</v>
+        <v>13.6</v>
       </c>
       <c r="D140" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="E140" t="n">
-        <v>13.9</v>
+        <v>13.6</v>
       </c>
       <c r="F140" t="n">
-        <v>10</v>
+        <v>116557.2472</v>
       </c>
       <c r="G140" t="n">
-        <v>13.83666666666667</v>
+        <v>13.82833333333334</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5346,10 +5330,10 @@
         <v>13.9</v>
       </c>
       <c r="F141" t="n">
-        <v>2742.1726</v>
+        <v>10</v>
       </c>
       <c r="G141" t="n">
-        <v>13.845</v>
+        <v>13.83666666666667</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5381,10 +5365,10 @@
         <v>13.9</v>
       </c>
       <c r="F142" t="n">
-        <v>15424.7481</v>
+        <v>2742.1726</v>
       </c>
       <c r="G142" t="n">
-        <v>13.85166666666667</v>
+        <v>13.845</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5416,10 +5400,10 @@
         <v>13.9</v>
       </c>
       <c r="F143" t="n">
-        <v>48421.3308</v>
+        <v>15424.7481</v>
       </c>
       <c r="G143" t="n">
-        <v>13.85833333333334</v>
+        <v>13.85166666666667</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5451,10 +5435,10 @@
         <v>13.9</v>
       </c>
       <c r="F144" t="n">
-        <v>51217.8812</v>
+        <v>48421.3308</v>
       </c>
       <c r="G144" t="n">
-        <v>13.86333333333334</v>
+        <v>13.85833333333334</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5474,22 +5458,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="C145" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="D145" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="E145" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="F145" t="n">
-        <v>5757.5357</v>
+        <v>51217.8812</v>
       </c>
       <c r="G145" t="n">
-        <v>13.87166666666667</v>
+        <v>13.86333333333334</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5521,10 +5505,10 @@
         <v>14</v>
       </c>
       <c r="F146" t="n">
-        <v>34362.8801</v>
+        <v>5757.5357</v>
       </c>
       <c r="G146" t="n">
-        <v>13.87833333333333</v>
+        <v>13.87166666666667</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5544,22 +5528,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="C147" t="n">
-        <v>14.2</v>
+        <v>14</v>
       </c>
       <c r="D147" t="n">
-        <v>14.2</v>
+        <v>14</v>
       </c>
       <c r="E147" t="n">
         <v>14</v>
       </c>
       <c r="F147" t="n">
-        <v>37474.3266</v>
+        <v>34362.8801</v>
       </c>
       <c r="G147" t="n">
-        <v>13.89</v>
+        <v>13.87833333333333</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5582,19 +5566,19 @@
         <v>14.1</v>
       </c>
       <c r="C148" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="D148" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="E148" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="F148" t="n">
-        <v>39629.5442</v>
+        <v>37474.3266</v>
       </c>
       <c r="G148" t="n">
-        <v>13.90166666666667</v>
+        <v>13.89</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5626,10 +5610,10 @@
         <v>14.1</v>
       </c>
       <c r="F149" t="n">
-        <v>11936.7011</v>
+        <v>39629.5442</v>
       </c>
       <c r="G149" t="n">
-        <v>13.915</v>
+        <v>13.90166666666667</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5649,22 +5633,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="C150" t="n">
         <v>14.1</v>
       </c>
       <c r="D150" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="E150" t="n">
         <v>14.1</v>
       </c>
       <c r="F150" t="n">
-        <v>188285.5985</v>
+        <v>11936.7011</v>
       </c>
       <c r="G150" t="n">
-        <v>13.92333333333334</v>
+        <v>13.915</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5684,22 +5668,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>14</v>
+        <v>14.2</v>
       </c>
       <c r="C151" t="n">
-        <v>13.5</v>
+        <v>14.1</v>
       </c>
       <c r="D151" t="n">
-        <v>14</v>
+        <v>14.2</v>
       </c>
       <c r="E151" t="n">
-        <v>13.5</v>
+        <v>14.1</v>
       </c>
       <c r="F151" t="n">
-        <v>461700.8645</v>
+        <v>188285.5985</v>
       </c>
       <c r="G151" t="n">
-        <v>13.92166666666667</v>
+        <v>13.92333333333334</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5719,22 +5703,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>13.8</v>
+        <v>14</v>
       </c>
       <c r="C152" t="n">
-        <v>13.8</v>
+        <v>13.5</v>
       </c>
       <c r="D152" t="n">
-        <v>13.8</v>
+        <v>14</v>
       </c>
       <c r="E152" t="n">
-        <v>13.8</v>
+        <v>13.5</v>
       </c>
       <c r="F152" t="n">
-        <v>100</v>
+        <v>461700.8645</v>
       </c>
       <c r="G152" t="n">
-        <v>13.925</v>
+        <v>13.92166666666667</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5754,22 +5738,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>14</v>
+        <v>13.8</v>
       </c>
       <c r="C153" t="n">
-        <v>14</v>
+        <v>13.8</v>
       </c>
       <c r="D153" t="n">
-        <v>14</v>
+        <v>13.8</v>
       </c>
       <c r="E153" t="n">
-        <v>14</v>
+        <v>13.8</v>
       </c>
       <c r="F153" t="n">
-        <v>18908.0714</v>
+        <v>100</v>
       </c>
       <c r="G153" t="n">
-        <v>13.93166666666667</v>
+        <v>13.925</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5789,22 +5773,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>13.8</v>
+        <v>14</v>
       </c>
       <c r="C154" t="n">
-        <v>13.8</v>
+        <v>14</v>
       </c>
       <c r="D154" t="n">
-        <v>13.8</v>
+        <v>14</v>
       </c>
       <c r="E154" t="n">
-        <v>13.8</v>
+        <v>14</v>
       </c>
       <c r="F154" t="n">
-        <v>11981.1085</v>
+        <v>18908.0714</v>
       </c>
       <c r="G154" t="n">
-        <v>13.935</v>
+        <v>13.93166666666667</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5827,19 +5811,19 @@
         <v>13.8</v>
       </c>
       <c r="C155" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="D155" t="n">
         <v>13.8</v>
       </c>
       <c r="E155" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="F155" t="n">
-        <v>24212.3033</v>
+        <v>11981.1085</v>
       </c>
       <c r="G155" t="n">
-        <v>13.93666666666667</v>
+        <v>13.935</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5859,22 +5843,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="C156" t="n">
-        <v>13.9</v>
+        <v>13.7</v>
       </c>
       <c r="D156" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="E156" t="n">
-        <v>13.9</v>
+        <v>13.7</v>
       </c>
       <c r="F156" t="n">
-        <v>2876.4748</v>
+        <v>24212.3033</v>
       </c>
       <c r="G156" t="n">
-        <v>13.94</v>
+        <v>13.93666666666667</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5906,10 +5890,10 @@
         <v>13.9</v>
       </c>
       <c r="F157" t="n">
-        <v>42811.7985</v>
+        <v>2876.4748</v>
       </c>
       <c r="G157" t="n">
-        <v>13.94333333333333</v>
+        <v>13.94</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5941,10 +5925,10 @@
         <v>13.9</v>
       </c>
       <c r="F158" t="n">
-        <v>2917.8417</v>
+        <v>42811.7985</v>
       </c>
       <c r="G158" t="n">
-        <v>13.94833333333333</v>
+        <v>13.94333333333333</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5967,19 +5951,19 @@
         <v>13.9</v>
       </c>
       <c r="C159" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="D159" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="E159" t="n">
         <v>13.9</v>
       </c>
       <c r="F159" t="n">
-        <v>11073.4105</v>
+        <v>2917.8417</v>
       </c>
       <c r="G159" t="n">
-        <v>13.95166666666666</v>
+        <v>13.94833333333333</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5999,7 +5983,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="C160" t="n">
         <v>14</v>
@@ -6008,13 +5992,13 @@
         <v>14</v>
       </c>
       <c r="E160" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="F160" t="n">
-        <v>394.6428</v>
+        <v>11073.4105</v>
       </c>
       <c r="G160" t="n">
-        <v>13.95666666666667</v>
+        <v>13.95166666666666</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6046,10 +6030,10 @@
         <v>14</v>
       </c>
       <c r="F161" t="n">
-        <v>214.2857</v>
+        <v>394.6428</v>
       </c>
       <c r="G161" t="n">
-        <v>13.96</v>
+        <v>13.95666666666667</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6072,19 +6056,19 @@
         <v>14</v>
       </c>
       <c r="C162" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="D162" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="E162" t="n">
         <v>14</v>
       </c>
       <c r="F162" t="n">
-        <v>408839.6561</v>
+        <v>214.2857</v>
       </c>
       <c r="G162" t="n">
-        <v>13.965</v>
+        <v>13.96</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6104,22 +6088,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="C163" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="D163" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="E163" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="F163" t="n">
-        <v>3775.27</v>
+        <v>408839.6561</v>
       </c>
       <c r="G163" t="n">
-        <v>13.97166666666667</v>
+        <v>13.965</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6139,7 +6123,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="C164" t="n">
         <v>14.2</v>
@@ -6148,13 +6132,13 @@
         <v>14.2</v>
       </c>
       <c r="E164" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="F164" t="n">
-        <v>23728.9436</v>
+        <v>3775.27</v>
       </c>
       <c r="G164" t="n">
-        <v>13.98</v>
+        <v>13.97166666666667</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6174,22 +6158,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="C165" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="D165" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="E165" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="F165" t="n">
-        <v>13150.0709</v>
+        <v>23728.9436</v>
       </c>
       <c r="G165" t="n">
-        <v>13.985</v>
+        <v>13.98</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6221,10 +6205,10 @@
         <v>14.1</v>
       </c>
       <c r="F166" t="n">
-        <v>39893.1914</v>
+        <v>13150.0709</v>
       </c>
       <c r="G166" t="n">
-        <v>13.99</v>
+        <v>13.985</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6256,10 +6240,10 @@
         <v>14.1</v>
       </c>
       <c r="F167" t="n">
-        <v>139867.8882</v>
+        <v>39893.1914</v>
       </c>
       <c r="G167" t="n">
-        <v>13.995</v>
+        <v>13.99</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6291,10 +6275,10 @@
         <v>14.1</v>
       </c>
       <c r="F168" t="n">
-        <v>45251.5443</v>
+        <v>139867.8882</v>
       </c>
       <c r="G168" t="n">
-        <v>14.00000000000001</v>
+        <v>13.995</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6314,7 +6298,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="C169" t="n">
         <v>14.1</v>
@@ -6323,13 +6307,13 @@
         <v>14.1</v>
       </c>
       <c r="E169" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="F169" t="n">
-        <v>76882.70450000001</v>
+        <v>45251.5443</v>
       </c>
       <c r="G169" t="n">
-        <v>14.00500000000001</v>
+        <v>14.00000000000001</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6349,7 +6333,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="C170" t="n">
         <v>14.1</v>
@@ -6358,10 +6342,10 @@
         <v>14.1</v>
       </c>
       <c r="E170" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="F170" t="n">
-        <v>7501.702127659574</v>
+        <v>76882.70450000001</v>
       </c>
       <c r="G170" t="n">
         <v>14.00500000000001</v>
@@ -6396,10 +6380,10 @@
         <v>14.1</v>
       </c>
       <c r="F171" t="n">
-        <v>6216.0992</v>
+        <v>7501.702127659574</v>
       </c>
       <c r="G171" t="n">
-        <v>14.00333333333334</v>
+        <v>14.00500000000001</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6419,7 +6403,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="C172" t="n">
         <v>14.1</v>
@@ -6428,13 +6412,13 @@
         <v>14.1</v>
       </c>
       <c r="E172" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="F172" t="n">
-        <v>2947.7408</v>
+        <v>6216.0992</v>
       </c>
       <c r="G172" t="n">
-        <v>14.00166666666667</v>
+        <v>14.00333333333334</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6454,7 +6438,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="C173" t="n">
         <v>14.1</v>
@@ -6463,13 +6447,13 @@
         <v>14.1</v>
       </c>
       <c r="E173" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="F173" t="n">
-        <v>500</v>
+        <v>2947.7408</v>
       </c>
       <c r="G173" t="n">
-        <v>14.00000000000001</v>
+        <v>14.00166666666667</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6489,19 +6473,19 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="C174" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="D174" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="E174" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="F174" t="n">
-        <v>1631.9382</v>
+        <v>500</v>
       </c>
       <c r="G174" t="n">
         <v>14.00000000000001</v>
@@ -6536,10 +6520,10 @@
         <v>14</v>
       </c>
       <c r="F175" t="n">
-        <v>20884.8162</v>
+        <v>1631.9382</v>
       </c>
       <c r="G175" t="n">
-        <v>13.99833333333334</v>
+        <v>14.00000000000001</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6571,10 +6555,10 @@
         <v>14</v>
       </c>
       <c r="F176" t="n">
-        <v>19550.9165</v>
+        <v>20884.8162</v>
       </c>
       <c r="G176" t="n">
-        <v>13.995</v>
+        <v>13.99833333333334</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6594,22 +6578,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="C177" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="D177" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="E177" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="F177" t="n">
-        <v>35609.7163</v>
+        <v>19550.9165</v>
       </c>
       <c r="G177" t="n">
-        <v>13.99166666666667</v>
+        <v>13.995</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6641,10 +6625,10 @@
         <v>14.1</v>
       </c>
       <c r="F178" t="n">
-        <v>6951.749572340425</v>
+        <v>35609.7163</v>
       </c>
       <c r="G178" t="n">
-        <v>13.98833333333334</v>
+        <v>13.99166666666667</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6676,10 +6660,10 @@
         <v>14.1</v>
       </c>
       <c r="F179" t="n">
-        <v>5000</v>
+        <v>6951.749572340425</v>
       </c>
       <c r="G179" t="n">
-        <v>13.98500000000001</v>
+        <v>13.98833333333334</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6711,10 +6695,10 @@
         <v>14.1</v>
       </c>
       <c r="F180" t="n">
-        <v>4694.92</v>
+        <v>5000</v>
       </c>
       <c r="G180" t="n">
-        <v>13.98333333333334</v>
+        <v>13.98500000000001</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6746,10 +6730,10 @@
         <v>14.1</v>
       </c>
       <c r="F181" t="n">
-        <v>10000</v>
+        <v>4694.92</v>
       </c>
       <c r="G181" t="n">
-        <v>13.98500000000001</v>
+        <v>13.98333333333334</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6772,19 +6756,19 @@
         <v>14.1</v>
       </c>
       <c r="C182" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="D182" t="n">
         <v>14.1</v>
       </c>
       <c r="E182" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="F182" t="n">
-        <v>142533.0379276596</v>
+        <v>10000</v>
       </c>
       <c r="G182" t="n">
-        <v>13.98666666666668</v>
+        <v>13.98500000000001</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6804,22 +6788,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="C183" t="n">
-        <v>14.2</v>
+        <v>14</v>
       </c>
       <c r="D183" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="E183" t="n">
         <v>14</v>
       </c>
       <c r="F183" t="n">
-        <v>77708.8028</v>
+        <v>142533.0379276596</v>
       </c>
       <c r="G183" t="n">
-        <v>13.99166666666668</v>
+        <v>13.98666666666668</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6842,19 +6826,19 @@
         <v>14</v>
       </c>
       <c r="C184" t="n">
-        <v>14</v>
+        <v>14.2</v>
       </c>
       <c r="D184" t="n">
-        <v>14</v>
+        <v>14.2</v>
       </c>
       <c r="E184" t="n">
         <v>14</v>
       </c>
       <c r="F184" t="n">
-        <v>14701.8548</v>
+        <v>77708.8028</v>
       </c>
       <c r="G184" t="n">
-        <v>13.99333333333334</v>
+        <v>13.99166666666668</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6874,22 +6858,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="C185" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="D185" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="E185" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="F185" t="n">
-        <v>10</v>
+        <v>14701.8548</v>
       </c>
       <c r="G185" t="n">
-        <v>13.99500000000001</v>
+        <v>13.99333333333334</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6921,10 +6905,10 @@
         <v>14.1</v>
       </c>
       <c r="F186" t="n">
-        <v>32827.234</v>
+        <v>10</v>
       </c>
       <c r="G186" t="n">
-        <v>13.99666666666668</v>
+        <v>13.99500000000001</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6944,22 +6928,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="C187" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="D187" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="E187" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="F187" t="n">
-        <v>6007.8392</v>
+        <v>32827.234</v>
       </c>
       <c r="G187" t="n">
-        <v>13.99833333333334</v>
+        <v>13.99666666666668</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6979,22 +6963,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="C188" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="D188" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="E188" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="F188" t="n">
-        <v>35521.1869</v>
+        <v>6007.8392</v>
       </c>
       <c r="G188" t="n">
-        <v>13.99666666666668</v>
+        <v>13.99833333333334</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7014,22 +6998,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="C189" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="D189" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="E189" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="F189" t="n">
-        <v>100000.0001</v>
+        <v>35521.1869</v>
       </c>
       <c r="G189" t="n">
-        <v>13.99166666666668</v>
+        <v>13.99666666666668</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7061,10 +7045,10 @@
         <v>13.8</v>
       </c>
       <c r="F190" t="n">
-        <v>190540.0581</v>
+        <v>100000.0001</v>
       </c>
       <c r="G190" t="n">
-        <v>13.98500000000001</v>
+        <v>13.99166666666668</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7084,22 +7068,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="C191" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="D191" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="E191" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="F191" t="n">
-        <v>10</v>
+        <v>190540.0581</v>
       </c>
       <c r="G191" t="n">
-        <v>13.98166666666667</v>
+        <v>13.98500000000001</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7119,22 +7103,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="C192" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="D192" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="E192" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="F192" t="n">
         <v>10</v>
       </c>
       <c r="G192" t="n">
-        <v>13.97833333333334</v>
+        <v>13.98166666666667</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7166,10 +7150,10 @@
         <v>13.8</v>
       </c>
       <c r="F193" t="n">
-        <v>11.5217</v>
+        <v>10</v>
       </c>
       <c r="G193" t="n">
-        <v>13.975</v>
+        <v>13.97833333333334</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7189,7 +7173,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="C194" t="n">
         <v>13.8</v>
@@ -7198,13 +7182,13 @@
         <v>13.8</v>
       </c>
       <c r="E194" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="F194" t="n">
-        <v>99837.0882</v>
+        <v>11.5217</v>
       </c>
       <c r="G194" t="n">
-        <v>13.97166666666667</v>
+        <v>13.975</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7224,7 +7208,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="C195" t="n">
         <v>13.8</v>
@@ -7233,13 +7217,13 @@
         <v>13.8</v>
       </c>
       <c r="E195" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="F195" t="n">
-        <v>17831.105</v>
+        <v>99837.0882</v>
       </c>
       <c r="G195" t="n">
-        <v>13.97</v>
+        <v>13.97166666666667</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7271,7 +7255,7 @@
         <v>13.8</v>
       </c>
       <c r="F196" t="n">
-        <v>433.4822</v>
+        <v>17831.105</v>
       </c>
       <c r="G196" t="n">
         <v>13.97</v>
@@ -7297,19 +7281,19 @@
         <v>13.8</v>
       </c>
       <c r="C197" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="D197" t="n">
         <v>13.8</v>
       </c>
       <c r="E197" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="F197" t="n">
-        <v>61528.7336</v>
+        <v>433.4822</v>
       </c>
       <c r="G197" t="n">
-        <v>13.97166666666667</v>
+        <v>13.97</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7332,16 +7316,16 @@
         <v>13.8</v>
       </c>
       <c r="C198" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="D198" t="n">
         <v>13.8</v>
       </c>
       <c r="E198" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="F198" t="n">
-        <v>1500</v>
+        <v>61528.7336</v>
       </c>
       <c r="G198" t="n">
         <v>13.97166666666667</v>
@@ -7376,10 +7360,10 @@
         <v>13.8</v>
       </c>
       <c r="F199" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="G199" t="n">
-        <v>13.975</v>
+        <v>13.97166666666667</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7399,7 +7383,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="C200" t="n">
         <v>13.8</v>
@@ -7408,13 +7392,13 @@
         <v>13.8</v>
       </c>
       <c r="E200" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="F200" t="n">
-        <v>405096.1661</v>
+        <v>500</v>
       </c>
       <c r="G200" t="n">
-        <v>13.97333333333334</v>
+        <v>13.975</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7434,10 +7418,10 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="C201" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="D201" t="n">
         <v>13.8</v>
@@ -7446,10 +7430,10 @@
         <v>13.7</v>
       </c>
       <c r="F201" t="n">
-        <v>18110.21526376812</v>
+        <v>405096.1661</v>
       </c>
       <c r="G201" t="n">
-        <v>13.97</v>
+        <v>13.97333333333334</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7472,19 +7456,19 @@
         <v>13.8</v>
       </c>
       <c r="C202" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="D202" t="n">
         <v>13.8</v>
       </c>
       <c r="E202" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="F202" t="n">
-        <v>31540.3724</v>
+        <v>18110.21526376812</v>
       </c>
       <c r="G202" t="n">
-        <v>13.96833333333334</v>
+        <v>13.97</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7516,10 +7500,10 @@
         <v>13.8</v>
       </c>
       <c r="F203" t="n">
-        <v>22906.13683623188</v>
+        <v>31540.3724</v>
       </c>
       <c r="G203" t="n">
-        <v>13.96666666666667</v>
+        <v>13.96833333333334</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7539,22 +7523,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="C204" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="D204" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="E204" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="F204" t="n">
-        <v>8782.3174</v>
+        <v>22906.13683623188</v>
       </c>
       <c r="G204" t="n">
-        <v>13.96333333333334</v>
+        <v>13.96666666666667</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7574,22 +7558,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="C205" t="n">
-        <v>13.9</v>
+        <v>13.7</v>
       </c>
       <c r="D205" t="n">
-        <v>14</v>
+        <v>13.7</v>
       </c>
       <c r="E205" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="F205" t="n">
-        <v>321643.5319</v>
+        <v>8782.3174</v>
       </c>
       <c r="G205" t="n">
-        <v>13.96166666666667</v>
+        <v>13.96333333333334</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7609,22 +7593,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="C206" t="n">
         <v>13.9</v>
       </c>
       <c r="D206" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="E206" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="F206" t="n">
-        <v>163.9395</v>
+        <v>321643.5319</v>
       </c>
       <c r="G206" t="n">
-        <v>13.96</v>
+        <v>13.96166666666667</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7647,19 +7631,19 @@
         <v>13.9</v>
       </c>
       <c r="C207" t="n">
-        <v>14.1</v>
+        <v>13.9</v>
       </c>
       <c r="D207" t="n">
-        <v>14.1</v>
+        <v>13.9</v>
       </c>
       <c r="E207" t="n">
         <v>13.9</v>
       </c>
       <c r="F207" t="n">
-        <v>44369.4509</v>
+        <v>163.9395</v>
       </c>
       <c r="G207" t="n">
-        <v>13.95833333333334</v>
+        <v>13.96</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7679,10 +7663,10 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>14.1</v>
+        <v>13.9</v>
       </c>
       <c r="C208" t="n">
-        <v>13.9</v>
+        <v>14.1</v>
       </c>
       <c r="D208" t="n">
         <v>14.1</v>
@@ -7691,10 +7675,10 @@
         <v>13.9</v>
       </c>
       <c r="F208" t="n">
-        <v>40</v>
+        <v>44369.4509</v>
       </c>
       <c r="G208" t="n">
-        <v>13.955</v>
+        <v>13.95833333333334</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7717,16 +7701,16 @@
         <v>14.1</v>
       </c>
       <c r="C209" t="n">
-        <v>14.1</v>
+        <v>13.9</v>
       </c>
       <c r="D209" t="n">
         <v>14.1</v>
       </c>
       <c r="E209" t="n">
-        <v>14.1</v>
+        <v>13.9</v>
       </c>
       <c r="F209" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G209" t="n">
         <v>13.955</v>
@@ -7761,7 +7745,7 @@
         <v>14.1</v>
       </c>
       <c r="F210" t="n">
-        <v>71948.0851</v>
+        <v>10</v>
       </c>
       <c r="G210" t="n">
         <v>13.955</v>
@@ -7787,19 +7771,19 @@
         <v>14.1</v>
       </c>
       <c r="C211" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="D211" t="n">
         <v>14.1</v>
       </c>
       <c r="E211" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="F211" t="n">
-        <v>16915.125</v>
+        <v>71948.0851</v>
       </c>
       <c r="G211" t="n">
-        <v>13.96333333333334</v>
+        <v>13.955</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -7819,22 +7803,22 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="C212" t="n">
         <v>14</v>
       </c>
       <c r="D212" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="E212" t="n">
         <v>14</v>
       </c>
       <c r="F212" t="n">
-        <v>16162.6785</v>
+        <v>16915.125</v>
       </c>
       <c r="G212" t="n">
-        <v>13.96666666666667</v>
+        <v>13.96333333333334</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -7866,7 +7850,7 @@
         <v>14</v>
       </c>
       <c r="F213" t="n">
-        <v>71429</v>
+        <v>16162.6785</v>
       </c>
       <c r="G213" t="n">
         <v>13.96666666666667</v>
@@ -7889,22 +7873,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="C214" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="D214" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="E214" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="F214" t="n">
-        <v>141420.8609</v>
+        <v>71429</v>
       </c>
       <c r="G214" t="n">
-        <v>13.96833333333334</v>
+        <v>13.96666666666667</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -7936,10 +7920,10 @@
         <v>13.9</v>
       </c>
       <c r="F215" t="n">
-        <v>10798.0098</v>
+        <v>141420.8609</v>
       </c>
       <c r="G215" t="n">
-        <v>13.97166666666667</v>
+        <v>13.96833333333334</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -7971,7 +7955,7 @@
         <v>13.9</v>
       </c>
       <c r="F216" t="n">
-        <v>4373.989</v>
+        <v>10798.0098</v>
       </c>
       <c r="G216" t="n">
         <v>13.97166666666667</v>
@@ -8006,7 +7990,7 @@
         <v>13.9</v>
       </c>
       <c r="F217" t="n">
-        <v>32401.9119</v>
+        <v>4373.989</v>
       </c>
       <c r="G217" t="n">
         <v>13.97166666666667</v>
@@ -8029,22 +8013,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="C218" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="D218" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="E218" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="F218" t="n">
-        <v>8081.3571</v>
+        <v>32401.9119</v>
       </c>
       <c r="G218" t="n">
-        <v>13.97333333333334</v>
+        <v>13.97166666666667</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8064,22 +8048,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="C219" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="D219" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="E219" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="F219" t="n">
-        <v>69187.11</v>
+        <v>8081.3571</v>
       </c>
       <c r="G219" t="n">
-        <v>13.97166666666667</v>
+        <v>13.97333333333334</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8099,22 +8083,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="C220" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="D220" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="E220" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="F220" t="n">
-        <v>98436.0328</v>
+        <v>69187.11</v>
       </c>
       <c r="G220" t="n">
-        <v>13.96833333333334</v>
+        <v>13.97166666666667</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8146,10 +8130,10 @@
         <v>13.8</v>
       </c>
       <c r="F221" t="n">
-        <v>32160.7803</v>
+        <v>98436.0328</v>
       </c>
       <c r="G221" t="n">
-        <v>13.965</v>
+        <v>13.96833333333334</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8172,19 +8156,19 @@
         <v>13.8</v>
       </c>
       <c r="C222" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="D222" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="E222" t="n">
         <v>13.8</v>
       </c>
       <c r="F222" t="n">
-        <v>7351.9387</v>
+        <v>32160.7803</v>
       </c>
       <c r="G222" t="n">
-        <v>13.96166666666667</v>
+        <v>13.965</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8207,19 +8191,19 @@
         <v>13.8</v>
       </c>
       <c r="C223" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="D223" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="E223" t="n">
         <v>13.8</v>
       </c>
       <c r="F223" t="n">
-        <v>90657.5953</v>
+        <v>7351.9387</v>
       </c>
       <c r="G223" t="n">
-        <v>13.955</v>
+        <v>13.96166666666667</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8239,22 +8223,22 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="C224" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="D224" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="E224" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="F224" t="n">
-        <v>71949.9034</v>
+        <v>90657.5953</v>
       </c>
       <c r="G224" t="n">
-        <v>13.94666666666667</v>
+        <v>13.955</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8286,10 +8270,10 @@
         <v>13.7</v>
       </c>
       <c r="F225" t="n">
-        <v>509.369</v>
+        <v>71949.9034</v>
       </c>
       <c r="G225" t="n">
-        <v>13.94</v>
+        <v>13.94666666666667</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8321,10 +8305,10 @@
         <v>13.7</v>
       </c>
       <c r="F226" t="n">
-        <v>9841.475399999999</v>
+        <v>509.369</v>
       </c>
       <c r="G226" t="n">
-        <v>13.93333333333333</v>
+        <v>13.94</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8344,22 +8328,22 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="C227" t="n">
-        <v>13.9</v>
+        <v>13.7</v>
       </c>
       <c r="D227" t="n">
-        <v>13.9</v>
+        <v>13.7</v>
       </c>
       <c r="E227" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="F227" t="n">
-        <v>108924.8531</v>
+        <v>9841.475399999999</v>
       </c>
       <c r="G227" t="n">
-        <v>13.93</v>
+        <v>13.93333333333333</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8379,7 +8363,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="C228" t="n">
         <v>13.9</v>
@@ -8388,13 +8372,13 @@
         <v>13.9</v>
       </c>
       <c r="E228" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="F228" t="n">
-        <v>2520</v>
+        <v>108924.8531</v>
       </c>
       <c r="G228" t="n">
-        <v>13.92666666666667</v>
+        <v>13.93</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8429,7 +8413,7 @@
         <v>2520</v>
       </c>
       <c r="G229" t="n">
-        <v>13.92333333333333</v>
+        <v>13.92666666666667</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8449,19 +8433,19 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="C230" t="n">
-        <v>14.1</v>
+        <v>13.9</v>
       </c>
       <c r="D230" t="n">
-        <v>14.1</v>
+        <v>13.9</v>
       </c>
       <c r="E230" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="F230" t="n">
-        <v>292876.7707</v>
+        <v>2520</v>
       </c>
       <c r="G230" t="n">
         <v>13.92333333333333</v>
@@ -8484,22 +8468,22 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>14</v>
+        <v>13.8</v>
       </c>
       <c r="C231" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="D231" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="E231" t="n">
-        <v>14</v>
+        <v>13.8</v>
       </c>
       <c r="F231" t="n">
-        <v>51247.6622</v>
+        <v>292876.7707</v>
       </c>
       <c r="G231" t="n">
-        <v>13.92166666666666</v>
+        <v>13.92333333333333</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8531,10 +8515,10 @@
         <v>14</v>
       </c>
       <c r="F232" t="n">
-        <v>51595.8836</v>
+        <v>51247.6622</v>
       </c>
       <c r="G232" t="n">
-        <v>13.92</v>
+        <v>13.92166666666666</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8566,10 +8550,10 @@
         <v>14</v>
       </c>
       <c r="F233" t="n">
-        <v>9285.6163</v>
+        <v>51595.8836</v>
       </c>
       <c r="G233" t="n">
-        <v>13.91833333333333</v>
+        <v>13.92</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -8601,7 +8585,7 @@
         <v>14</v>
       </c>
       <c r="F234" t="n">
-        <v>24009.5714</v>
+        <v>9285.6163</v>
       </c>
       <c r="G234" t="n">
         <v>13.91833333333333</v>
@@ -8624,22 +8608,22 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="C235" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="D235" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="E235" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="F235" t="n">
-        <v>2914.67</v>
+        <v>24009.5714</v>
       </c>
       <c r="G235" t="n">
-        <v>13.91666666666666</v>
+        <v>13.91833333333333</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -8659,19 +8643,19 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="C236" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="D236" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="E236" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="F236" t="n">
-        <v>2920</v>
+        <v>2914.67</v>
       </c>
       <c r="G236" t="n">
         <v>13.91666666666666</v>
@@ -8694,19 +8678,19 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="C237" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="D237" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="E237" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="F237" t="n">
-        <v>119742.6241</v>
+        <v>2920</v>
       </c>
       <c r="G237" t="n">
         <v>13.91666666666666</v>
@@ -8741,7 +8725,7 @@
         <v>14.1</v>
       </c>
       <c r="F238" t="n">
-        <v>53235.6382</v>
+        <v>119742.6241</v>
       </c>
       <c r="G238" t="n">
         <v>13.91666666666666</v>
@@ -8776,7 +8760,7 @@
         <v>14.1</v>
       </c>
       <c r="F239" t="n">
-        <v>35415.1321</v>
+        <v>53235.6382</v>
       </c>
       <c r="G239" t="n">
         <v>13.91666666666666</v>
@@ -8811,7 +8795,7 @@
         <v>14.1</v>
       </c>
       <c r="F240" t="n">
-        <v>741.4893</v>
+        <v>35415.1321</v>
       </c>
       <c r="G240" t="n">
         <v>13.91666666666666</v>
@@ -8846,7 +8830,7 @@
         <v>14.1</v>
       </c>
       <c r="F241" t="n">
-        <v>29989.7508</v>
+        <v>741.4893</v>
       </c>
       <c r="G241" t="n">
         <v>13.91666666666666</v>
@@ -8869,22 +8853,22 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="C242" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="D242" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="E242" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="F242" t="n">
-        <v>84629.4365</v>
+        <v>29989.7508</v>
       </c>
       <c r="G242" t="n">
-        <v>13.92</v>
+        <v>13.91666666666666</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -8916,7 +8900,7 @@
         <v>14.2</v>
       </c>
       <c r="F243" t="n">
-        <v>76036.2066</v>
+        <v>84629.4365</v>
       </c>
       <c r="G243" t="n">
         <v>13.92</v>
@@ -8951,10 +8935,10 @@
         <v>14.2</v>
       </c>
       <c r="F244" t="n">
-        <v>6827.3144</v>
+        <v>76036.2066</v>
       </c>
       <c r="G244" t="n">
-        <v>13.92333333333333</v>
+        <v>13.92</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -8986,10 +8970,10 @@
         <v>14.2</v>
       </c>
       <c r="F245" t="n">
-        <v>3580</v>
+        <v>6827.3144</v>
       </c>
       <c r="G245" t="n">
-        <v>13.925</v>
+        <v>13.92333333333333</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -9021,10 +9005,10 @@
         <v>14.2</v>
       </c>
       <c r="F246" t="n">
-        <v>559.2957</v>
+        <v>3580</v>
       </c>
       <c r="G246" t="n">
-        <v>13.92666666666667</v>
+        <v>13.925</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9044,19 +9028,19 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>14</v>
+        <v>14.2</v>
       </c>
       <c r="C247" t="n">
-        <v>14</v>
+        <v>14.2</v>
       </c>
       <c r="D247" t="n">
-        <v>14</v>
+        <v>14.2</v>
       </c>
       <c r="E247" t="n">
-        <v>14</v>
+        <v>14.2</v>
       </c>
       <c r="F247" t="n">
-        <v>10</v>
+        <v>559.2957</v>
       </c>
       <c r="G247" t="n">
         <v>13.92666666666667</v>
@@ -9079,22 +9063,22 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>14.3</v>
+        <v>14</v>
       </c>
       <c r="C248" t="n">
-        <v>14.3</v>
+        <v>14</v>
       </c>
       <c r="D248" t="n">
-        <v>14.3</v>
+        <v>14</v>
       </c>
       <c r="E248" t="n">
-        <v>14.3</v>
+        <v>14</v>
       </c>
       <c r="F248" t="n">
-        <v>33280.1747</v>
+        <v>10</v>
       </c>
       <c r="G248" t="n">
-        <v>13.93333333333333</v>
+        <v>13.92666666666667</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9117,19 +9101,19 @@
         <v>14.3</v>
       </c>
       <c r="C249" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="D249" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="E249" t="n">
         <v>14.3</v>
       </c>
       <c r="F249" t="n">
-        <v>331754.7407</v>
+        <v>33280.1747</v>
       </c>
       <c r="G249" t="n">
-        <v>13.94333333333333</v>
+        <v>13.93333333333333</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9149,7 +9133,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="C250" t="n">
         <v>14.4</v>
@@ -9158,13 +9142,13 @@
         <v>14.4</v>
       </c>
       <c r="E250" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="F250" t="n">
-        <v>407.73</v>
+        <v>331754.7407</v>
       </c>
       <c r="G250" t="n">
-        <v>13.95333333333333</v>
+        <v>13.94333333333333</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9196,10 +9180,10 @@
         <v>14.4</v>
       </c>
       <c r="F251" t="n">
-        <v>149000</v>
+        <v>407.73</v>
       </c>
       <c r="G251" t="n">
-        <v>13.96166666666667</v>
+        <v>13.95333333333333</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9219,22 +9203,22 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="C252" t="n">
         <v>14.4</v>
       </c>
       <c r="D252" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="E252" t="n">
         <v>14.4</v>
       </c>
       <c r="F252" t="n">
-        <v>61387.4364</v>
+        <v>149000</v>
       </c>
       <c r="G252" t="n">
-        <v>13.97166666666667</v>
+        <v>13.96166666666667</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9257,19 +9241,19 @@
         <v>14.5</v>
       </c>
       <c r="C253" t="n">
-        <v>14.6</v>
+        <v>14.4</v>
       </c>
       <c r="D253" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="E253" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="F253" t="n">
-        <v>120051</v>
+        <v>61387.4364</v>
       </c>
       <c r="G253" t="n">
-        <v>13.985</v>
+        <v>13.97166666666667</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -9289,22 +9273,22 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="C254" t="n">
         <v>14.6</v>
       </c>
-      <c r="C254" t="n">
-        <v>14.7</v>
-      </c>
       <c r="D254" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="E254" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="F254" t="n">
-        <v>337319.4699</v>
+        <v>120051</v>
       </c>
       <c r="G254" t="n">
-        <v>14</v>
+        <v>13.985</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -9324,22 +9308,22 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
       <c r="C255" t="n">
-        <v>15.2</v>
+        <v>14.7</v>
       </c>
       <c r="D255" t="n">
-        <v>15.2</v>
+        <v>14.7</v>
       </c>
       <c r="E255" t="n">
-        <v>14.8</v>
+        <v>14.4</v>
       </c>
       <c r="F255" t="n">
-        <v>642629.6448631579</v>
+        <v>337319.4699</v>
       </c>
       <c r="G255" t="n">
-        <v>14.02333333333334</v>
+        <v>14</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -9359,10 +9343,10 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="C256" t="n">
         <v>15.2</v>
-      </c>
-      <c r="C256" t="n">
-        <v>15.1</v>
       </c>
       <c r="D256" t="n">
         <v>15.2</v>
@@ -9371,10 +9355,10 @@
         <v>14.8</v>
       </c>
       <c r="F256" t="n">
-        <v>383068.1962</v>
+        <v>642629.6448631579</v>
       </c>
       <c r="G256" t="n">
-        <v>14.04500000000001</v>
+        <v>14.02333333333334</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -9394,28 +9378,28 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>14.9</v>
+        <v>15.2</v>
       </c>
       <c r="C257" t="n">
-        <v>14.9</v>
+        <v>15.1</v>
       </c>
       <c r="D257" t="n">
-        <v>14.9</v>
+        <v>15.2</v>
       </c>
       <c r="E257" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="F257" t="n">
-        <v>266864.0481</v>
+        <v>383068.1962</v>
       </c>
       <c r="G257" t="n">
-        <v>14.065</v>
+        <v>14.04500000000001</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
       </c>
       <c r="I257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
@@ -9441,16 +9425,16 @@
         <v>14.9</v>
       </c>
       <c r="F258" t="n">
-        <v>63007.8798</v>
+        <v>266864.0481</v>
       </c>
       <c r="G258" t="n">
-        <v>14.08333333333334</v>
+        <v>14.065</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
       </c>
       <c r="I258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
@@ -9464,7 +9448,7 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="C259" t="n">
         <v>14.9</v>
@@ -9473,13 +9457,13 @@
         <v>14.9</v>
       </c>
       <c r="E259" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="F259" t="n">
-        <v>27930.9342</v>
+        <v>63007.8798</v>
       </c>
       <c r="G259" t="n">
-        <v>14.10166666666667</v>
+        <v>14.08333333333334</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -9499,7 +9483,7 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="C260" t="n">
         <v>14.9</v>
@@ -9508,13 +9492,13 @@
         <v>14.9</v>
       </c>
       <c r="E260" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="F260" t="n">
-        <v>12.0898</v>
+        <v>27930.9342</v>
       </c>
       <c r="G260" t="n">
-        <v>14.12</v>
+        <v>14.10166666666667</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -9534,22 +9518,22 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="C261" t="n">
-        <v>14.7</v>
+        <v>14.9</v>
       </c>
       <c r="D261" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="E261" t="n">
-        <v>14.7</v>
+        <v>14.9</v>
       </c>
       <c r="F261" t="n">
-        <v>129075.2838</v>
+        <v>12.0898</v>
       </c>
       <c r="G261" t="n">
-        <v>14.13666666666667</v>
+        <v>14.12</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -9572,19 +9556,19 @@
         <v>14.8</v>
       </c>
       <c r="C262" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="D262" t="n">
         <v>14.8</v>
       </c>
       <c r="E262" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="F262" t="n">
-        <v>274349.5996</v>
+        <v>129075.2838</v>
       </c>
       <c r="G262" t="n">
-        <v>14.15000000000001</v>
+        <v>14.13666666666667</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -9604,22 +9588,22 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="C263" t="n">
         <v>14.6</v>
       </c>
       <c r="D263" t="n">
-        <v>14.6</v>
+        <v>14.8</v>
       </c>
       <c r="E263" t="n">
         <v>14.6</v>
       </c>
       <c r="F263" t="n">
-        <v>74000</v>
+        <v>274349.5996</v>
       </c>
       <c r="G263" t="n">
-        <v>14.16333333333334</v>
+        <v>14.15000000000001</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -9642,19 +9626,19 @@
         <v>14.6</v>
       </c>
       <c r="C264" t="n">
-        <v>14.4</v>
+        <v>14.6</v>
       </c>
       <c r="D264" t="n">
         <v>14.6</v>
       </c>
       <c r="E264" t="n">
-        <v>14.4</v>
+        <v>14.6</v>
       </c>
       <c r="F264" t="n">
-        <v>794344.681</v>
+        <v>74000</v>
       </c>
       <c r="G264" t="n">
-        <v>14.17500000000001</v>
+        <v>14.16333333333334</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -9674,22 +9658,22 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="C265" t="n">
         <v>14.4</v>
       </c>
-      <c r="C265" t="n">
-        <v>14.5</v>
-      </c>
       <c r="D265" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="E265" t="n">
         <v>14.4</v>
       </c>
       <c r="F265" t="n">
-        <v>480133.1388</v>
+        <v>794344.681</v>
       </c>
       <c r="G265" t="n">
-        <v>14.18500000000001</v>
+        <v>14.17500000000001</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -9709,22 +9693,22 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="C266" t="n">
         <v>14.5</v>
       </c>
-      <c r="C266" t="n">
-        <v>14.6</v>
-      </c>
       <c r="D266" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="E266" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="F266" t="n">
-        <v>118762.6116</v>
+        <v>480133.1388</v>
       </c>
       <c r="G266" t="n">
-        <v>14.19666666666667</v>
+        <v>14.18500000000001</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -9744,7 +9728,7 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="C267" t="n">
         <v>14.6</v>
@@ -9753,13 +9737,13 @@
         <v>14.6</v>
       </c>
       <c r="E267" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="F267" t="n">
-        <v>23002.6712</v>
+        <v>118762.6116</v>
       </c>
       <c r="G267" t="n">
-        <v>14.20500000000001</v>
+        <v>14.19666666666667</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -9779,22 +9763,22 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="C268" t="n">
-        <v>14.4</v>
+        <v>14.6</v>
       </c>
       <c r="D268" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="E268" t="n">
-        <v>14.4</v>
+        <v>14.6</v>
       </c>
       <c r="F268" t="n">
-        <v>165611.5109</v>
+        <v>23002.6712</v>
       </c>
       <c r="G268" t="n">
-        <v>14.21333333333334</v>
+        <v>14.20500000000001</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -9817,19 +9801,19 @@
         <v>14.5</v>
       </c>
       <c r="C269" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="D269" t="n">
         <v>14.5</v>
       </c>
       <c r="E269" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="F269" t="n">
-        <v>4746.4899</v>
+        <v>165611.5109</v>
       </c>
       <c r="G269" t="n">
-        <v>14.22000000000001</v>
+        <v>14.21333333333334</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -9849,22 +9833,22 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="C270" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="D270" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="E270" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="F270" t="n">
-        <v>11024.2873</v>
+        <v>4746.4899</v>
       </c>
       <c r="G270" t="n">
-        <v>14.225</v>
+        <v>14.22000000000001</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -9884,22 +9868,22 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="C271" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="D271" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="E271" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="F271" t="n">
-        <v>94341.6597</v>
+        <v>11024.2873</v>
       </c>
       <c r="G271" t="n">
-        <v>14.23333333333334</v>
+        <v>14.225</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -9931,10 +9915,10 @@
         <v>14.5</v>
       </c>
       <c r="F272" t="n">
-        <v>4259.931</v>
+        <v>94341.6597</v>
       </c>
       <c r="G272" t="n">
-        <v>14.24166666666667</v>
+        <v>14.23333333333334</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -9954,7 +9938,7 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="C273" t="n">
         <v>14.5</v>
@@ -9963,13 +9947,13 @@
         <v>14.5</v>
       </c>
       <c r="E273" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="F273" t="n">
-        <v>3868.9459</v>
+        <v>4259.931</v>
       </c>
       <c r="G273" t="n">
-        <v>14.25000000000001</v>
+        <v>14.24166666666667</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -9992,19 +9976,19 @@
         <v>14.4</v>
       </c>
       <c r="C274" t="n">
-        <v>14.3</v>
+        <v>14.5</v>
       </c>
       <c r="D274" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="E274" t="n">
         <v>14.4</v>
       </c>
-      <c r="E274" t="n">
-        <v>14.3</v>
-      </c>
       <c r="F274" t="n">
-        <v>128724.7085</v>
+        <v>3868.9459</v>
       </c>
       <c r="G274" t="n">
-        <v>14.25666666666667</v>
+        <v>14.25000000000001</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -10027,19 +10011,19 @@
         <v>14.4</v>
       </c>
       <c r="C275" t="n">
-        <v>14.5</v>
+        <v>14.3</v>
       </c>
       <c r="D275" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="E275" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="F275" t="n">
-        <v>36886.3448</v>
+        <v>128724.7085</v>
       </c>
       <c r="G275" t="n">
-        <v>14.26666666666667</v>
+        <v>14.25666666666667</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -10062,19 +10046,19 @@
         <v>14.4</v>
       </c>
       <c r="C276" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="D276" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="E276" t="n">
         <v>14.4</v>
       </c>
       <c r="F276" t="n">
-        <v>6030</v>
+        <v>36886.3448</v>
       </c>
       <c r="G276" t="n">
-        <v>14.27500000000001</v>
+        <v>14.26666666666667</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -10100,16 +10084,16 @@
         <v>14.4</v>
       </c>
       <c r="D277" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="E277" t="n">
         <v>14.4</v>
       </c>
       <c r="F277" t="n">
-        <v>48766.4079</v>
+        <v>6030</v>
       </c>
       <c r="G277" t="n">
-        <v>14.28333333333334</v>
+        <v>14.27500000000001</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -10124,6 +10108,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="C278" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="D278" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="E278" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="F278" t="n">
+        <v>48766.4079</v>
+      </c>
+      <c r="G278" t="n">
+        <v>14.28333333333334</v>
+      </c>
+      <c r="H278" t="n">
+        <v>0</v>
+      </c>
+      <c r="I278" t="n">
+        <v>0</v>
+      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="inlineStr"/>
+      <c r="M278" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-11-01 BackTest RNT.xlsx
+++ b/BackTest/2019-11-01 BackTest RNT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M278"/>
+  <dimension ref="A1:N288"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>85014.2738</v>
       </c>
       <c r="G2" t="n">
+        <v>13.39333333333333</v>
+      </c>
+      <c r="H2" t="n">
         <v>13.87</v>
       </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,22 +491,21 @@
         <v>2966.5413</v>
       </c>
       <c r="G3" t="n">
+        <v>13.35333333333333</v>
+      </c>
+      <c r="H3" t="n">
         <v>13.87</v>
       </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K3" t="n">
-        <v>13.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -522,26 +529,21 @@
         <v>75253.3129</v>
       </c>
       <c r="G4" t="n">
+        <v>13.32</v>
+      </c>
+      <c r="H4" t="n">
         <v>13.87</v>
       </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K4" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -565,26 +567,21 @@
         <v>17351.7246</v>
       </c>
       <c r="G5" t="n">
+        <v>13.29333333333333</v>
+      </c>
+      <c r="H5" t="n">
         <v>13.86833333333333</v>
       </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K5" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -608,18 +605,21 @@
         <v>420945.1561</v>
       </c>
       <c r="G6" t="n">
+        <v>13.29333333333333</v>
+      </c>
+      <c r="H6" t="n">
         <v>13.865</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -643,18 +643,21 @@
         <v>85630.0998</v>
       </c>
       <c r="G7" t="n">
+        <v>13.28666666666667</v>
+      </c>
+      <c r="H7" t="n">
         <v>13.85166666666667</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -678,18 +681,21 @@
         <v>4383.6553</v>
       </c>
       <c r="G8" t="n">
+        <v>13.28</v>
+      </c>
+      <c r="H8" t="n">
         <v>13.835</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -713,18 +719,21 @@
         <v>31296.7943</v>
       </c>
       <c r="G9" t="n">
+        <v>13.27333333333333</v>
+      </c>
+      <c r="H9" t="n">
         <v>13.82333333333333</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -748,18 +757,21 @@
         <v>67743.20450000001</v>
       </c>
       <c r="G10" t="n">
+        <v>13.25333333333333</v>
+      </c>
+      <c r="H10" t="n">
         <v>13.80666666666667</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -783,18 +795,21 @@
         <v>259287.3703</v>
       </c>
       <c r="G11" t="n">
+        <v>13.24</v>
+      </c>
+      <c r="H11" t="n">
         <v>13.78833333333333</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,18 +833,21 @@
         <v>11994.6212</v>
       </c>
       <c r="G12" t="n">
+        <v>13.21333333333333</v>
+      </c>
+      <c r="H12" t="n">
         <v>13.76833333333334</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -853,18 +871,21 @@
         <v>42159.7063</v>
       </c>
       <c r="G13" t="n">
+        <v>13.20666666666666</v>
+      </c>
+      <c r="H13" t="n">
         <v>13.75333333333334</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -888,18 +909,21 @@
         <v>27696.489</v>
       </c>
       <c r="G14" t="n">
+        <v>13.19333333333333</v>
+      </c>
+      <c r="H14" t="n">
         <v>13.72833333333334</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -923,18 +947,21 @@
         <v>6115.856</v>
       </c>
       <c r="G15" t="n">
+        <v>13.18</v>
+      </c>
+      <c r="H15" t="n">
         <v>13.71</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -958,18 +985,21 @@
         <v>13383.5249</v>
       </c>
       <c r="G16" t="n">
+        <v>13.16666666666666</v>
+      </c>
+      <c r="H16" t="n">
         <v>13.68833333333334</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -993,18 +1023,21 @@
         <v>38291.8881</v>
       </c>
       <c r="G17" t="n">
+        <v>13.15333333333333</v>
+      </c>
+      <c r="H17" t="n">
         <v>13.66833333333334</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1028,18 +1061,21 @@
         <v>9996.060600000001</v>
       </c>
       <c r="G18" t="n">
+        <v>13.14666666666666</v>
+      </c>
+      <c r="H18" t="n">
         <v>13.65166666666667</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1063,18 +1099,21 @@
         <v>9061.731100000001</v>
       </c>
       <c r="G19" t="n">
+        <v>13.13999999999999</v>
+      </c>
+      <c r="H19" t="n">
         <v>13.63500000000001</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1098,18 +1137,21 @@
         <v>13820.9052</v>
       </c>
       <c r="G20" t="n">
+        <v>13.13333333333332</v>
+      </c>
+      <c r="H20" t="n">
         <v>13.62333333333334</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1133,18 +1175,21 @@
         <v>27210.1885</v>
       </c>
       <c r="G21" t="n">
+        <v>13.12666666666666</v>
+      </c>
+      <c r="H21" t="n">
         <v>13.60833333333334</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1168,18 +1213,21 @@
         <v>48412.2575</v>
       </c>
       <c r="G22" t="n">
+        <v>13.11999999999999</v>
+      </c>
+      <c r="H22" t="n">
         <v>13.59333333333334</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1203,18 +1251,21 @@
         <v>163345.7704</v>
       </c>
       <c r="G23" t="n">
+        <v>13.12666666666666</v>
+      </c>
+      <c r="H23" t="n">
         <v>13.57833333333334</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1238,18 +1289,21 @@
         <v>20943.2835</v>
       </c>
       <c r="G24" t="n">
+        <v>13.14666666666666</v>
+      </c>
+      <c r="H24" t="n">
         <v>13.56833333333334</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1273,18 +1327,21 @@
         <v>17721.0447</v>
       </c>
       <c r="G25" t="n">
+        <v>13.16666666666666</v>
+      </c>
+      <c r="H25" t="n">
         <v>13.55666666666667</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1308,18 +1365,21 @@
         <v>268530.3731</v>
       </c>
       <c r="G26" t="n">
+        <v>13.18666666666666</v>
+      </c>
+      <c r="H26" t="n">
         <v>13.54666666666667</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1343,18 +1403,21 @@
         <v>33685.4332</v>
       </c>
       <c r="G27" t="n">
+        <v>13.20666666666666</v>
+      </c>
+      <c r="H27" t="n">
         <v>13.53833333333334</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1378,18 +1441,21 @@
         <v>32682.7778</v>
       </c>
       <c r="G28" t="n">
+        <v>13.21333333333333</v>
+      </c>
+      <c r="H28" t="n">
         <v>13.52500000000001</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1413,18 +1479,21 @@
         <v>17676.7421</v>
       </c>
       <c r="G29" t="n">
+        <v>13.22666666666666</v>
+      </c>
+      <c r="H29" t="n">
         <v>13.50500000000001</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1448,18 +1517,21 @@
         <v>11964.6347</v>
       </c>
       <c r="G30" t="n">
+        <v>13.22666666666666</v>
+      </c>
+      <c r="H30" t="n">
         <v>13.48833333333334</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1483,18 +1555,21 @@
         <v>92933.7142</v>
       </c>
       <c r="G31" t="n">
+        <v>13.23999999999999</v>
+      </c>
+      <c r="H31" t="n">
         <v>13.47166666666667</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1518,18 +1593,21 @@
         <v>14621.2808</v>
       </c>
       <c r="G32" t="n">
+        <v>13.23999999999999</v>
+      </c>
+      <c r="H32" t="n">
         <v>13.45166666666668</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1553,18 +1631,21 @@
         <v>14929.9129</v>
       </c>
       <c r="G33" t="n">
+        <v>13.24666666666666</v>
+      </c>
+      <c r="H33" t="n">
         <v>13.43500000000001</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1588,18 +1669,21 @@
         <v>5000</v>
       </c>
       <c r="G34" t="n">
+        <v>13.24666666666666</v>
+      </c>
+      <c r="H34" t="n">
         <v>13.41666666666668</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1623,18 +1707,21 @@
         <v>5252.8241</v>
       </c>
       <c r="G35" t="n">
+        <v>13.24666666666666</v>
+      </c>
+      <c r="H35" t="n">
         <v>13.40333333333334</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1658,18 +1745,21 @@
         <v>19984.8558</v>
       </c>
       <c r="G36" t="n">
+        <v>13.26</v>
+      </c>
+      <c r="H36" t="n">
         <v>13.39500000000001</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1693,18 +1783,21 @@
         <v>115.0387</v>
       </c>
       <c r="G37" t="n">
+        <v>13.27333333333333</v>
+      </c>
+      <c r="H37" t="n">
         <v>13.38000000000001</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1728,18 +1821,21 @@
         <v>2974.1791</v>
       </c>
       <c r="G38" t="n">
+        <v>13.28</v>
+      </c>
+      <c r="H38" t="n">
         <v>13.36666666666667</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1763,18 +1859,21 @@
         <v>1500</v>
       </c>
       <c r="G39" t="n">
+        <v>13.27333333333333</v>
+      </c>
+      <c r="H39" t="n">
         <v>13.35666666666667</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1798,18 +1897,21 @@
         <v>15500</v>
       </c>
       <c r="G40" t="n">
+        <v>13.26666666666666</v>
+      </c>
+      <c r="H40" t="n">
         <v>13.34666666666667</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1833,18 +1935,21 @@
         <v>23821.8045</v>
       </c>
       <c r="G41" t="n">
+        <v>13.26</v>
+      </c>
+      <c r="H41" t="n">
         <v>13.33500000000001</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1868,18 +1973,21 @@
         <v>4899.19</v>
       </c>
       <c r="G42" t="n">
+        <v>13.25333333333333</v>
+      </c>
+      <c r="H42" t="n">
         <v>13.32666666666667</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1903,18 +2011,21 @@
         <v>64889.5293</v>
       </c>
       <c r="G43" t="n">
+        <v>13.25333333333333</v>
+      </c>
+      <c r="H43" t="n">
         <v>13.31333333333334</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1938,18 +2049,21 @@
         <v>7575.757575757576</v>
       </c>
       <c r="G44" t="n">
+        <v>13.25333333333333</v>
+      </c>
+      <c r="H44" t="n">
         <v>13.30000000000001</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1973,18 +2087,21 @@
         <v>38491.3589</v>
       </c>
       <c r="G45" t="n">
+        <v>13.24666666666667</v>
+      </c>
+      <c r="H45" t="n">
         <v>13.28500000000001</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2008,18 +2125,21 @@
         <v>16913.45412424242</v>
       </c>
       <c r="G46" t="n">
+        <v>13.24666666666667</v>
+      </c>
+      <c r="H46" t="n">
         <v>13.27166666666668</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2043,18 +2163,21 @@
         <v>8971.545875757576</v>
       </c>
       <c r="G47" t="n">
+        <v>13.25333333333333</v>
+      </c>
+      <c r="H47" t="n">
         <v>13.26000000000001</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2078,18 +2201,21 @@
         <v>107929.6115</v>
       </c>
       <c r="G48" t="n">
+        <v>13.24</v>
+      </c>
+      <c r="H48" t="n">
         <v>13.24666666666668</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2113,18 +2239,21 @@
         <v>50298.9375</v>
       </c>
       <c r="G49" t="n">
+        <v>13.23333333333333</v>
+      </c>
+      <c r="H49" t="n">
         <v>13.23500000000001</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2148,18 +2277,21 @@
         <v>100</v>
       </c>
       <c r="G50" t="n">
+        <v>13.22666666666666</v>
+      </c>
+      <c r="H50" t="n">
         <v>13.22500000000001</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2183,18 +2315,21 @@
         <v>770</v>
       </c>
       <c r="G51" t="n">
+        <v>13.22</v>
+      </c>
+      <c r="H51" t="n">
         <v>13.22500000000001</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2218,18 +2353,21 @@
         <v>44152.4338</v>
       </c>
       <c r="G52" t="n">
+        <v>13.20666666666666</v>
+      </c>
+      <c r="H52" t="n">
         <v>13.22166666666668</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2253,18 +2391,21 @@
         <v>3147.79</v>
       </c>
       <c r="G53" t="n">
+        <v>13.19333333333333</v>
+      </c>
+      <c r="H53" t="n">
         <v>13.22000000000001</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2288,18 +2429,21 @@
         <v>10</v>
       </c>
       <c r="G54" t="n">
+        <v>13.17999999999999</v>
+      </c>
+      <c r="H54" t="n">
         <v>13.21833333333335</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2323,18 +2467,21 @@
         <v>25107.8792</v>
       </c>
       <c r="G55" t="n">
+        <v>13.16666666666666</v>
+      </c>
+      <c r="H55" t="n">
         <v>13.21333333333335</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2358,18 +2505,21 @@
         <v>55000</v>
       </c>
       <c r="G56" t="n">
+        <v>13.15333333333333</v>
+      </c>
+      <c r="H56" t="n">
         <v>13.21000000000002</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2393,18 +2543,21 @@
         <v>75323.6376</v>
       </c>
       <c r="G57" t="n">
+        <v>13.13999999999999</v>
+      </c>
+      <c r="H57" t="n">
         <v>13.20333333333335</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2428,18 +2581,21 @@
         <v>121509.7808</v>
       </c>
       <c r="G58" t="n">
+        <v>13.13333333333332</v>
+      </c>
+      <c r="H58" t="n">
         <v>13.20166666666668</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2463,18 +2619,25 @@
         <v>172295.7153</v>
       </c>
       <c r="G59" t="n">
+        <v>13.11999999999999</v>
+      </c>
+      <c r="H59" t="n">
         <v>13.19833333333335</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L59" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2498,18 +2661,29 @@
         <v>14436.0826</v>
       </c>
       <c r="G60" t="n">
+        <v>13.12666666666666</v>
+      </c>
+      <c r="H60" t="n">
         <v>13.19500000000002</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>13</v>
+      </c>
+      <c r="L60" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2533,18 +2707,29 @@
         <v>521886.03</v>
       </c>
       <c r="G61" t="n">
+        <v>13.12666666666666</v>
+      </c>
+      <c r="H61" t="n">
         <v>13.19500000000002</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="L61" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2568,18 +2753,27 @@
         <v>10</v>
       </c>
       <c r="G62" t="n">
+        <v>13.13333333333333</v>
+      </c>
+      <c r="H62" t="n">
         <v>13.19500000000002</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="L62" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2603,18 +2797,27 @@
         <v>71597.2062</v>
       </c>
       <c r="G63" t="n">
+        <v>13.13999999999999</v>
+      </c>
+      <c r="H63" t="n">
         <v>13.19333333333335</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="L63" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2638,18 +2841,27 @@
         <v>10</v>
       </c>
       <c r="G64" t="n">
+        <v>13.15333333333333</v>
+      </c>
+      <c r="H64" t="n">
         <v>13.19333333333335</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="L64" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2673,18 +2885,27 @@
         <v>9377.104499999999</v>
       </c>
       <c r="G65" t="n">
+        <v>13.15999999999999</v>
+      </c>
+      <c r="H65" t="n">
         <v>13.19166666666669</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="L65" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2708,18 +2929,29 @@
         <v>85394.1906</v>
       </c>
       <c r="G66" t="n">
+        <v>13.15333333333333</v>
+      </c>
+      <c r="H66" t="n">
         <v>13.19000000000002</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="L66" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2743,18 +2975,29 @@
         <v>74023.9146</v>
       </c>
       <c r="G67" t="n">
+        <v>13.15333333333333</v>
+      </c>
+      <c r="H67" t="n">
         <v>13.18833333333335</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L67" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2778,18 +3021,29 @@
         <v>1230</v>
       </c>
       <c r="G68" t="n">
+        <v>13.15333333333333</v>
+      </c>
+      <c r="H68" t="n">
         <v>13.18833333333335</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="L68" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2813,18 +3067,29 @@
         <v>16986.3235</v>
       </c>
       <c r="G69" t="n">
+        <v>13.15999999999999</v>
+      </c>
+      <c r="H69" t="n">
         <v>13.19000000000002</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="L69" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2848,18 +3113,29 @@
         <v>10</v>
       </c>
       <c r="G70" t="n">
+        <v>13.17333333333333</v>
+      </c>
+      <c r="H70" t="n">
         <v>13.19333333333335</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="L70" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2883,18 +3159,29 @@
         <v>1237.4436</v>
       </c>
       <c r="G71" t="n">
+        <v>13.18666666666666</v>
+      </c>
+      <c r="H71" t="n">
         <v>13.19666666666668</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L71" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2918,18 +3205,29 @@
         <v>209129.1211</v>
       </c>
       <c r="G72" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="H72" t="n">
         <v>13.20000000000002</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L72" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2953,18 +3251,29 @@
         <v>20596.8007</v>
       </c>
       <c r="G73" t="n">
+        <v>13.22</v>
+      </c>
+      <c r="H73" t="n">
         <v>13.20500000000001</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="L73" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2988,18 +3297,29 @@
         <v>526544.1176</v>
       </c>
       <c r="G74" t="n">
+        <v>13.26</v>
+      </c>
+      <c r="H74" t="n">
         <v>13.21500000000001</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="L74" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3023,18 +3343,27 @@
         <v>141393.8648</v>
       </c>
       <c r="G75" t="n">
+        <v>13.28666666666666</v>
+      </c>
+      <c r="H75" t="n">
         <v>13.22166666666668</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="L75" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3058,18 +3387,27 @@
         <v>12684.7143</v>
       </c>
       <c r="G76" t="n">
+        <v>13.32</v>
+      </c>
+      <c r="H76" t="n">
         <v>13.23333333333335</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="L76" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3093,18 +3431,27 @@
         <v>22192.8156</v>
       </c>
       <c r="G77" t="n">
+        <v>13.34666666666666</v>
+      </c>
+      <c r="H77" t="n">
         <v>13.24333333333335</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="L77" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3128,18 +3475,27 @@
         <v>24.568</v>
       </c>
       <c r="G78" t="n">
+        <v>13.36666666666666</v>
+      </c>
+      <c r="H78" t="n">
         <v>13.24833333333335</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="L78" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3163,18 +3519,27 @@
         <v>97455.8518</v>
       </c>
       <c r="G79" t="n">
+        <v>13.38</v>
+      </c>
+      <c r="H79" t="n">
         <v>13.25333333333335</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="L79" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3198,18 +3563,27 @@
         <v>23064.9864</v>
       </c>
       <c r="G80" t="n">
+        <v>13.39333333333333</v>
+      </c>
+      <c r="H80" t="n">
         <v>13.25666666666668</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="L80" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3233,18 +3607,27 @@
         <v>214343.5956</v>
       </c>
       <c r="G81" t="n">
+        <v>13.41333333333333</v>
+      </c>
+      <c r="H81" t="n">
         <v>13.26166666666668</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="L81" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3268,18 +3651,29 @@
         <v>312200.522</v>
       </c>
       <c r="G82" t="n">
+        <v>13.43333333333333</v>
+      </c>
+      <c r="H82" t="n">
         <v>13.26666666666668</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="L82" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3303,18 +3697,29 @@
         <v>333</v>
       </c>
       <c r="G83" t="n">
+        <v>13.45333333333333</v>
+      </c>
+      <c r="H83" t="n">
         <v>13.27000000000001</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="L83" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3338,18 +3743,29 @@
         <v>177819.037</v>
       </c>
       <c r="G84" t="n">
+        <v>13.47333333333333</v>
+      </c>
+      <c r="H84" t="n">
         <v>13.27166666666668</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="L84" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3373,18 +3789,29 @@
         <v>333</v>
       </c>
       <c r="G85" t="n">
+        <v>13.49333333333333</v>
+      </c>
+      <c r="H85" t="n">
         <v>13.27500000000001</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="L85" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3408,18 +3835,27 @@
         <v>16199.4074</v>
       </c>
       <c r="G86" t="n">
+        <v>13.50666666666666</v>
+      </c>
+      <c r="H86" t="n">
         <v>13.27666666666668</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="L86" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3443,18 +3879,27 @@
         <v>333</v>
       </c>
       <c r="G87" t="n">
+        <v>13.52666666666666</v>
+      </c>
+      <c r="H87" t="n">
         <v>13.28000000000001</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="L87" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3478,18 +3923,27 @@
         <v>9020</v>
       </c>
       <c r="G88" t="n">
+        <v>13.53333333333333</v>
+      </c>
+      <c r="H88" t="n">
         <v>13.28500000000001</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="L88" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3513,18 +3967,27 @@
         <v>89071.65119999999</v>
       </c>
       <c r="G89" t="n">
+        <v>13.52</v>
+      </c>
+      <c r="H89" t="n">
         <v>13.28833333333335</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="L89" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3548,18 +4011,27 @@
         <v>135661.4934</v>
       </c>
       <c r="G90" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="H90" t="n">
         <v>13.29000000000001</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="L90" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3583,18 +4055,27 @@
         <v>6000</v>
       </c>
       <c r="G91" t="n">
+        <v>13.49333333333333</v>
+      </c>
+      <c r="H91" t="n">
         <v>13.29666666666668</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="L91" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3618,18 +4099,27 @@
         <v>12079.0457</v>
       </c>
       <c r="G92" t="n">
+        <v>13.48666666666667</v>
+      </c>
+      <c r="H92" t="n">
         <v>13.30500000000001</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="L92" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3653,18 +4143,27 @@
         <v>1044.6139</v>
       </c>
       <c r="G93" t="n">
+        <v>13.49333333333333</v>
+      </c>
+      <c r="H93" t="n">
         <v>13.31000000000001</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="L93" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3688,18 +4187,27 @@
         <v>16170.2299</v>
       </c>
       <c r="G94" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="H94" t="n">
         <v>13.31666666666668</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="L94" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3723,18 +4231,27 @@
         <v>109926.3602</v>
       </c>
       <c r="G95" t="n">
+        <v>13.51333333333333</v>
+      </c>
+      <c r="H95" t="n">
         <v>13.32333333333334</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="L95" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3758,18 +4275,27 @@
         <v>15290.3308</v>
       </c>
       <c r="G96" t="n">
+        <v>13.52666666666666</v>
+      </c>
+      <c r="H96" t="n">
         <v>13.32833333333335</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="L96" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3793,18 +4319,27 @@
         <v>153849.3414</v>
       </c>
       <c r="G97" t="n">
+        <v>13.54666666666666</v>
+      </c>
+      <c r="H97" t="n">
         <v>13.33500000000001</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="L97" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3828,18 +4363,27 @@
         <v>121566.6423</v>
       </c>
       <c r="G98" t="n">
+        <v>13.56</v>
+      </c>
+      <c r="H98" t="n">
         <v>13.34000000000001</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="L98" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3863,18 +4407,27 @@
         <v>81215.47440000001</v>
       </c>
       <c r="G99" t="n">
+        <v>13.56666666666666</v>
+      </c>
+      <c r="H99" t="n">
         <v>13.34500000000002</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="L99" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3898,18 +4451,27 @@
         <v>56270.1013</v>
       </c>
       <c r="G100" t="n">
+        <v>13.57999999999999</v>
+      </c>
+      <c r="H100" t="n">
         <v>13.35333333333335</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="L100" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3933,18 +4495,27 @@
         <v>14267.49</v>
       </c>
       <c r="G101" t="n">
+        <v>13.59333333333333</v>
+      </c>
+      <c r="H101" t="n">
         <v>13.36000000000002</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="L101" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3968,18 +4539,27 @@
         <v>56553.1573</v>
       </c>
       <c r="G102" t="n">
+        <v>13.60666666666666</v>
+      </c>
+      <c r="H102" t="n">
         <v>13.36833333333335</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="L102" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4003,18 +4583,27 @@
         <v>72455.2173</v>
       </c>
       <c r="G103" t="n">
+        <v>13.62666666666666</v>
+      </c>
+      <c r="H103" t="n">
         <v>13.37833333333335</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="L103" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4038,18 +4627,27 @@
         <v>112476.3768</v>
       </c>
       <c r="G104" t="n">
+        <v>13.65333333333333</v>
+      </c>
+      <c r="H104" t="n">
         <v>13.38833333333335</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="L104" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4073,18 +4671,27 @@
         <v>6310</v>
       </c>
       <c r="G105" t="n">
+        <v>13.68</v>
+      </c>
+      <c r="H105" t="n">
         <v>13.39833333333335</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="L105" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4108,18 +4715,27 @@
         <v>26260.3623</v>
       </c>
       <c r="G106" t="n">
+        <v>13.69333333333333</v>
+      </c>
+      <c r="H106" t="n">
         <v>13.40833333333335</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="L106" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4143,18 +4759,27 @@
         <v>25223.1739</v>
       </c>
       <c r="G107" t="n">
+        <v>13.70666666666667</v>
+      </c>
+      <c r="H107" t="n">
         <v>13.41833333333335</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="L107" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4178,18 +4803,27 @@
         <v>92620.37669999999</v>
       </c>
       <c r="G108" t="n">
+        <v>13.72</v>
+      </c>
+      <c r="H108" t="n">
         <v>13.43000000000001</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="L108" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4213,18 +4847,27 @@
         <v>72699.3839</v>
       </c>
       <c r="G109" t="n">
+        <v>13.73333333333333</v>
+      </c>
+      <c r="H109" t="n">
         <v>13.44166666666668</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="L109" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4248,18 +4891,27 @@
         <v>14492.75362318841</v>
       </c>
       <c r="G110" t="n">
+        <v>13.74666666666667</v>
+      </c>
+      <c r="H110" t="n">
         <v>13.45333333333334</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="L110" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4283,18 +4935,27 @@
         <v>204060.870155535</v>
       </c>
       <c r="G111" t="n">
+        <v>13.78</v>
+      </c>
+      <c r="H111" t="n">
         <v>13.46833333333334</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="L111" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4318,18 +4979,27 @@
         <v>345219.3038522625</v>
       </c>
       <c r="G112" t="n">
+        <v>13.81333333333333</v>
+      </c>
+      <c r="H112" t="n">
         <v>13.48666666666668</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="L112" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4353,18 +5023,27 @@
         <v>2816.901408450704</v>
       </c>
       <c r="G113" t="n">
+        <v>13.84666666666667</v>
+      </c>
+      <c r="H113" t="n">
         <v>13.50333333333334</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="L113" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4388,18 +5067,27 @@
         <v>171348.0281380282</v>
       </c>
       <c r="G114" t="n">
+        <v>13.88666666666667</v>
+      </c>
+      <c r="H114" t="n">
         <v>13.52166666666668</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="L114" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4423,18 +5111,27 @@
         <v>21024.4028</v>
       </c>
       <c r="G115" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="H115" t="n">
         <v>13.53666666666667</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
-        <v>1</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="L115" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4458,18 +5155,27 @@
         <v>18862.50742340425</v>
       </c>
       <c r="G116" t="n">
+        <v>13.92666666666667</v>
+      </c>
+      <c r="H116" t="n">
         <v>13.55333333333334</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
-        <v>1</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="L116" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4493,18 +5199,27 @@
         <v>3522.671337159125</v>
       </c>
       <c r="G117" t="n">
+        <v>13.95333333333333</v>
+      </c>
+      <c r="H117" t="n">
         <v>13.57166666666668</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="L117" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4528,18 +5243,27 @@
         <v>131626.5034</v>
       </c>
       <c r="G118" t="n">
+        <v>13.98666666666667</v>
+      </c>
+      <c r="H118" t="n">
         <v>13.59166666666667</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="L118" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4563,18 +5287,27 @@
         <v>57971.6083</v>
       </c>
       <c r="G119" t="n">
+        <v>14.02</v>
+      </c>
+      <c r="H119" t="n">
         <v>13.61333333333334</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="L119" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4598,18 +5331,27 @@
         <v>24272.9858</v>
       </c>
       <c r="G120" t="n">
+        <v>14.06</v>
+      </c>
+      <c r="H120" t="n">
         <v>13.63166666666667</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="L120" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4633,18 +5375,27 @@
         <v>8215.422500000001</v>
       </c>
       <c r="G121" t="n">
+        <v>14.08666666666667</v>
+      </c>
+      <c r="H121" t="n">
         <v>13.64833333333334</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="L121" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4668,18 +5419,27 @@
         <v>46474.6367</v>
       </c>
       <c r="G122" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="H122" t="n">
         <v>13.66000000000001</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="L122" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4703,18 +5463,27 @@
         <v>8857.1422</v>
       </c>
       <c r="G123" t="n">
+        <v>14.10666666666666</v>
+      </c>
+      <c r="H123" t="n">
         <v>13.67166666666667</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="L123" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4738,18 +5507,27 @@
         <v>8194.883900000001</v>
       </c>
       <c r="G124" t="n">
+        <v>14.11333333333333</v>
+      </c>
+      <c r="H124" t="n">
         <v>13.68166666666667</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="L124" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4773,18 +5551,27 @@
         <v>1221.31</v>
       </c>
       <c r="G125" t="n">
+        <v>14.12</v>
+      </c>
+      <c r="H125" t="n">
         <v>13.69333333333334</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="L125" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4808,18 +5595,27 @@
         <v>3184.5711</v>
       </c>
       <c r="G126" t="n">
+        <v>14.11333333333333</v>
+      </c>
+      <c r="H126" t="n">
         <v>13.70833333333334</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="L126" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4843,18 +5639,27 @@
         <v>4100.5717</v>
       </c>
       <c r="G127" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="H127" t="n">
         <v>13.72333333333334</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="L127" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4878,18 +5683,27 @@
         <v>8878.5988</v>
       </c>
       <c r="G128" t="n">
+        <v>14.08</v>
+      </c>
+      <c r="H128" t="n">
         <v>13.735</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="L128" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4913,18 +5727,27 @@
         <v>2898.1071</v>
       </c>
       <c r="G129" t="n">
+        <v>14.06666666666667</v>
+      </c>
+      <c r="H129" t="n">
         <v>13.74833333333333</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="L129" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4948,18 +5771,27 @@
         <v>10744.2778</v>
       </c>
       <c r="G130" t="n">
+        <v>14.07333333333333</v>
+      </c>
+      <c r="H130" t="n">
         <v>13.76166666666667</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="L130" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4983,18 +5815,27 @@
         <v>3000</v>
       </c>
       <c r="G131" t="n">
+        <v>14.08</v>
+      </c>
+      <c r="H131" t="n">
         <v>13.77666666666667</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="L131" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5018,18 +5859,27 @@
         <v>7460</v>
       </c>
       <c r="G132" t="n">
+        <v>14.07333333333333</v>
+      </c>
+      <c r="H132" t="n">
         <v>13.79</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="L132" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5053,18 +5903,27 @@
         <v>59485.5819</v>
       </c>
       <c r="G133" t="n">
+        <v>14.05333333333333</v>
+      </c>
+      <c r="H133" t="n">
         <v>13.80000000000001</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="L133" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5088,18 +5947,27 @@
         <v>13157.9847</v>
       </c>
       <c r="G134" t="n">
+        <v>14.03333333333333</v>
+      </c>
+      <c r="H134" t="n">
         <v>13.80666666666667</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="L134" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5123,18 +5991,27 @@
         <v>3000</v>
       </c>
       <c r="G135" t="n">
+        <v>14.01333333333333</v>
+      </c>
+      <c r="H135" t="n">
         <v>13.81333333333334</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="L135" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5158,18 +6035,27 @@
         <v>27050.7807</v>
       </c>
       <c r="G136" t="n">
+        <v>13.99333333333333</v>
+      </c>
+      <c r="H136" t="n">
         <v>13.81666666666667</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="L136" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5193,18 +6079,27 @@
         <v>26049.3045</v>
       </c>
       <c r="G137" t="n">
+        <v>13.98</v>
+      </c>
+      <c r="H137" t="n">
         <v>13.81833333333334</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="L137" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5228,18 +6123,27 @@
         <v>65212.8746</v>
       </c>
       <c r="G138" t="n">
+        <v>13.96</v>
+      </c>
+      <c r="H138" t="n">
         <v>13.82</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="L138" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5263,18 +6167,27 @@
         <v>26115.1515</v>
       </c>
       <c r="G139" t="n">
+        <v>13.95333333333333</v>
+      </c>
+      <c r="H139" t="n">
         <v>13.825</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="L139" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5298,18 +6211,27 @@
         <v>116557.2472</v>
       </c>
       <c r="G140" t="n">
+        <v>13.93333333333333</v>
+      </c>
+      <c r="H140" t="n">
         <v>13.82833333333334</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="L140" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5333,18 +6255,27 @@
         <v>10</v>
       </c>
       <c r="G141" t="n">
+        <v>13.92666666666667</v>
+      </c>
+      <c r="H141" t="n">
         <v>13.83666666666667</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="L141" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5368,18 +6299,27 @@
         <v>2742.1726</v>
       </c>
       <c r="G142" t="n">
+        <v>13.92</v>
+      </c>
+      <c r="H142" t="n">
         <v>13.845</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="L142" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5403,18 +6343,27 @@
         <v>15424.7481</v>
       </c>
       <c r="G143" t="n">
+        <v>13.92</v>
+      </c>
+      <c r="H143" t="n">
         <v>13.85166666666667</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="L143" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5438,18 +6387,27 @@
         <v>48421.3308</v>
       </c>
       <c r="G144" t="n">
+        <v>13.91333333333333</v>
+      </c>
+      <c r="H144" t="n">
         <v>13.85833333333334</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="L144" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5473,18 +6431,27 @@
         <v>51217.8812</v>
       </c>
       <c r="G145" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="H145" t="n">
         <v>13.86333333333334</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="L145" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5508,18 +6475,27 @@
         <v>5757.5357</v>
       </c>
       <c r="G146" t="n">
+        <v>13.88666666666667</v>
+      </c>
+      <c r="H146" t="n">
         <v>13.87166666666667</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="L146" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5543,18 +6519,27 @@
         <v>34362.8801</v>
       </c>
       <c r="G147" t="n">
+        <v>13.88</v>
+      </c>
+      <c r="H147" t="n">
         <v>13.87833333333333</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="L147" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5578,18 +6563,27 @@
         <v>37474.3266</v>
       </c>
       <c r="G148" t="n">
+        <v>13.89333333333333</v>
+      </c>
+      <c r="H148" t="n">
         <v>13.89</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="L148" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5613,18 +6607,27 @@
         <v>39629.5442</v>
       </c>
       <c r="G149" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="H149" t="n">
         <v>13.90166666666667</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="L149" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5648,18 +6651,27 @@
         <v>11936.7011</v>
       </c>
       <c r="G150" t="n">
+        <v>13.90666666666667</v>
+      </c>
+      <c r="H150" t="n">
         <v>13.915</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="L150" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5683,18 +6695,27 @@
         <v>188285.5985</v>
       </c>
       <c r="G151" t="n">
+        <v>13.92</v>
+      </c>
+      <c r="H151" t="n">
         <v>13.92333333333334</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="L151" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5718,18 +6739,27 @@
         <v>461700.8645</v>
       </c>
       <c r="G152" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="H152" t="n">
         <v>13.92166666666667</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="L152" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5753,18 +6783,27 @@
         <v>100</v>
       </c>
       <c r="G153" t="n">
+        <v>13.91333333333333</v>
+      </c>
+      <c r="H153" t="n">
         <v>13.925</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="L153" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5788,18 +6827,27 @@
         <v>18908.0714</v>
       </c>
       <c r="G154" t="n">
+        <v>13.92666666666667</v>
+      </c>
+      <c r="H154" t="n">
         <v>13.93166666666667</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="L154" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5823,18 +6871,27 @@
         <v>11981.1085</v>
       </c>
       <c r="G155" t="n">
+        <v>13.94</v>
+      </c>
+      <c r="H155" t="n">
         <v>13.935</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="L155" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5858,18 +6915,27 @@
         <v>24212.3033</v>
       </c>
       <c r="G156" t="n">
+        <v>13.92666666666667</v>
+      </c>
+      <c r="H156" t="n">
         <v>13.93666666666667</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="L156" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5893,18 +6959,27 @@
         <v>2876.4748</v>
       </c>
       <c r="G157" t="n">
+        <v>13.92666666666667</v>
+      </c>
+      <c r="H157" t="n">
         <v>13.94</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="L157" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5928,18 +7003,27 @@
         <v>42811.7985</v>
       </c>
       <c r="G158" t="n">
+        <v>13.92666666666667</v>
+      </c>
+      <c r="H158" t="n">
         <v>13.94333333333333</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="L158" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5963,18 +7047,27 @@
         <v>2917.8417</v>
       </c>
       <c r="G159" t="n">
+        <v>13.92666666666667</v>
+      </c>
+      <c r="H159" t="n">
         <v>13.94833333333333</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="L159" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5998,18 +7091,27 @@
         <v>11073.4105</v>
       </c>
       <c r="G160" t="n">
+        <v>13.93333333333333</v>
+      </c>
+      <c r="H160" t="n">
         <v>13.95166666666666</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="L160" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6033,18 +7135,27 @@
         <v>394.6428</v>
       </c>
       <c r="G161" t="n">
+        <v>13.93333333333333</v>
+      </c>
+      <c r="H161" t="n">
         <v>13.95666666666667</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="L161" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6068,18 +7179,27 @@
         <v>214.2857</v>
       </c>
       <c r="G162" t="n">
+        <v>13.93333333333333</v>
+      </c>
+      <c r="H162" t="n">
         <v>13.96</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="L162" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6103,18 +7223,27 @@
         <v>408839.6561</v>
       </c>
       <c r="G163" t="n">
+        <v>13.92666666666667</v>
+      </c>
+      <c r="H163" t="n">
         <v>13.965</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="L163" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6138,18 +7267,27 @@
         <v>3775.27</v>
       </c>
       <c r="G164" t="n">
+        <v>13.93333333333333</v>
+      </c>
+      <c r="H164" t="n">
         <v>13.97166666666667</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="L164" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6173,18 +7311,27 @@
         <v>23728.9436</v>
       </c>
       <c r="G165" t="n">
+        <v>13.94</v>
+      </c>
+      <c r="H165" t="n">
         <v>13.98</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="L165" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6208,18 +7355,27 @@
         <v>13150.0709</v>
       </c>
       <c r="G166" t="n">
+        <v>13.94</v>
+      </c>
+      <c r="H166" t="n">
         <v>13.985</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="L166" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6243,18 +7399,27 @@
         <v>39893.1914</v>
       </c>
       <c r="G167" t="n">
+        <v>13.98</v>
+      </c>
+      <c r="H167" t="n">
         <v>13.99</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="L167" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6278,18 +7443,27 @@
         <v>139867.8882</v>
       </c>
       <c r="G168" t="n">
+        <v>14</v>
+      </c>
+      <c r="H168" t="n">
         <v>13.995</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="L168" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6313,18 +7487,27 @@
         <v>45251.5443</v>
       </c>
       <c r="G169" t="n">
+        <v>14.00666666666666</v>
+      </c>
+      <c r="H169" t="n">
         <v>14.00000000000001</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="L169" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6348,18 +7531,27 @@
         <v>76882.70450000001</v>
       </c>
       <c r="G170" t="n">
+        <v>14.02666666666666</v>
+      </c>
+      <c r="H170" t="n">
         <v>14.00500000000001</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="L170" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6383,18 +7575,27 @@
         <v>7501.702127659574</v>
       </c>
       <c r="G171" t="n">
+        <v>14.05333333333333</v>
+      </c>
+      <c r="H171" t="n">
         <v>14.00500000000001</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="L171" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6418,18 +7619,27 @@
         <v>6216.0992</v>
       </c>
       <c r="G172" t="n">
+        <v>14.06666666666666</v>
+      </c>
+      <c r="H172" t="n">
         <v>14.00333333333334</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="L172" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6453,18 +7663,27 @@
         <v>2947.7408</v>
       </c>
       <c r="G173" t="n">
+        <v>14.07999999999999</v>
+      </c>
+      <c r="H173" t="n">
         <v>14.00166666666667</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="L173" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6488,18 +7707,27 @@
         <v>500</v>
       </c>
       <c r="G174" t="n">
+        <v>14.09333333333333</v>
+      </c>
+      <c r="H174" t="n">
         <v>14.00000000000001</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="L174" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6523,18 +7751,27 @@
         <v>1631.9382</v>
       </c>
       <c r="G175" t="n">
+        <v>14.09333333333333</v>
+      </c>
+      <c r="H175" t="n">
         <v>14.00000000000001</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="L175" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6558,18 +7795,27 @@
         <v>20884.8162</v>
       </c>
       <c r="G176" t="n">
+        <v>14.09333333333333</v>
+      </c>
+      <c r="H176" t="n">
         <v>13.99833333333334</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="L176" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6593,18 +7839,27 @@
         <v>19550.9165</v>
       </c>
       <c r="G177" t="n">
+        <v>14.09333333333333</v>
+      </c>
+      <c r="H177" t="n">
         <v>13.995</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="L177" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6628,18 +7883,27 @@
         <v>35609.7163</v>
       </c>
       <c r="G178" t="n">
+        <v>14.09333333333333</v>
+      </c>
+      <c r="H178" t="n">
         <v>13.99166666666667</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="L178" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6663,18 +7927,27 @@
         <v>6951.749572340425</v>
       </c>
       <c r="G179" t="n">
+        <v>14.08666666666666</v>
+      </c>
+      <c r="H179" t="n">
         <v>13.98833333333334</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="L179" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6698,18 +7971,27 @@
         <v>5000</v>
       </c>
       <c r="G180" t="n">
+        <v>14.07999999999999</v>
+      </c>
+      <c r="H180" t="n">
         <v>13.98500000000001</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="L180" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6733,18 +8015,27 @@
         <v>4694.92</v>
       </c>
       <c r="G181" t="n">
+        <v>14.07999999999999</v>
+      </c>
+      <c r="H181" t="n">
         <v>13.98333333333334</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="L181" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6768,18 +8059,27 @@
         <v>10000</v>
       </c>
       <c r="G182" t="n">
+        <v>14.07999999999999</v>
+      </c>
+      <c r="H182" t="n">
         <v>13.98500000000001</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="L182" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6803,18 +8103,27 @@
         <v>142533.0379276596</v>
       </c>
       <c r="G183" t="n">
+        <v>14.07333333333333</v>
+      </c>
+      <c r="H183" t="n">
         <v>13.98666666666668</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="L183" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6838,18 +8147,27 @@
         <v>77708.8028</v>
       </c>
       <c r="G184" t="n">
+        <v>14.07999999999999</v>
+      </c>
+      <c r="H184" t="n">
         <v>13.99166666666668</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="L184" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6873,18 +8191,27 @@
         <v>14701.8548</v>
       </c>
       <c r="G185" t="n">
+        <v>14.07333333333333</v>
+      </c>
+      <c r="H185" t="n">
         <v>13.99333333333334</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="L185" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6908,18 +8235,27 @@
         <v>10</v>
       </c>
       <c r="G186" t="n">
+        <v>14.07333333333333</v>
+      </c>
+      <c r="H186" t="n">
         <v>13.99500000000001</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="L186" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6943,18 +8279,27 @@
         <v>32827.234</v>
       </c>
       <c r="G187" t="n">
+        <v>14.07333333333333</v>
+      </c>
+      <c r="H187" t="n">
         <v>13.99666666666668</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="L187" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6978,18 +8323,27 @@
         <v>6007.8392</v>
       </c>
       <c r="G188" t="n">
+        <v>14.06666666666666</v>
+      </c>
+      <c r="H188" t="n">
         <v>13.99833333333334</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="L188" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7013,18 +8367,27 @@
         <v>35521.1869</v>
       </c>
       <c r="G189" t="n">
+        <v>14.05333333333333</v>
+      </c>
+      <c r="H189" t="n">
         <v>13.99666666666668</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="L189" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7048,18 +8411,27 @@
         <v>100000.0001</v>
       </c>
       <c r="G190" t="n">
+        <v>14.04</v>
+      </c>
+      <c r="H190" t="n">
         <v>13.99166666666668</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="L190" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7083,18 +8455,27 @@
         <v>190540.0581</v>
       </c>
       <c r="G191" t="n">
+        <v>14.02666666666666</v>
+      </c>
+      <c r="H191" t="n">
         <v>13.98500000000001</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="L191" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7118,18 +8499,27 @@
         <v>10</v>
       </c>
       <c r="G192" t="n">
+        <v>14.02</v>
+      </c>
+      <c r="H192" t="n">
         <v>13.98166666666667</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="L192" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7153,18 +8543,27 @@
         <v>10</v>
       </c>
       <c r="G193" t="n">
+        <v>14</v>
+      </c>
+      <c r="H193" t="n">
         <v>13.97833333333334</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="L193" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7188,18 +8587,27 @@
         <v>11.5217</v>
       </c>
       <c r="G194" t="n">
+        <v>13.98</v>
+      </c>
+      <c r="H194" t="n">
         <v>13.975</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="L194" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7223,18 +8631,27 @@
         <v>99837.0882</v>
       </c>
       <c r="G195" t="n">
+        <v>13.96</v>
+      </c>
+      <c r="H195" t="n">
         <v>13.97166666666667</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+      <c r="L195" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7258,18 +8675,27 @@
         <v>17831.105</v>
       </c>
       <c r="G196" t="n">
+        <v>13.94</v>
+      </c>
+      <c r="H196" t="n">
         <v>13.97</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+      <c r="L196" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7293,18 +8719,27 @@
         <v>433.4822</v>
       </c>
       <c r="G197" t="n">
+        <v>13.92</v>
+      </c>
+      <c r="H197" t="n">
         <v>13.97</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+      <c r="L197" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7328,18 +8763,27 @@
         <v>61528.7336</v>
       </c>
       <c r="G198" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="H198" t="n">
         <v>13.97166666666667</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+      <c r="L198" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7363,18 +8807,27 @@
         <v>1500</v>
       </c>
       <c r="G199" t="n">
+        <v>13.87333333333334</v>
+      </c>
+      <c r="H199" t="n">
         <v>13.97166666666667</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+      <c r="L199" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7398,18 +8851,27 @@
         <v>500</v>
       </c>
       <c r="G200" t="n">
+        <v>13.86</v>
+      </c>
+      <c r="H200" t="n">
         <v>13.975</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
+      <c r="L200" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7433,18 +8895,27 @@
         <v>405096.1661</v>
       </c>
       <c r="G201" t="n">
+        <v>13.84000000000001</v>
+      </c>
+      <c r="H201" t="n">
         <v>13.97333333333334</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
+      <c r="L201" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7468,18 +8939,27 @@
         <v>18110.21526376812</v>
       </c>
       <c r="G202" t="n">
+        <v>13.81333333333334</v>
+      </c>
+      <c r="H202" t="n">
         <v>13.97</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
+      <c r="L202" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7503,18 +8983,27 @@
         <v>31540.3724</v>
       </c>
       <c r="G203" t="n">
+        <v>13.80000000000001</v>
+      </c>
+      <c r="H203" t="n">
         <v>13.96833333333334</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
+      <c r="L203" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7538,18 +9027,27 @@
         <v>22906.13683623188</v>
       </c>
       <c r="G204" t="n">
+        <v>13.79333333333334</v>
+      </c>
+      <c r="H204" t="n">
         <v>13.96666666666667</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
+      <c r="L204" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7573,18 +9071,27 @@
         <v>8782.3174</v>
       </c>
       <c r="G205" t="n">
+        <v>13.78666666666667</v>
+      </c>
+      <c r="H205" t="n">
         <v>13.96333333333334</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
+      <c r="L205" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7608,18 +9115,29 @@
         <v>321643.5319</v>
       </c>
       <c r="G206" t="n">
+        <v>13.79333333333334</v>
+      </c>
+      <c r="H206" t="n">
         <v>13.96166666666667</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
+      <c r="K206" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="L206" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7643,18 +9161,27 @@
         <v>163.9395</v>
       </c>
       <c r="G207" t="n">
+        <v>13.79333333333334</v>
+      </c>
+      <c r="H207" t="n">
         <v>13.96</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
+      <c r="L207" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7678,18 +9205,27 @@
         <v>44369.4509</v>
       </c>
       <c r="G208" t="n">
+        <v>13.81333333333334</v>
+      </c>
+      <c r="H208" t="n">
         <v>13.95833333333334</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
+      <c r="L208" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7713,18 +9249,27 @@
         <v>40</v>
       </c>
       <c r="G209" t="n">
+        <v>13.82</v>
+      </c>
+      <c r="H209" t="n">
         <v>13.955</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
+      <c r="L209" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7748,18 +9293,27 @@
         <v>10</v>
       </c>
       <c r="G210" t="n">
+        <v>13.84</v>
+      </c>
+      <c r="H210" t="n">
         <v>13.955</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
+      <c r="L210" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7783,18 +9337,27 @@
         <v>71948.0851</v>
       </c>
       <c r="G211" t="n">
+        <v>13.86</v>
+      </c>
+      <c r="H211" t="n">
         <v>13.955</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
+      <c r="L211" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7818,18 +9381,27 @@
         <v>16915.125</v>
       </c>
       <c r="G212" t="n">
+        <v>13.87333333333333</v>
+      </c>
+      <c r="H212" t="n">
         <v>13.96333333333334</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
+      <c r="L212" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7853,18 +9425,27 @@
         <v>16162.6785</v>
       </c>
       <c r="G213" t="n">
+        <v>13.89333333333333</v>
+      </c>
+      <c r="H213" t="n">
         <v>13.96666666666667</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
+      <c r="L213" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7888,18 +9469,27 @@
         <v>71429</v>
       </c>
       <c r="G214" t="n">
+        <v>13.90666666666667</v>
+      </c>
+      <c r="H214" t="n">
         <v>13.96666666666667</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
+      <c r="L214" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7923,18 +9513,27 @@
         <v>141420.8609</v>
       </c>
       <c r="G215" t="n">
+        <v>13.91333333333333</v>
+      </c>
+      <c r="H215" t="n">
         <v>13.96833333333334</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
+      <c r="L215" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7958,18 +9557,27 @@
         <v>10798.0098</v>
       </c>
       <c r="G216" t="n">
+        <v>13.92</v>
+      </c>
+      <c r="H216" t="n">
         <v>13.97166666666667</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
+      <c r="L216" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7993,18 +9601,29 @@
         <v>4373.989</v>
       </c>
       <c r="G217" t="n">
+        <v>13.93333333333333</v>
+      </c>
+      <c r="H217" t="n">
         <v>13.97166666666667</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
+      <c r="K217" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="L217" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8028,18 +9647,27 @@
         <v>32401.9119</v>
       </c>
       <c r="G218" t="n">
+        <v>13.94</v>
+      </c>
+      <c r="H218" t="n">
         <v>13.97166666666667</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
+      <c r="L218" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8063,18 +9691,27 @@
         <v>8081.3571</v>
       </c>
       <c r="G219" t="n">
+        <v>13.95333333333333</v>
+      </c>
+      <c r="H219" t="n">
         <v>13.97333333333334</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
+      <c r="L219" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8098,18 +9735,27 @@
         <v>69187.11</v>
       </c>
       <c r="G220" t="n">
+        <v>13.96666666666667</v>
+      </c>
+      <c r="H220" t="n">
         <v>13.97166666666667</v>
       </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
+      <c r="L220" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8133,18 +9779,27 @@
         <v>98436.0328</v>
       </c>
       <c r="G221" t="n">
+        <v>13.96</v>
+      </c>
+      <c r="H221" t="n">
         <v>13.96833333333334</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
+      <c r="L221" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8168,18 +9823,29 @@
         <v>32160.7803</v>
       </c>
       <c r="G222" t="n">
+        <v>13.95333333333333</v>
+      </c>
+      <c r="H222" t="n">
         <v>13.965</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
       <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
+        <v>1</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
+      <c r="K222" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="L222" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8203,18 +9869,29 @@
         <v>7351.9387</v>
       </c>
       <c r="G223" t="n">
+        <v>13.94</v>
+      </c>
+      <c r="H223" t="n">
         <v>13.96166666666667</v>
       </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
       <c r="I223" t="n">
-        <v>0</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
+        <v>1</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
+      <c r="K223" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="L223" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8238,18 +9915,29 @@
         <v>90657.5953</v>
       </c>
       <c r="G224" t="n">
+        <v>13.93333333333334</v>
+      </c>
+      <c r="H224" t="n">
         <v>13.955</v>
       </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
       <c r="I224" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
+        <v>1</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
+      <c r="K224" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="L224" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8273,18 +9961,29 @@
         <v>71949.9034</v>
       </c>
       <c r="G225" t="n">
+        <v>13.90666666666667</v>
+      </c>
+      <c r="H225" t="n">
         <v>13.94666666666667</v>
       </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
       <c r="I225" t="n">
-        <v>0</v>
-      </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
+        <v>1</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
+      <c r="K225" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="L225" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8308,18 +10007,29 @@
         <v>509.369</v>
       </c>
       <c r="G226" t="n">
+        <v>13.88</v>
+      </c>
+      <c r="H226" t="n">
         <v>13.94</v>
       </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
       <c r="I226" t="n">
-        <v>0</v>
-      </c>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
+        <v>1</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
+      <c r="K226" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="L226" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8343,18 +10053,29 @@
         <v>9841.475399999999</v>
       </c>
       <c r="G227" t="n">
+        <v>13.86</v>
+      </c>
+      <c r="H227" t="n">
         <v>13.93333333333333</v>
       </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
       <c r="I227" t="n">
-        <v>0</v>
-      </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
+        <v>1</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
+      <c r="K227" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="L227" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8378,18 +10099,29 @@
         <v>108924.8531</v>
       </c>
       <c r="G228" t="n">
+        <v>13.85333333333333</v>
+      </c>
+      <c r="H228" t="n">
         <v>13.93</v>
       </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
       <c r="I228" t="n">
-        <v>0</v>
-      </c>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
+        <v>1</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
+      <c r="K228" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="L228" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8413,18 +10145,29 @@
         <v>2520</v>
       </c>
       <c r="G229" t="n">
+        <v>13.84666666666667</v>
+      </c>
+      <c r="H229" t="n">
         <v>13.92666666666667</v>
       </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
       <c r="I229" t="n">
-        <v>0</v>
-      </c>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
+        <v>1</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
+      <c r="K229" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="L229" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8448,18 +10191,27 @@
         <v>2520</v>
       </c>
       <c r="G230" t="n">
+        <v>13.84666666666667</v>
+      </c>
+      <c r="H230" t="n">
         <v>13.92333333333333</v>
       </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
+      <c r="L230" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8483,18 +10235,27 @@
         <v>292876.7707</v>
       </c>
       <c r="G231" t="n">
+        <v>13.86</v>
+      </c>
+      <c r="H231" t="n">
         <v>13.92333333333333</v>
       </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
+      <c r="L231" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8518,18 +10279,27 @@
         <v>51247.6622</v>
       </c>
       <c r="G232" t="n">
+        <v>13.86666666666667</v>
+      </c>
+      <c r="H232" t="n">
         <v>13.92166666666666</v>
       </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
+      <c r="L232" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N232" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8553,18 +10323,27 @@
         <v>51595.8836</v>
       </c>
       <c r="G233" t="n">
+        <v>13.87333333333333</v>
+      </c>
+      <c r="H233" t="n">
         <v>13.92</v>
       </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
+      <c r="L233" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N233" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8588,18 +10367,27 @@
         <v>9285.6163</v>
       </c>
       <c r="G234" t="n">
+        <v>13.87333333333333</v>
+      </c>
+      <c r="H234" t="n">
         <v>13.91833333333333</v>
       </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
+      <c r="L234" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N234" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8623,18 +10411,27 @@
         <v>24009.5714</v>
       </c>
       <c r="G235" t="n">
+        <v>13.88</v>
+      </c>
+      <c r="H235" t="n">
         <v>13.91833333333333</v>
       </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
+      <c r="L235" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N235" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8658,18 +10455,27 @@
         <v>2914.67</v>
       </c>
       <c r="G236" t="n">
+        <v>13.88666666666666</v>
+      </c>
+      <c r="H236" t="n">
         <v>13.91666666666666</v>
       </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
+      <c r="L236" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N236" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8693,18 +10499,27 @@
         <v>2920</v>
       </c>
       <c r="G237" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="H237" t="n">
         <v>13.91666666666666</v>
       </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
+      <c r="L237" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N237" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8728,18 +10543,27 @@
         <v>119742.6241</v>
       </c>
       <c r="G238" t="n">
+        <v>13.91333333333333</v>
+      </c>
+      <c r="H238" t="n">
         <v>13.91666666666666</v>
       </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
+      <c r="L238" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N238" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8763,18 +10587,27 @@
         <v>53235.6382</v>
       </c>
       <c r="G239" t="n">
+        <v>13.93333333333333</v>
+      </c>
+      <c r="H239" t="n">
         <v>13.91666666666666</v>
       </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
+      <c r="L239" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N239" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8798,18 +10631,27 @@
         <v>35415.1321</v>
       </c>
       <c r="G240" t="n">
+        <v>13.96</v>
+      </c>
+      <c r="H240" t="n">
         <v>13.91666666666666</v>
       </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
+      <c r="L240" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N240" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8833,18 +10675,27 @@
         <v>741.4893</v>
       </c>
       <c r="G241" t="n">
+        <v>13.98666666666666</v>
+      </c>
+      <c r="H241" t="n">
         <v>13.91666666666666</v>
       </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
+      <c r="L241" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N241" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8868,18 +10719,27 @@
         <v>29989.7508</v>
       </c>
       <c r="G242" t="n">
+        <v>14.01333333333333</v>
+      </c>
+      <c r="H242" t="n">
         <v>13.91666666666666</v>
       </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
+      <c r="L242" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N242" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8903,18 +10763,27 @@
         <v>84629.4365</v>
       </c>
       <c r="G243" t="n">
+        <v>14.03333333333333</v>
+      </c>
+      <c r="H243" t="n">
         <v>13.92</v>
       </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
+      <c r="L243" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N243" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8938,18 +10807,27 @@
         <v>76036.2066</v>
       </c>
       <c r="G244" t="n">
+        <v>14.05333333333333</v>
+      </c>
+      <c r="H244" t="n">
         <v>13.92</v>
       </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
+      <c r="L244" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N244" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8973,18 +10851,27 @@
         <v>6827.3144</v>
       </c>
       <c r="G245" t="n">
+        <v>14.07333333333333</v>
+      </c>
+      <c r="H245" t="n">
         <v>13.92333333333333</v>
       </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
+      <c r="L245" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N245" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9008,18 +10895,27 @@
         <v>3580</v>
       </c>
       <c r="G246" t="n">
+        <v>14.07999999999999</v>
+      </c>
+      <c r="H246" t="n">
         <v>13.925</v>
       </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
+      <c r="L246" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N246" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9043,18 +10939,27 @@
         <v>559.2957</v>
       </c>
       <c r="G247" t="n">
+        <v>14.09333333333333</v>
+      </c>
+      <c r="H247" t="n">
         <v>13.92666666666667</v>
       </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
+      <c r="L247" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N247" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9078,18 +10983,27 @@
         <v>10</v>
       </c>
       <c r="G248" t="n">
+        <v>14.09333333333333</v>
+      </c>
+      <c r="H248" t="n">
         <v>13.92666666666667</v>
       </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>0</v>
+      </c>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
+      <c r="L248" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N248" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9113,18 +11027,27 @@
         <v>33280.1747</v>
       </c>
       <c r="G249" t="n">
+        <v>14.11333333333333</v>
+      </c>
+      <c r="H249" t="n">
         <v>13.93333333333333</v>
       </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
+      <c r="L249" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N249" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9148,18 +11071,27 @@
         <v>331754.7407</v>
       </c>
       <c r="G250" t="n">
+        <v>14.13999999999999</v>
+      </c>
+      <c r="H250" t="n">
         <v>13.94333333333333</v>
       </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>0</v>
+      </c>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
+      <c r="L250" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N250" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9183,18 +11115,27 @@
         <v>407.73</v>
       </c>
       <c r="G251" t="n">
+        <v>14.17333333333333</v>
+      </c>
+      <c r="H251" t="n">
         <v>13.95333333333333</v>
       </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>0</v>
+      </c>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
+      <c r="L251" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N251" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9218,18 +11159,27 @@
         <v>149000</v>
       </c>
       <c r="G252" t="n">
+        <v>14.19999999999999</v>
+      </c>
+      <c r="H252" t="n">
         <v>13.96166666666667</v>
       </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
+      <c r="L252" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N252" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9253,18 +11203,27 @@
         <v>61387.4364</v>
       </c>
       <c r="G253" t="n">
+        <v>14.22</v>
+      </c>
+      <c r="H253" t="n">
         <v>13.97166666666667</v>
       </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>0</v>
+      </c>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
+      <c r="L253" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N253" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9288,18 +11247,27 @@
         <v>120051</v>
       </c>
       <c r="G254" t="n">
+        <v>14.25333333333333</v>
+      </c>
+      <c r="H254" t="n">
         <v>13.985</v>
       </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>0</v>
+      </c>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
+      <c r="L254" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N254" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9323,18 +11291,27 @@
         <v>337319.4699</v>
       </c>
       <c r="G255" t="n">
-        <v>14</v>
+        <v>14.29333333333333</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>0</v>
+      </c>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
+      <c r="L255" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N255" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9358,18 +11335,27 @@
         <v>642629.6448631579</v>
       </c>
       <c r="G256" t="n">
+        <v>14.36666666666666</v>
+      </c>
+      <c r="H256" t="n">
         <v>14.02333333333334</v>
       </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
       <c r="I256" t="n">
         <v>0</v>
       </c>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>0</v>
+      </c>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
+      <c r="L256" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N256" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9393,18 +11379,27 @@
         <v>383068.1962</v>
       </c>
       <c r="G257" t="n">
+        <v>14.43333333333333</v>
+      </c>
+      <c r="H257" t="n">
         <v>14.04500000000001</v>
       </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
       <c r="I257" t="n">
         <v>0</v>
       </c>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>0</v>
+      </c>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
+      <c r="L257" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N257" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9428,18 +11423,27 @@
         <v>266864.0481</v>
       </c>
       <c r="G258" t="n">
+        <v>14.48</v>
+      </c>
+      <c r="H258" t="n">
         <v>14.065</v>
       </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
       <c r="I258" t="n">
         <v>0</v>
       </c>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>0</v>
+      </c>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
+      <c r="L258" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N258" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9463,19 +11467,28 @@
         <v>63007.8798</v>
       </c>
       <c r="G259" t="n">
+        <v>14.52666666666666</v>
+      </c>
+      <c r="H259" t="n">
         <v>14.08333333333334</v>
       </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
       <c r="I259" t="n">
         <v>0</v>
       </c>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>1</v>
+      </c>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
+      <c r="L259" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="M259" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N259" t="n">
+        <v>1.132404580152672</v>
       </c>
     </row>
     <row r="260">
@@ -9498,18 +11511,21 @@
         <v>27930.9342</v>
       </c>
       <c r="G260" t="n">
+        <v>14.57333333333333</v>
+      </c>
+      <c r="H260" t="n">
         <v>14.10166666666667</v>
       </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
       <c r="I260" t="n">
         <v>0</v>
       </c>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>1</v>
+      </c>
       <c r="K260" t="inlineStr"/>
       <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
+      <c r="M260" t="inlineStr"/>
+      <c r="N260" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9533,18 +11549,21 @@
         <v>12.0898</v>
       </c>
       <c r="G261" t="n">
+        <v>14.62</v>
+      </c>
+      <c r="H261" t="n">
         <v>14.12</v>
       </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
       <c r="I261" t="n">
         <v>0</v>
       </c>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>1</v>
+      </c>
       <c r="K261" t="inlineStr"/>
       <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
+      <c r="M261" t="inlineStr"/>
+      <c r="N261" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9568,18 +11587,21 @@
         <v>129075.2838</v>
       </c>
       <c r="G262" t="n">
+        <v>14.65333333333333</v>
+      </c>
+      <c r="H262" t="n">
         <v>14.13666666666667</v>
       </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
       <c r="I262" t="n">
         <v>0</v>
       </c>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>1</v>
+      </c>
       <c r="K262" t="inlineStr"/>
       <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
+      <c r="M262" t="inlineStr"/>
+      <c r="N262" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9603,18 +11625,21 @@
         <v>274349.5996</v>
       </c>
       <c r="G263" t="n">
+        <v>14.69333333333333</v>
+      </c>
+      <c r="H263" t="n">
         <v>14.15000000000001</v>
       </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
       <c r="I263" t="n">
         <v>0</v>
       </c>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>1</v>
+      </c>
       <c r="K263" t="inlineStr"/>
       <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
+      <c r="M263" t="inlineStr"/>
+      <c r="N263" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9638,18 +11663,21 @@
         <v>74000</v>
       </c>
       <c r="G264" t="n">
+        <v>14.71333333333333</v>
+      </c>
+      <c r="H264" t="n">
         <v>14.16333333333334</v>
       </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
       <c r="I264" t="n">
         <v>0</v>
       </c>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>1</v>
+      </c>
       <c r="K264" t="inlineStr"/>
       <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
+      <c r="M264" t="inlineStr"/>
+      <c r="N264" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9673,18 +11701,21 @@
         <v>794344.681</v>
       </c>
       <c r="G265" t="n">
+        <v>14.71333333333333</v>
+      </c>
+      <c r="H265" t="n">
         <v>14.17500000000001</v>
       </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
       <c r="I265" t="n">
         <v>0</v>
       </c>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>1</v>
+      </c>
       <c r="K265" t="inlineStr"/>
       <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
+      <c r="M265" t="inlineStr"/>
+      <c r="N265" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9708,18 +11739,21 @@
         <v>480133.1388</v>
       </c>
       <c r="G266" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="H266" t="n">
         <v>14.18500000000001</v>
       </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
       <c r="I266" t="n">
         <v>0</v>
       </c>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>1</v>
+      </c>
       <c r="K266" t="inlineStr"/>
       <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
+      <c r="M266" t="inlineStr"/>
+      <c r="N266" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9743,18 +11777,21 @@
         <v>118762.6116</v>
       </c>
       <c r="G267" t="n">
+        <v>14.73333333333333</v>
+      </c>
+      <c r="H267" t="n">
         <v>14.19666666666667</v>
       </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
       <c r="I267" t="n">
         <v>0</v>
       </c>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>1</v>
+      </c>
       <c r="K267" t="inlineStr"/>
       <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
+      <c r="M267" t="inlineStr"/>
+      <c r="N267" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9778,18 +11815,21 @@
         <v>23002.6712</v>
       </c>
       <c r="G268" t="n">
+        <v>14.74666666666666</v>
+      </c>
+      <c r="H268" t="n">
         <v>14.20500000000001</v>
       </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
       <c r="I268" t="n">
         <v>0</v>
       </c>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>1</v>
+      </c>
       <c r="K268" t="inlineStr"/>
       <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
+      <c r="M268" t="inlineStr"/>
+      <c r="N268" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9813,18 +11853,21 @@
         <v>165611.5109</v>
       </c>
       <c r="G269" t="n">
+        <v>14.73333333333333</v>
+      </c>
+      <c r="H269" t="n">
         <v>14.21333333333334</v>
       </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
       <c r="I269" t="n">
         <v>0</v>
       </c>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>1</v>
+      </c>
       <c r="K269" t="inlineStr"/>
       <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
+      <c r="M269" t="inlineStr"/>
+      <c r="N269" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9848,18 +11891,21 @@
         <v>4746.4899</v>
       </c>
       <c r="G270" t="n">
+        <v>14.72</v>
+      </c>
+      <c r="H270" t="n">
         <v>14.22000000000001</v>
       </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
       <c r="I270" t="n">
         <v>0</v>
       </c>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>1</v>
+      </c>
       <c r="K270" t="inlineStr"/>
       <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
+      <c r="M270" t="inlineStr"/>
+      <c r="N270" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9883,18 +11929,21 @@
         <v>11024.2873</v>
       </c>
       <c r="G271" t="n">
+        <v>14.66666666666666</v>
+      </c>
+      <c r="H271" t="n">
         <v>14.225</v>
       </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
       <c r="I271" t="n">
         <v>0</v>
       </c>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>1</v>
+      </c>
       <c r="K271" t="inlineStr"/>
       <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
+      <c r="M271" t="inlineStr"/>
+      <c r="N271" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9918,18 +11967,21 @@
         <v>94341.6597</v>
       </c>
       <c r="G272" t="n">
+        <v>14.62666666666667</v>
+      </c>
+      <c r="H272" t="n">
         <v>14.23333333333334</v>
       </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
       <c r="I272" t="n">
         <v>0</v>
       </c>
-      <c r="J272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>1</v>
+      </c>
       <c r="K272" t="inlineStr"/>
       <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
+      <c r="M272" t="inlineStr"/>
+      <c r="N272" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9953,18 +12005,21 @@
         <v>4259.931</v>
       </c>
       <c r="G273" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="H273" t="n">
         <v>14.24166666666667</v>
       </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
       <c r="I273" t="n">
         <v>0</v>
       </c>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>1</v>
+      </c>
       <c r="K273" t="inlineStr"/>
       <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
+      <c r="M273" t="inlineStr"/>
+      <c r="N273" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9988,18 +12043,21 @@
         <v>3868.9459</v>
       </c>
       <c r="G274" t="n">
+        <v>14.57333333333333</v>
+      </c>
+      <c r="H274" t="n">
         <v>14.25000000000001</v>
       </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
       <c r="I274" t="n">
         <v>0</v>
       </c>
-      <c r="J274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>1</v>
+      </c>
       <c r="K274" t="inlineStr"/>
       <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
+      <c r="M274" t="inlineStr"/>
+      <c r="N274" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10023,18 +12081,21 @@
         <v>128724.7085</v>
       </c>
       <c r="G275" t="n">
+        <v>14.53333333333333</v>
+      </c>
+      <c r="H275" t="n">
         <v>14.25666666666667</v>
       </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
       <c r="I275" t="n">
         <v>0</v>
       </c>
-      <c r="J275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>1</v>
+      </c>
       <c r="K275" t="inlineStr"/>
       <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
+      <c r="M275" t="inlineStr"/>
+      <c r="N275" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10058,18 +12119,21 @@
         <v>36886.3448</v>
       </c>
       <c r="G276" t="n">
+        <v>14.50666666666666</v>
+      </c>
+      <c r="H276" t="n">
         <v>14.26666666666667</v>
       </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
       <c r="I276" t="n">
         <v>0</v>
       </c>
-      <c r="J276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>0</v>
+      </c>
       <c r="K276" t="inlineStr"/>
       <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
+      <c r="M276" t="inlineStr"/>
+      <c r="N276" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10093,18 +12157,21 @@
         <v>6030</v>
       </c>
       <c r="G277" t="n">
+        <v>14.48666666666667</v>
+      </c>
+      <c r="H277" t="n">
         <v>14.27500000000001</v>
       </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
       <c r="I277" t="n">
         <v>0</v>
       </c>
-      <c r="J277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>1</v>
+      </c>
       <c r="K277" t="inlineStr"/>
       <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
+      <c r="M277" t="inlineStr"/>
+      <c r="N277" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10128,18 +12195,401 @@
         <v>48766.4079</v>
       </c>
       <c r="G278" t="n">
+        <v>14.47333333333333</v>
+      </c>
+      <c r="H278" t="n">
         <v>14.28333333333334</v>
       </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
       <c r="I278" t="n">
         <v>0</v>
       </c>
-      <c r="J278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>1</v>
+      </c>
       <c r="K278" t="inlineStr"/>
       <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
+      <c r="M278" t="inlineStr"/>
+      <c r="N278" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="C279" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="D279" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="E279" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="F279" t="n">
+        <v>178746.7324</v>
+      </c>
+      <c r="G279" t="n">
+        <v>14.46</v>
+      </c>
+      <c r="H279" t="n">
+        <v>14.29</v>
+      </c>
+      <c r="I279" t="n">
+        <v>0</v>
+      </c>
+      <c r="J279" t="n">
+        <v>1</v>
+      </c>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="inlineStr"/>
+      <c r="M279" t="inlineStr"/>
+      <c r="N279" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="C280" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="D280" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="E280" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="F280" t="n">
+        <v>67960.58560000001</v>
+      </c>
+      <c r="G280" t="n">
+        <v>14.46</v>
+      </c>
+      <c r="H280" t="n">
+        <v>14.29833333333334</v>
+      </c>
+      <c r="I280" t="n">
+        <v>0</v>
+      </c>
+      <c r="J280" t="n">
+        <v>1</v>
+      </c>
+      <c r="K280" t="inlineStr"/>
+      <c r="L280" t="inlineStr"/>
+      <c r="M280" t="inlineStr"/>
+      <c r="N280" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="C281" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="D281" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="E281" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="F281" t="n">
+        <v>6038.3084</v>
+      </c>
+      <c r="G281" t="n">
+        <v>14.44666666666667</v>
+      </c>
+      <c r="H281" t="n">
+        <v>14.30666666666667</v>
+      </c>
+      <c r="I281" t="n">
+        <v>0</v>
+      </c>
+      <c r="J281" t="n">
+        <v>1</v>
+      </c>
+      <c r="K281" t="inlineStr"/>
+      <c r="L281" t="inlineStr"/>
+      <c r="M281" t="inlineStr"/>
+      <c r="N281" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="C282" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="D282" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="E282" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="F282" t="n">
+        <v>39535.6622</v>
+      </c>
+      <c r="G282" t="n">
+        <v>14.43333333333334</v>
+      </c>
+      <c r="H282" t="n">
+        <v>14.31666666666667</v>
+      </c>
+      <c r="I282" t="n">
+        <v>0</v>
+      </c>
+      <c r="J282" t="n">
+        <v>1</v>
+      </c>
+      <c r="K282" t="inlineStr"/>
+      <c r="L282" t="inlineStr"/>
+      <c r="M282" t="inlineStr"/>
+      <c r="N282" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="C283" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="D283" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="E283" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="F283" t="n">
+        <v>50998.4878</v>
+      </c>
+      <c r="G283" t="n">
+        <v>14.42666666666667</v>
+      </c>
+      <c r="H283" t="n">
+        <v>14.32666666666667</v>
+      </c>
+      <c r="I283" t="n">
+        <v>0</v>
+      </c>
+      <c r="J283" t="n">
+        <v>0</v>
+      </c>
+      <c r="K283" t="inlineStr"/>
+      <c r="L283" t="inlineStr"/>
+      <c r="M283" t="inlineStr"/>
+      <c r="N283" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="C284" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="D284" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="E284" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="F284" t="n">
+        <v>784.931506849315</v>
+      </c>
+      <c r="G284" t="n">
+        <v>14.44</v>
+      </c>
+      <c r="H284" t="n">
+        <v>14.34000000000001</v>
+      </c>
+      <c r="I284" t="n">
+        <v>0</v>
+      </c>
+      <c r="J284" t="n">
+        <v>0</v>
+      </c>
+      <c r="K284" t="inlineStr"/>
+      <c r="L284" t="inlineStr"/>
+      <c r="M284" t="inlineStr"/>
+      <c r="N284" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="C285" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="D285" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="E285" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="F285" t="n">
+        <v>1369.86301369863</v>
+      </c>
+      <c r="G285" t="n">
+        <v>14.44666666666667</v>
+      </c>
+      <c r="H285" t="n">
+        <v>14.35500000000001</v>
+      </c>
+      <c r="I285" t="n">
+        <v>0</v>
+      </c>
+      <c r="J285" t="n">
+        <v>0</v>
+      </c>
+      <c r="K285" t="inlineStr"/>
+      <c r="L285" t="inlineStr"/>
+      <c r="M285" t="inlineStr"/>
+      <c r="N285" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="C286" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="D286" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="E286" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="F286" t="n">
+        <v>4999.85</v>
+      </c>
+      <c r="G286" t="n">
+        <v>14.45333333333333</v>
+      </c>
+      <c r="H286" t="n">
+        <v>14.36833333333334</v>
+      </c>
+      <c r="I286" t="n">
+        <v>0</v>
+      </c>
+      <c r="J286" t="n">
+        <v>0</v>
+      </c>
+      <c r="K286" t="inlineStr"/>
+      <c r="L286" t="inlineStr"/>
+      <c r="M286" t="inlineStr"/>
+      <c r="N286" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="C287" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="D287" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="E287" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="F287" t="n">
+        <v>13656.83457241379</v>
+      </c>
+      <c r="G287" t="n">
+        <v>14.45333333333333</v>
+      </c>
+      <c r="H287" t="n">
+        <v>14.38166666666667</v>
+      </c>
+      <c r="I287" t="n">
+        <v>0</v>
+      </c>
+      <c r="J287" t="n">
+        <v>0</v>
+      </c>
+      <c r="K287" t="inlineStr"/>
+      <c r="L287" t="inlineStr"/>
+      <c r="M287" t="inlineStr"/>
+      <c r="N287" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="C288" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="D288" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="E288" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="F288" t="n">
+        <v>18114.8893</v>
+      </c>
+      <c r="G288" t="n">
+        <v>14.44666666666667</v>
+      </c>
+      <c r="H288" t="n">
+        <v>14.39000000000001</v>
+      </c>
+      <c r="I288" t="n">
+        <v>0</v>
+      </c>
+      <c r="J288" t="n">
+        <v>0</v>
+      </c>
+      <c r="K288" t="inlineStr"/>
+      <c r="L288" t="inlineStr"/>
+      <c r="M288" t="inlineStr"/>
+      <c r="N288" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-11-01 BackTest RNT.xlsx
+++ b/BackTest/2019-11-01 BackTest RNT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>1133194.0177</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>1145802.3759</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>13.3</v>
@@ -521,7 +521,7 @@
         <v>1145802.3759</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>13.4</v>
@@ -562,7 +562,7 @@
         <v>2588310.1222</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>13.4</v>
@@ -603,19 +603,11 @@
         <v>3478559.8798</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>14</v>
-      </c>
-      <c r="J6" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -647,14 +639,8 @@
         <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -686,14 +672,8 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -725,14 +705,8 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -761,15 +735,15 @@
         <v>3517132.024014085</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>13.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L10" t="n">
@@ -803,9 +777,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>13.3</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -839,12 +811,12 @@
         <v>3873345.039814084</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>13.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>14</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -878,12 +850,12 @@
         <v>3651203.399514084</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>13.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -917,12 +889,12 @@
         <v>3651203.399514084</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>13.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -959,9 +931,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>13.3</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -998,9 +968,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>13.3</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1037,9 +1005,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
-        <v>13.3</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1076,9 +1042,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>13.3</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1115,9 +1079,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>13.3</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1154,9 +1116,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>13.3</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1193,9 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>13.3</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1232,9 +1190,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>13.3</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1271,9 +1227,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>13.3</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1310,9 +1264,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>13.3</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1349,9 +1301,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>13.3</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1388,9 +1338,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>13.3</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1427,9 +1375,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>13.3</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1466,9 +1412,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>13.3</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1505,9 +1449,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>13.3</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1544,9 +1486,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>13.3</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1583,9 +1523,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>13.3</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1622,9 +1560,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>13.3</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1661,9 +1597,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>13.3</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1700,9 +1634,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>13.3</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1739,9 +1671,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>13.3</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1778,9 +1708,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>13.3</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1817,9 +1745,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>13.3</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1856,9 +1782,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>13.3</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1895,9 +1819,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>13.3</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1934,9 +1856,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>13.3</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1973,9 +1893,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>13.3</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2009,20 +1927,16 @@
         <v>2901906.554214085</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>13.3</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
@@ -2051,14 +1965,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2090,14 +1998,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2126,17 +2028,11 @@
         <v>2899152.694214085</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2168,14 +2064,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2204,17 +2094,11 @@
         <v>2847813.557014084</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2243,17 +2127,11 @@
         <v>2812732.997414085</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2282,17 +2160,11 @@
         <v>2215288.343514085</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2321,17 +2193,11 @@
         <v>2226854.343514085</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2360,17 +2226,11 @@
         <v>2226854.343514085</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2399,17 +2259,11 @@
         <v>2026762.969414085</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2438,17 +2292,11 @@
         <v>2026772.969414085</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2477,17 +2325,11 @@
         <v>2025034.573314085</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2519,14 +2361,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2558,14 +2394,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2597,14 +2427,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2636,14 +2460,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2675,14 +2493,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2711,17 +2523,11 @@
         <v>2041984.070614085</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2753,14 +2559,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2792,14 +2592,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2831,14 +2625,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2870,14 +2658,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2909,14 +2691,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2948,14 +2724,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2987,14 +2757,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3026,14 +2790,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3065,14 +2823,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3104,14 +2856,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3143,14 +2889,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3182,14 +2922,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3221,14 +2955,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3260,14 +2988,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3299,14 +3021,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3338,14 +3054,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3377,14 +3087,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3416,14 +3120,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3455,14 +3153,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3494,14 +3186,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3533,14 +3219,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3572,14 +3252,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3611,14 +3285,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3650,14 +3318,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3689,14 +3351,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3728,14 +3384,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3767,14 +3417,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3806,14 +3450,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3845,14 +3483,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3884,14 +3516,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3923,14 +3549,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3962,14 +3582,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4001,14 +3615,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4040,14 +3648,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4079,14 +3681,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4118,14 +3714,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4154,19 +3744,11 @@
         <v>1744229.665614085</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
-      </c>
-      <c r="I97" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="J97" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4198,14 +3780,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4234,19 +3810,11 @@
         <v>1744229.665614085</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
-      </c>
-      <c r="I99" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="J99" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4278,14 +3846,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4317,14 +3879,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4356,14 +3912,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4395,14 +3945,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4434,14 +3978,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4473,14 +4011,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4512,14 +4044,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4551,14 +4077,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4590,14 +4110,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4626,19 +4140,15 @@
         <v>1550602.620038327</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>13.1</v>
       </c>
       <c r="J109" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>13.1</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4667,15 +4177,17 @@
         <v>1506450.186238327</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>13.2</v>
+      </c>
       <c r="J110" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L110" t="n">
@@ -4706,15 +4218,17 @@
         <v>1509597.976238327</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>13.1</v>
+      </c>
       <c r="J111" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L111" t="n">
@@ -4748,14 +4262,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4784,17 +4292,15 @@
         <v>1509587.976238327</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>13.1</v>
+      </c>
       <c r="J113" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>13.1</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4823,15 +4329,17 @@
         <v>1509587.976238327</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>13.1</v>
+      </c>
       <c r="J114" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L114" t="n">
@@ -4862,17 +4370,17 @@
         <v>1509587.976238327</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>13.1</v>
       </c>
       <c r="J115" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L115" t="n">
@@ -4903,19 +4411,15 @@
         <v>1509587.976238327</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>13.1</v>
       </c>
       <c r="J116" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>13.1</v>
+      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4944,17 +4448,17 @@
         <v>1337292.260938327</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>13.1</v>
       </c>
       <c r="J117" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L117" t="n">
@@ -4985,17 +4489,17 @@
         <v>1351728.343538327</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>13</v>
       </c>
       <c r="J118" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L118" t="n">
@@ -5026,13 +4530,13 @@
         <v>1351728.343538327</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>13.2</v>
       </c>
       <c r="J119" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -5067,13 +4571,13 @@
         <v>1351738.343538327</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>13.2</v>
       </c>
       <c r="J120" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -5108,13 +4612,13 @@
         <v>1280141.137338327</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>13.3</v>
       </c>
       <c r="J121" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -5149,13 +4653,13 @@
         <v>1280151.137338327</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>13.2</v>
       </c>
       <c r="J122" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -5190,11 +4694,13 @@
         <v>1270774.032838327</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>13.3</v>
+      </c>
       <c r="J123" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -5229,11 +4735,13 @@
         <v>1185379.842238327</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>13.2</v>
+      </c>
       <c r="J124" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -5268,13 +4776,13 @@
         <v>1185379.842238327</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>13.1</v>
       </c>
       <c r="J125" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -5309,11 +4817,13 @@
         <v>1186609.842238327</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>13.1</v>
+      </c>
       <c r="J126" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -5348,11 +4858,13 @@
         <v>1186609.842238327</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>13.2</v>
+      </c>
       <c r="J127" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -5387,11 +4899,13 @@
         <v>1186619.842238327</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>13.2</v>
+      </c>
       <c r="J128" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -5426,11 +4940,13 @@
         <v>1186619.842238327</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>13.3</v>
+      </c>
       <c r="J129" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5465,11 +4981,13 @@
         <v>1186619.842238327</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>13.3</v>
+      </c>
       <c r="J130" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5504,11 +5022,13 @@
         <v>1207216.642938327</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>13.3</v>
+      </c>
       <c r="J131" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5543,11 +5063,13 @@
         <v>1733760.760538327</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>13.4</v>
+      </c>
       <c r="J132" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5586,7 +5108,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5621,13 +5143,11 @@
         <v>1746445.474838327</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
-      </c>
-      <c r="I134" t="n">
-        <v>13.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5662,13 +5182,11 @@
         <v>1746445.474838327</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
-      </c>
-      <c r="I135" t="n">
-        <v>13.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5703,13 +5221,11 @@
         <v>1746420.906838327</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
-      </c>
-      <c r="I136" t="n">
-        <v>13.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5748,7 +5264,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5783,13 +5299,11 @@
         <v>1723355.920438327</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
-      </c>
-      <c r="I138" t="n">
-        <v>13.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5824,13 +5338,11 @@
         <v>1723355.920438327</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
-      </c>
-      <c r="I139" t="n">
-        <v>13.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5869,7 +5381,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5908,7 +5420,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5947,7 +5459,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5986,7 +5498,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -6025,7 +5537,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -6064,7 +5576,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -6103,7 +5615,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -6142,7 +5654,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -6181,7 +5693,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -6220,7 +5732,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -6259,7 +5771,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -6298,7 +5810,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -6337,7 +5849,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -6376,7 +5888,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -6415,7 +5927,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -6454,7 +5966,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -6489,11 +6001,13 @@
         <v>1634251.709838327</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>13.7</v>
+      </c>
       <c r="J156" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -6528,11 +6042,13 @@
         <v>1553036.235438327</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>13.7</v>
+      </c>
       <c r="J157" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -6567,11 +6083,13 @@
         <v>1609306.336738327</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>13.6</v>
+      </c>
       <c r="J158" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -6610,7 +6128,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -6645,11 +6163,13 @@
         <v>1651592.004038327</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>13.7</v>
+      </c>
       <c r="J160" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6684,11 +6204,13 @@
         <v>1651592.004038327</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>13.8</v>
+      </c>
       <c r="J161" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6727,7 +6249,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6766,7 +6288,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6805,7 +6327,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6844,7 +6366,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6879,11 +6401,13 @@
         <v>1671542.366338327</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>13.8</v>
+      </c>
       <c r="J166" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6918,11 +6442,13 @@
         <v>1671542.366338327</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>13.8</v>
+      </c>
       <c r="J167" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6957,11 +6483,13 @@
         <v>1671542.366338327</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>13.8</v>
+      </c>
       <c r="J168" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6996,11 +6524,13 @@
         <v>1875603.236493862</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>13.8</v>
+      </c>
       <c r="J169" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -7035,11 +6565,13 @@
         <v>2220822.540346125</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>14.1</v>
+      </c>
       <c r="J170" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -7074,11 +6606,13 @@
         <v>2220822.540346125</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>14.2</v>
+      </c>
       <c r="J171" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -7117,7 +6651,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -7156,7 +6690,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -7195,7 +6729,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -7234,7 +6768,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -7273,7 +6807,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -7312,7 +6846,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -7347,11 +6881,11 @@
         <v>2353809.819706688</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -7390,7 +6924,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -7429,7 +6963,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -7468,7 +7002,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -7507,7 +7041,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -7546,7 +7080,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -7585,7 +7119,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -7624,7 +7158,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -7663,7 +7197,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -7702,7 +7236,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -7741,7 +7275,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -7780,7 +7314,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -7819,7 +7353,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -7858,7 +7392,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -7897,7 +7431,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -7936,7 +7470,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -7975,7 +7509,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -8014,7 +7548,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -8053,7 +7587,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -8092,7 +7626,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -8131,7 +7665,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -8170,7 +7704,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -8209,7 +7743,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -8248,7 +7782,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -8287,7 +7821,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -8326,7 +7860,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -8365,7 +7899,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -8404,7 +7938,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -8443,7 +7977,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -8482,7 +8016,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -8521,7 +8055,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -8560,7 +8094,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -8599,7 +8133,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -8638,7 +8172,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -8677,7 +8211,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -8716,7 +8250,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -8755,7 +8289,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -8794,7 +8328,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -8833,7 +8367,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -8872,7 +8406,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
@@ -8911,7 +8445,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -8950,7 +8484,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -8989,7 +8523,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -9028,7 +8562,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -9067,7 +8601,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -9106,7 +8640,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -9145,7 +8679,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
@@ -9184,7 +8718,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
@@ -9223,7 +8757,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -9262,7 +8796,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -9301,7 +8835,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -9340,7 +8874,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -9379,7 +8913,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -9418,7 +8952,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -9457,7 +8991,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -9496,7 +9030,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -9535,7 +9069,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
@@ -9574,7 +9108,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -9613,7 +9147,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -9652,7 +9186,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
@@ -9691,7 +9225,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -9730,7 +9264,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
@@ -9769,7 +9303,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
@@ -9808,7 +9342,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
@@ -9847,7 +9381,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -9886,7 +9420,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
@@ -9925,7 +9459,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
@@ -9964,7 +9498,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
@@ -10003,7 +9537,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
@@ -10042,7 +9576,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -10081,7 +9615,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
@@ -10120,7 +9654,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
@@ -10159,7 +9693,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
@@ -10198,7 +9732,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
@@ -10237,7 +9771,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
@@ -10276,7 +9810,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K253" t="inlineStr">
         <is>
@@ -10315,7 +9849,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
@@ -10354,7 +9888,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
@@ -10393,7 +9927,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
@@ -10432,7 +9966,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
@@ -10471,7 +10005,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
@@ -10510,7 +10044,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
@@ -10549,7 +10083,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
@@ -10588,7 +10122,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K261" t="inlineStr">
         <is>
@@ -10627,7 +10161,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K262" t="inlineStr">
         <is>
@@ -10666,7 +10200,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
@@ -10705,7 +10239,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
@@ -10744,7 +10278,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
@@ -10783,7 +10317,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
@@ -10822,7 +10356,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K267" t="inlineStr">
         <is>
@@ -10861,7 +10395,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
@@ -10900,7 +10434,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
@@ -10939,7 +10473,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K270" t="inlineStr">
         <is>
@@ -10978,7 +10512,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
@@ -11017,7 +10551,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -11056,7 +10590,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
@@ -11095,7 +10629,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -11134,7 +10668,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
@@ -11173,7 +10707,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
@@ -11212,7 +10746,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -11251,7 +10785,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
@@ -11290,7 +10824,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
@@ -11329,7 +10863,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -11368,7 +10902,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
@@ -11407,7 +10941,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
@@ -11446,7 +10980,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
@@ -11485,7 +11019,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
@@ -11524,7 +11058,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
@@ -11563,7 +11097,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
@@ -11602,7 +11136,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
@@ -11641,7 +11175,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
@@ -11680,7 +11214,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
@@ -11719,7 +11253,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
@@ -11758,7 +11292,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
@@ -11797,7 +11331,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
@@ -11836,7 +11370,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
@@ -11875,7 +11409,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
@@ -11914,7 +11448,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -11953,7 +11487,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -11992,7 +11526,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
@@ -12031,7 +11565,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -12070,7 +11604,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
@@ -12109,7 +11643,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
@@ -12148,7 +11682,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
@@ -12187,7 +11721,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
@@ -12226,7 +11760,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K303" t="inlineStr">
         <is>
@@ -12265,7 +11799,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
@@ -12304,7 +11838,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
@@ -12343,7 +11877,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K306" t="inlineStr">
         <is>
@@ -12382,7 +11916,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
@@ -12421,7 +11955,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
@@ -12460,7 +11994,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
@@ -12499,7 +12033,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
@@ -12534,23 +12068,21 @@
         <v>2534008.878715259</v>
       </c>
       <c r="H311" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="n">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L311" t="n">
-        <v>1.077706766917293</v>
-      </c>
-      <c r="M311" t="n">
-        <v>1.052631578947368</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -12575,11 +12107,17 @@
         <v>2654059.878715259</v>
       </c>
       <c r="H312" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12608,11 +12146,17 @@
         <v>2991379.348615259</v>
       </c>
       <c r="H313" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12641,11 +12185,17 @@
         <v>3634008.993478417</v>
       </c>
       <c r="H314" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12674,11 +12224,17 @@
         <v>3250940.797278417</v>
       </c>
       <c r="H315" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12707,15 +12263,23 @@
         <v>2984076.749178417</v>
       </c>
       <c r="H316" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L316" t="n">
-        <v>1</v>
-      </c>
-      <c r="M316" t="inlineStr"/>
+        <v>1.132404580152672</v>
+      </c>
+      <c r="M316" t="n">
+        <v>1.130769230769231</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -12740,7 +12304,7 @@
         <v>2984076.749178417</v>
       </c>
       <c r="H317" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -12773,7 +12337,7 @@
         <v>2984076.749178417</v>
       </c>
       <c r="H318" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -12905,7 +12469,7 @@
         <v>2580651.865778417</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -12938,7 +12502,7 @@
         <v>1786307.184778417</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -12971,7 +12535,7 @@
         <v>2266440.323578417</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -13004,7 +12568,7 @@
         <v>2385202.935178417</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -13037,7 +12601,7 @@
         <v>2385202.935178417</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -13070,7 +12634,7 @@
         <v>2219591.424278417</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -13103,7 +12667,7 @@
         <v>2224337.914178417</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -13136,7 +12700,7 @@
         <v>2213313.626878417</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -13169,7 +12733,7 @@
         <v>2307655.286578417</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -13202,7 +12766,7 @@
         <v>2307655.286578417</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -13235,7 +12799,7 @@
         <v>2307655.286578417</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -13268,7 +12832,7 @@
         <v>2178930.578078417</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -13301,7 +12865,7 @@
         <v>2215816.922878417</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -13334,7 +12898,7 @@
         <v>2209786.922878417</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -13367,7 +12931,7 @@
         <v>2209786.922878417</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -13400,7 +12964,7 @@
         <v>2209786.922878417</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -13433,7 +12997,7 @@
         <v>2209786.922878417</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -13466,7 +13030,7 @@
         <v>2203748.614478417</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -13499,7 +13063,7 @@
         <v>2243284.276678417</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -13532,7 +13096,7 @@
         <v>2294282.764478417</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -13565,7 +13129,7 @@
         <v>2295067.695985266</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -13598,7 +13162,7 @@
         <v>2295067.695985266</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -13631,7 +13195,7 @@
         <v>2290067.845985266</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -13664,7 +13228,7 @@
         <v>2290067.845985266</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -13697,7 +13261,7 @@
         <v>2271952.956685266</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -13708,6 +13272,6 @@
       <c r="M346" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-01 BackTest RNT.xlsx
+++ b/BackTest/2019-11-01 BackTest RNT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -735,17 +735,11 @@
         <v>3517132.024014085</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>14.2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -774,15 +768,11 @@
         <v>3476073.920514084</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -811,17 +801,11 @@
         <v>3873345.039814084</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -850,17 +834,11 @@
         <v>3651203.399514084</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>14.5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -889,17 +867,11 @@
         <v>3651203.399514084</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>14.3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -928,15 +900,11 @@
         <v>3651203.399514084</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -965,15 +933,11 @@
         <v>3603781.807414084</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1002,15 +966,11 @@
         <v>3603781.807414084</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1039,15 +999,11 @@
         <v>3454204.021314084</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1076,15 +1032,11 @@
         <v>3549335.940614084</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1113,15 +1065,11 @@
         <v>3549335.940614084</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1154,11 +1102,7 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1191,11 +1135,7 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1228,11 +1168,7 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1265,11 +1201,7 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1302,11 +1234,7 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1339,11 +1267,7 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1372,15 +1296,11 @@
         <v>3190326.088814084</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1409,15 +1329,11 @@
         <v>3067208.746014084</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1446,15 +1362,11 @@
         <v>3067208.746014084</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1483,15 +1395,11 @@
         <v>3072278.746014084</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1520,15 +1428,11 @@
         <v>3072278.746014084</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1557,15 +1461,11 @@
         <v>3072278.746014084</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1594,15 +1494,11 @@
         <v>2954832.850514084</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1631,15 +1527,11 @@
         <v>2887774.990514084</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1668,15 +1560,11 @@
         <v>2921717.185114084</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1705,15 +1593,11 @@
         <v>2921717.185114084</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1742,15 +1626,11 @@
         <v>2916045.436114084</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1779,15 +1659,11 @@
         <v>2916045.436114084</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1816,15 +1692,11 @@
         <v>2924000.764414085</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1853,15 +1725,11 @@
         <v>2891389.977714085</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1890,15 +1758,11 @@
         <v>2901906.554214085</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1927,16 +1791,14 @@
         <v>2901906.554214085</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
       <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
@@ -2028,7 +1890,7 @@
         <v>2899152.694214085</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -2094,7 +1956,7 @@
         <v>2847813.557014084</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2127,7 +1989,7 @@
         <v>2812732.997414085</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2160,7 +2022,7 @@
         <v>2215288.343514085</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2193,7 +2055,7 @@
         <v>2226854.343514085</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2226,7 +2088,7 @@
         <v>2226854.343514085</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2259,7 +2121,7 @@
         <v>2026762.969414085</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2292,7 +2154,7 @@
         <v>2026772.969414085</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2325,7 +2187,7 @@
         <v>2025034.573314085</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2523,7 +2385,7 @@
         <v>2041984.070614085</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -4140,14 +4002,10 @@
         <v>1550602.620038327</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="J109" t="n">
-        <v>13.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
@@ -4177,19 +4035,11 @@
         <v>1506450.186238327</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="J110" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4218,19 +4068,11 @@
         <v>1509597.976238327</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="J111" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4292,14 +4134,10 @@
         <v>1509587.976238327</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="J113" t="n">
-        <v>13.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
@@ -4329,19 +4167,11 @@
         <v>1509587.976238327</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="J114" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4370,19 +4200,11 @@
         <v>1509587.976238327</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="J115" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4411,14 +4233,10 @@
         <v>1509587.976238327</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="J116" t="n">
-        <v>13.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
@@ -4448,19 +4266,11 @@
         <v>1337292.260938327</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="J117" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4489,19 +4299,11 @@
         <v>1351728.343538327</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>13</v>
-      </c>
-      <c r="J118" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4530,19 +4332,11 @@
         <v>1351728.343538327</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="J119" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4571,19 +4365,11 @@
         <v>1351738.343538327</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="J120" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4612,19 +4398,11 @@
         <v>1280141.137338327</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="J121" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4653,19 +4431,11 @@
         <v>1280151.137338327</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="J122" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4694,19 +4464,11 @@
         <v>1270774.032838327</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="J123" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4735,19 +4497,11 @@
         <v>1185379.842238327</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="J124" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4776,19 +4530,11 @@
         <v>1185379.842238327</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="J125" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4817,19 +4563,11 @@
         <v>1186609.842238327</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="J126" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4858,19 +4596,11 @@
         <v>1186609.842238327</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="J127" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4899,19 +4629,11 @@
         <v>1186619.842238327</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="J128" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4940,19 +4662,11 @@
         <v>1186619.842238327</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="J129" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4981,19 +4695,11 @@
         <v>1186619.842238327</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="J130" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5022,19 +4728,11 @@
         <v>1207216.642938327</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="J131" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5063,19 +4761,11 @@
         <v>1733760.760538327</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="J132" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5107,14 +4797,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5146,14 +4830,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5185,14 +4863,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5224,14 +4896,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5263,14 +4929,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5302,14 +4962,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5341,14 +4995,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5380,14 +5028,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5419,14 +5061,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5458,14 +5094,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5497,14 +5127,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5536,14 +5160,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5575,14 +5193,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5614,14 +5226,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5653,14 +5259,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5692,14 +5292,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5731,14 +5325,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5770,14 +5358,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5809,14 +5391,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5848,14 +5424,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5887,14 +5457,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5926,14 +5490,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5965,14 +5523,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6001,19 +5553,11 @@
         <v>1634251.709838327</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="J156" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6042,19 +5586,11 @@
         <v>1553036.235438327</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="J157" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6083,19 +5619,11 @@
         <v>1609306.336738327</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="J158" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6127,14 +5655,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6163,19 +5685,11 @@
         <v>1651592.004038327</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="J160" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6204,19 +5718,11 @@
         <v>1651592.004038327</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="J161" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6248,14 +5754,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6287,14 +5787,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6326,14 +5820,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6365,14 +5853,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6401,19 +5883,11 @@
         <v>1671542.366338327</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="J166" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6442,19 +5916,11 @@
         <v>1671542.366338327</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="J167" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6483,19 +5949,11 @@
         <v>1671542.366338327</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="J168" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6524,19 +5982,11 @@
         <v>1875603.236493862</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="J169" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6565,19 +6015,11 @@
         <v>2220822.540346125</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="J170" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6606,19 +6048,11 @@
         <v>2220822.540346125</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="J171" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6650,14 +6084,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6689,14 +6117,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6728,14 +6150,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6767,14 +6183,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6806,14 +6216,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6845,14 +6249,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6884,14 +6282,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6923,14 +6315,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6962,14 +6348,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7001,14 +6381,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7040,14 +6414,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7079,14 +6447,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7118,14 +6480,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7157,14 +6513,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7196,14 +6546,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7235,14 +6579,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7274,14 +6612,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7313,14 +6645,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7352,14 +6678,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7391,14 +6711,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7430,14 +6744,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7469,14 +6777,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7508,14 +6810,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7547,14 +6843,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7586,14 +6876,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7625,14 +6909,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7664,14 +6942,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7703,14 +6975,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7742,14 +7008,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7781,14 +7041,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7820,14 +7074,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7859,14 +7107,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7898,14 +7140,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7937,14 +7173,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7976,14 +7206,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8015,14 +7239,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8054,14 +7272,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8093,14 +7305,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8132,14 +7338,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8171,14 +7371,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8210,14 +7404,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8249,14 +7437,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8288,14 +7470,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8327,14 +7503,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8366,14 +7536,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8405,14 +7569,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8444,14 +7602,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8483,14 +7635,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8522,14 +7668,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8561,14 +7701,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8600,14 +7734,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8639,14 +7767,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8678,14 +7800,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8717,14 +7833,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8756,14 +7866,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8795,14 +7899,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8834,14 +7932,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8873,14 +7965,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8912,14 +7998,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8951,14 +8031,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8990,14 +8064,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9029,14 +8097,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9068,14 +8130,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9107,14 +8163,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9146,14 +8196,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9185,14 +8229,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9224,14 +8262,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9263,14 +8295,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9302,14 +8328,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9341,14 +8361,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9380,14 +8394,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9419,14 +8427,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9458,14 +8460,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9497,14 +8493,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9536,14 +8526,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9575,14 +8559,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9614,14 +8592,8 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9653,14 +8625,8 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9692,14 +8658,8 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9731,14 +8691,8 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9770,14 +8724,8 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9809,14 +8757,8 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9848,14 +8790,8 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9887,14 +8823,8 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9926,14 +8856,8 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9965,14 +8889,8 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10004,14 +8922,8 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10043,14 +8955,8 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10082,14 +8988,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10121,14 +9021,8 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10160,14 +9054,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10199,14 +9087,8 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10238,14 +9120,8 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10277,14 +9153,8 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10316,14 +9186,8 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10355,14 +9219,8 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10394,14 +9252,8 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10433,14 +9285,8 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10472,14 +9318,8 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10511,14 +9351,8 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10550,14 +9384,8 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10589,14 +9417,8 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10628,14 +9450,8 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10667,14 +9483,8 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10706,14 +9516,8 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10745,14 +9549,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10784,14 +9582,8 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10823,14 +9615,8 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10862,14 +9648,8 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10901,14 +9681,8 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10940,14 +9714,8 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10979,14 +9747,8 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11018,14 +9780,8 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11057,14 +9813,8 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11096,14 +9846,8 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11135,14 +9879,8 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11174,14 +9912,8 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11213,14 +9945,8 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11252,14 +9978,8 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11291,14 +10011,8 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11330,14 +10044,8 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11369,14 +10077,8 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11408,14 +10110,8 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11447,14 +10143,8 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11486,14 +10176,8 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11525,14 +10209,8 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11564,14 +10242,8 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11603,14 +10275,8 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11642,14 +10308,8 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11681,14 +10341,8 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11720,14 +10374,8 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11759,14 +10407,8 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11798,14 +10440,8 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11837,14 +10473,8 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11876,14 +10506,8 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11915,14 +10539,8 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11954,14 +10572,8 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11993,14 +10605,8 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -12032,14 +10638,8 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -12071,14 +10671,8 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -12110,14 +10704,8 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12149,14 +10737,8 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12188,14 +10770,8 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12227,14 +10803,8 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12263,23 +10833,15 @@
         <v>2984076.749178417</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>13.1</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
-        <v>1.132404580152672</v>
-      </c>
-      <c r="M316" t="n">
-        <v>1.130769230769231</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -12337,7 +10899,7 @@
         <v>2984076.749178417</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -12469,7 +11031,7 @@
         <v>2580651.865778417</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -12502,7 +11064,7 @@
         <v>1786307.184778417</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -12535,7 +11097,7 @@
         <v>2266440.323578417</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -12568,7 +11130,7 @@
         <v>2385202.935178417</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -12601,7 +11163,7 @@
         <v>2385202.935178417</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -12634,7 +11196,7 @@
         <v>2219591.424278417</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -12667,7 +11229,7 @@
         <v>2224337.914178417</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -12700,7 +11262,7 @@
         <v>2213313.626878417</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -12733,7 +11295,7 @@
         <v>2307655.286578417</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -12766,7 +11328,7 @@
         <v>2307655.286578417</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -12799,7 +11361,7 @@
         <v>2307655.286578417</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -12832,7 +11394,7 @@
         <v>2178930.578078417</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -12865,7 +11427,7 @@
         <v>2215816.922878417</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -12898,7 +11460,7 @@
         <v>2209786.922878417</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -12931,7 +11493,7 @@
         <v>2209786.922878417</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -12964,7 +11526,7 @@
         <v>2209786.922878417</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -12997,7 +11559,7 @@
         <v>2209786.922878417</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -13030,7 +11592,7 @@
         <v>2203748.614478417</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -13063,7 +11625,7 @@
         <v>2243284.276678417</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -13096,7 +11658,7 @@
         <v>2294282.764478417</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -13129,7 +11691,7 @@
         <v>2295067.695985266</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -13162,7 +11724,7 @@
         <v>2295067.695985266</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -13195,7 +11757,7 @@
         <v>2290067.845985266</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -13228,7 +11790,7 @@
         <v>2290067.845985266</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -13261,7 +11823,7 @@
         <v>2271952.956685266</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -13272,6 +11834,6 @@
       <c r="M346" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-11-01 BackTest RNT.xlsx
+++ b/BackTest/2019-11-01 BackTest RNT.xlsx
@@ -735,7 +735,7 @@
         <v>3517132.024014085</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -768,7 +768,7 @@
         <v>3476073.920514084</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -834,7 +834,7 @@
         <v>3651203.399514084</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -867,7 +867,7 @@
         <v>3651203.399514084</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -900,7 +900,7 @@
         <v>3651203.399514084</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -933,7 +933,7 @@
         <v>3603781.807414084</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -966,7 +966,7 @@
         <v>3603781.807414084</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -999,7 +999,7 @@
         <v>3454204.021314084</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1032,7 +1032,7 @@
         <v>3549335.940614084</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1065,7 +1065,7 @@
         <v>3549335.940614084</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1296,7 +1296,7 @@
         <v>3190326.088814084</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1329,7 +1329,7 @@
         <v>3067208.746014084</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1362,7 +1362,7 @@
         <v>3067208.746014084</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1395,7 +1395,7 @@
         <v>3072278.746014084</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1428,7 +1428,7 @@
         <v>3072278.746014084</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1461,7 +1461,7 @@
         <v>3072278.746014084</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1494,7 +1494,7 @@
         <v>2954832.850514084</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1527,7 +1527,7 @@
         <v>2887774.990514084</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1560,7 +1560,7 @@
         <v>2921717.185114084</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1593,7 +1593,7 @@
         <v>2921717.185114084</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1626,7 +1626,7 @@
         <v>2916045.436114084</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1659,7 +1659,7 @@
         <v>2916045.436114084</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1692,7 +1692,7 @@
         <v>2924000.764414085</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1725,7 +1725,7 @@
         <v>2891389.977714085</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1758,7 +1758,7 @@
         <v>2901906.554214085</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -10800,7 +10800,7 @@
         <v>3250940.797278417</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10833,7 +10833,7 @@
         <v>2984076.749178417</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10866,7 +10866,7 @@
         <v>2984076.749178417</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10899,7 +10899,7 @@
         <v>2984076.749178417</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10932,7 +10932,7 @@
         <v>2984076.749178417</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10965,7 +10965,7 @@
         <v>2855001.465378417</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10998,7 +10998,7 @@
         <v>2580651.865778417</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11031,7 +11031,7 @@
         <v>2580651.865778417</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11064,7 +11064,7 @@
         <v>1786307.184778417</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11097,7 +11097,7 @@
         <v>2266440.323578417</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11163,7 +11163,7 @@
         <v>2385202.935178417</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11559,7 +11559,7 @@
         <v>2209786.922878417</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11757,7 +11757,7 @@
         <v>2290067.845985266</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11823,7 +11823,7 @@
         <v>2271952.956685266</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>

--- a/BackTest/2019-11-01 BackTest RNT.xlsx
+++ b/BackTest/2019-11-01 BackTest RNT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M346"/>
+  <dimension ref="A1:L346"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>29687.3302</v>
       </c>
       <c r="G2" t="n">
-        <v>1133194.0177</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,22 +473,19 @@
         <v>12608.3582</v>
       </c>
       <c r="G3" t="n">
-        <v>1145802.3759</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>13.3</v>
       </c>
       <c r="I3" t="n">
         <v>13.3</v>
       </c>
-      <c r="J3" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,26 +507,23 @@
         <v>157554.4029</v>
       </c>
       <c r="G4" t="n">
-        <v>1145802.3759</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>13.4</v>
       </c>
       <c r="I4" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="J4" t="n">
         <v>13.3</v>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,26 +545,23 @@
         <v>1442507.7463</v>
       </c>
       <c r="G5" t="n">
-        <v>2588310.1222</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>13.4</v>
       </c>
       <c r="I5" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="J5" t="n">
         <v>13.3</v>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +583,23 @@
         <v>890249.7576</v>
       </c>
       <c r="G6" t="n">
-        <v>3478559.8798</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+        <v>14</v>
+      </c>
+      <c r="I6" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -633,18 +621,21 @@
         <v>181118.8155</v>
       </c>
       <c r="G7" t="n">
-        <v>3297441.0643</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -666,18 +657,21 @@
         <v>21448.7907</v>
       </c>
       <c r="G8" t="n">
-        <v>3318889.855</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -699,18 +693,21 @@
         <v>3528.169014084507</v>
       </c>
       <c r="G9" t="n">
-        <v>3322418.024014085</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -732,18 +729,21 @@
         <v>194714</v>
       </c>
       <c r="G10" t="n">
-        <v>3517132.024014085</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -765,18 +765,21 @@
         <v>41058.1035</v>
       </c>
       <c r="G11" t="n">
-        <v>3476073.920514084</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -798,18 +801,21 @@
         <v>397271.1193</v>
       </c>
       <c r="G12" t="n">
-        <v>3873345.039814084</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -831,18 +837,21 @@
         <v>222141.6403</v>
       </c>
       <c r="G13" t="n">
-        <v>3651203.399514084</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -864,18 +873,21 @@
         <v>740.2182</v>
       </c>
       <c r="G14" t="n">
-        <v>3651203.399514084</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -897,18 +909,21 @@
         <v>5028.6722</v>
       </c>
       <c r="G15" t="n">
-        <v>3651203.399514084</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -930,18 +945,21 @@
         <v>47421.5921</v>
       </c>
       <c r="G16" t="n">
-        <v>3603781.807414084</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -963,18 +981,23 @@
         <v>106635.8098</v>
       </c>
       <c r="G17" t="n">
-        <v>3603781.807414084</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1.062669172932331</v>
+      </c>
       <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>1.052631578947368</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -996,18 +1019,15 @@
         <v>149577.7861</v>
       </c>
       <c r="G18" t="n">
-        <v>3454204.021314084</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1029,18 +1049,15 @@
         <v>95131.91929999999</v>
       </c>
       <c r="G19" t="n">
-        <v>3549335.940614084</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1062,18 +1079,15 @@
         <v>196532.101</v>
       </c>
       <c r="G20" t="n">
-        <v>3549335.940614084</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1095,18 +1109,15 @@
         <v>3082.0211</v>
       </c>
       <c r="G21" t="n">
-        <v>3552417.961714084</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1128,18 +1139,15 @@
         <v>13598.582</v>
       </c>
       <c r="G22" t="n">
-        <v>3538819.379714084</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1161,18 +1169,15 @@
         <v>2707.0534</v>
       </c>
       <c r="G23" t="n">
-        <v>3541526.433114084</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1194,18 +1199,15 @@
         <v>409467.0299</v>
       </c>
       <c r="G24" t="n">
-        <v>3132059.403214084</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1227,18 +1229,15 @@
         <v>26701.377</v>
       </c>
       <c r="G25" t="n">
-        <v>3105358.026214085</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1260,18 +1259,15 @@
         <v>586.5714</v>
       </c>
       <c r="G26" t="n">
-        <v>3105944.597614084</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1293,18 +1289,15 @@
         <v>84381.4912</v>
       </c>
       <c r="G27" t="n">
-        <v>3190326.088814084</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1326,18 +1319,15 @@
         <v>123117.3428</v>
       </c>
       <c r="G28" t="n">
-        <v>3067208.746014084</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1359,18 +1349,15 @@
         <v>19859.9924</v>
       </c>
       <c r="G29" t="n">
-        <v>3067208.746014084</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1392,18 +1379,15 @@
         <v>5070</v>
       </c>
       <c r="G30" t="n">
-        <v>3072278.746014084</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1425,18 +1409,15 @@
         <v>21117.0575</v>
       </c>
       <c r="G31" t="n">
-        <v>3072278.746014084</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1458,18 +1439,15 @@
         <v>79150.1102</v>
       </c>
       <c r="G32" t="n">
-        <v>3072278.746014084</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1491,18 +1469,15 @@
         <v>117445.8955</v>
       </c>
       <c r="G33" t="n">
-        <v>2954832.850514084</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1524,18 +1499,15 @@
         <v>67057.86</v>
       </c>
       <c r="G34" t="n">
-        <v>2887774.990514084</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1557,18 +1529,15 @@
         <v>33942.1946</v>
       </c>
       <c r="G35" t="n">
-        <v>2921717.185114084</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1590,18 +1559,15 @@
         <v>48533.5915</v>
       </c>
       <c r="G36" t="n">
-        <v>2921717.185114084</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1623,18 +1589,15 @@
         <v>5671.749</v>
       </c>
       <c r="G37" t="n">
-        <v>2916045.436114084</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1656,18 +1619,15 @@
         <v>29461.0215</v>
       </c>
       <c r="G38" t="n">
-        <v>2916045.436114084</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1689,18 +1649,15 @@
         <v>7955.3283</v>
       </c>
       <c r="G39" t="n">
-        <v>2924000.764414085</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1722,18 +1679,15 @@
         <v>32610.7867</v>
       </c>
       <c r="G40" t="n">
-        <v>2891389.977714085</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1755,18 +1709,15 @@
         <v>10516.5765</v>
       </c>
       <c r="G41" t="n">
-        <v>2901906.554214085</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1788,18 +1739,15 @@
         <v>76470</v>
       </c>
       <c r="G42" t="n">
-        <v>2901906.554214085</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1821,18 +1769,15 @@
         <v>19769.9265</v>
       </c>
       <c r="G43" t="n">
-        <v>2901906.554214085</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1854,18 +1799,15 @@
         <v>109725.8591</v>
       </c>
       <c r="G44" t="n">
-        <v>2901906.554214085</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1887,18 +1829,15 @@
         <v>2753.86</v>
       </c>
       <c r="G45" t="n">
-        <v>2899152.694214085</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1920,18 +1859,15 @@
         <v>3296.493</v>
       </c>
       <c r="G46" t="n">
-        <v>2899152.694214085</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1953,18 +1889,15 @@
         <v>51339.1372</v>
       </c>
       <c r="G47" t="n">
-        <v>2847813.557014084</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1986,18 +1919,15 @@
         <v>35080.5596</v>
       </c>
       <c r="G48" t="n">
-        <v>2812732.997414085</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2019,18 +1949,15 @@
         <v>597444.6539</v>
       </c>
       <c r="G49" t="n">
-        <v>2215288.343514085</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2052,18 +1979,15 @@
         <v>11566</v>
       </c>
       <c r="G50" t="n">
-        <v>2226854.343514085</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2085,18 +2009,15 @@
         <v>61670.4016</v>
       </c>
       <c r="G51" t="n">
-        <v>2226854.343514085</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2118,18 +2039,15 @@
         <v>200091.3741</v>
       </c>
       <c r="G52" t="n">
-        <v>2026762.969414085</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2151,18 +2069,15 @@
         <v>10</v>
       </c>
       <c r="G53" t="n">
-        <v>2026772.969414085</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2184,18 +2099,15 @@
         <v>1738.3961</v>
       </c>
       <c r="G54" t="n">
-        <v>2025034.573314085</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2217,18 +2129,15 @@
         <v>31061.2369</v>
       </c>
       <c r="G55" t="n">
-        <v>2056095.810214085</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2250,18 +2159,15 @@
         <v>47192.1732</v>
       </c>
       <c r="G56" t="n">
-        <v>2008903.637014085</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2283,18 +2189,15 @@
         <v>119281.4631</v>
       </c>
       <c r="G57" t="n">
-        <v>2008903.637014085</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2316,18 +2219,15 @@
         <v>15350.6156</v>
       </c>
       <c r="G58" t="n">
-        <v>2024254.252614085</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2349,18 +2249,15 @@
         <v>67284.4558</v>
       </c>
       <c r="G59" t="n">
-        <v>1956969.796814085</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2382,18 +2279,15 @@
         <v>85014.2738</v>
       </c>
       <c r="G60" t="n">
-        <v>2041984.070614085</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2415,18 +2309,15 @@
         <v>2966.5413</v>
       </c>
       <c r="G61" t="n">
-        <v>2041984.070614085</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2448,18 +2339,15 @@
         <v>75253.3129</v>
       </c>
       <c r="G62" t="n">
-        <v>2041984.070614085</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2481,18 +2369,15 @@
         <v>17351.7246</v>
       </c>
       <c r="G63" t="n">
-        <v>2041984.070614085</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2514,18 +2399,15 @@
         <v>420945.1561</v>
       </c>
       <c r="G64" t="n">
-        <v>1621038.914514085</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2547,18 +2429,15 @@
         <v>85630.0998</v>
       </c>
       <c r="G65" t="n">
-        <v>1621038.914514085</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2580,18 +2459,15 @@
         <v>4383.6553</v>
       </c>
       <c r="G66" t="n">
-        <v>1621038.914514085</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2613,18 +2489,15 @@
         <v>31296.7943</v>
       </c>
       <c r="G67" t="n">
-        <v>1589742.120214085</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2646,18 +2519,15 @@
         <v>67743.20450000001</v>
       </c>
       <c r="G68" t="n">
-        <v>1589742.120214085</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2679,18 +2549,15 @@
         <v>259287.3703</v>
       </c>
       <c r="G69" t="n">
-        <v>1589742.120214085</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2712,18 +2579,15 @@
         <v>11994.6212</v>
       </c>
       <c r="G70" t="n">
-        <v>1589742.120214085</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2745,18 +2609,15 @@
         <v>42159.7063</v>
       </c>
       <c r="G71" t="n">
-        <v>1589742.120214085</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2778,18 +2639,15 @@
         <v>27696.489</v>
       </c>
       <c r="G72" t="n">
-        <v>1562045.631214085</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2811,18 +2669,15 @@
         <v>6115.856</v>
       </c>
       <c r="G73" t="n">
-        <v>1568161.487214084</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2844,18 +2699,15 @@
         <v>13383.5249</v>
       </c>
       <c r="G74" t="n">
-        <v>1554777.962314084</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2877,18 +2729,15 @@
         <v>38291.8881</v>
       </c>
       <c r="G75" t="n">
-        <v>1593069.850414085</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2910,18 +2759,15 @@
         <v>9996.060600000001</v>
       </c>
       <c r="G76" t="n">
-        <v>1603065.911014084</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2943,18 +2789,15 @@
         <v>9061.731100000001</v>
       </c>
       <c r="G77" t="n">
-        <v>1603065.911014084</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2976,18 +2819,15 @@
         <v>13820.9052</v>
       </c>
       <c r="G78" t="n">
-        <v>1603065.911014084</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3009,18 +2849,15 @@
         <v>27210.1885</v>
       </c>
       <c r="G79" t="n">
-        <v>1575855.722514085</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3042,18 +2879,15 @@
         <v>48412.2575</v>
       </c>
       <c r="G80" t="n">
-        <v>1575855.722514085</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3075,18 +2909,15 @@
         <v>163345.7704</v>
       </c>
       <c r="G81" t="n">
-        <v>1739201.492914085</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3108,18 +2939,15 @@
         <v>20943.2835</v>
       </c>
       <c r="G82" t="n">
-        <v>1760144.776414084</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3141,18 +2969,15 @@
         <v>17721.0447</v>
       </c>
       <c r="G83" t="n">
-        <v>1760144.776414084</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3174,18 +2999,15 @@
         <v>268530.3731</v>
       </c>
       <c r="G84" t="n">
-        <v>1760144.776414084</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3207,18 +3029,15 @@
         <v>33685.4332</v>
       </c>
       <c r="G85" t="n">
-        <v>1760144.776414084</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3240,18 +3059,15 @@
         <v>32682.7778</v>
       </c>
       <c r="G86" t="n">
-        <v>1727461.998614084</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3273,18 +3089,15 @@
         <v>17676.7421</v>
       </c>
       <c r="G87" t="n">
-        <v>1727461.998614084</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3306,18 +3119,15 @@
         <v>11964.6347</v>
       </c>
       <c r="G88" t="n">
-        <v>1727461.998614084</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3339,18 +3149,15 @@
         <v>92933.7142</v>
       </c>
       <c r="G89" t="n">
-        <v>1727461.998614084</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3372,18 +3179,15 @@
         <v>14621.2808</v>
       </c>
       <c r="G90" t="n">
-        <v>1712840.717814084</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3405,18 +3209,15 @@
         <v>14929.9129</v>
       </c>
       <c r="G91" t="n">
-        <v>1727770.630714084</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3438,18 +3239,15 @@
         <v>5000</v>
       </c>
       <c r="G92" t="n">
-        <v>1722770.630714084</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3471,18 +3269,15 @@
         <v>5252.8241</v>
       </c>
       <c r="G93" t="n">
-        <v>1722770.630714084</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3504,18 +3299,15 @@
         <v>19984.8558</v>
       </c>
       <c r="G94" t="n">
-        <v>1742755.486514085</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3537,18 +3329,15 @@
         <v>115.0387</v>
       </c>
       <c r="G95" t="n">
-        <v>1742755.486514085</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3570,18 +3359,15 @@
         <v>2974.1791</v>
       </c>
       <c r="G96" t="n">
-        <v>1745729.665614085</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3603,18 +3389,15 @@
         <v>1500</v>
       </c>
       <c r="G97" t="n">
-        <v>1744229.665614085</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3636,18 +3419,15 @@
         <v>15500</v>
       </c>
       <c r="G98" t="n">
-        <v>1744229.665614085</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3669,18 +3449,15 @@
         <v>23821.8045</v>
       </c>
       <c r="G99" t="n">
-        <v>1744229.665614085</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3702,18 +3479,15 @@
         <v>4899.19</v>
       </c>
       <c r="G100" t="n">
-        <v>1744229.665614085</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3735,18 +3509,15 @@
         <v>64889.5293</v>
       </c>
       <c r="G101" t="n">
-        <v>1679340.136314085</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3768,18 +3539,15 @@
         <v>7575.757575757576</v>
       </c>
       <c r="G102" t="n">
-        <v>1679340.136314085</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3801,18 +3569,15 @@
         <v>38491.3589</v>
       </c>
       <c r="G103" t="n">
-        <v>1640848.777414084</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3834,18 +3599,15 @@
         <v>16913.45412424242</v>
       </c>
       <c r="G104" t="n">
-        <v>1657762.231538327</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3867,18 +3629,15 @@
         <v>8971.545875757576</v>
       </c>
       <c r="G105" t="n">
-        <v>1657762.231538327</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3900,18 +3659,15 @@
         <v>107929.6115</v>
       </c>
       <c r="G106" t="n">
-        <v>1549832.620038327</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3933,18 +3689,15 @@
         <v>50298.9375</v>
       </c>
       <c r="G107" t="n">
-        <v>1549832.620038327</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3966,18 +3719,15 @@
         <v>100</v>
       </c>
       <c r="G108" t="n">
-        <v>1549832.620038327</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3999,18 +3749,15 @@
         <v>770</v>
       </c>
       <c r="G109" t="n">
-        <v>1550602.620038327</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4032,18 +3779,15 @@
         <v>44152.4338</v>
       </c>
       <c r="G110" t="n">
-        <v>1506450.186238327</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4065,18 +3809,15 @@
         <v>3147.79</v>
       </c>
       <c r="G111" t="n">
-        <v>1509597.976238327</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4098,18 +3839,15 @@
         <v>10</v>
       </c>
       <c r="G112" t="n">
-        <v>1509587.976238327</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4131,18 +3869,15 @@
         <v>25107.8792</v>
       </c>
       <c r="G113" t="n">
-        <v>1509587.976238327</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4164,18 +3899,15 @@
         <v>55000</v>
       </c>
       <c r="G114" t="n">
-        <v>1509587.976238327</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4197,18 +3929,15 @@
         <v>75323.6376</v>
       </c>
       <c r="G115" t="n">
-        <v>1509587.976238327</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4230,18 +3959,15 @@
         <v>121509.7808</v>
       </c>
       <c r="G116" t="n">
-        <v>1509587.976238327</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4263,18 +3989,15 @@
         <v>172295.7153</v>
       </c>
       <c r="G117" t="n">
-        <v>1337292.260938327</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4296,18 +4019,15 @@
         <v>14436.0826</v>
       </c>
       <c r="G118" t="n">
-        <v>1351728.343538327</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4329,18 +4049,15 @@
         <v>521886.03</v>
       </c>
       <c r="G119" t="n">
-        <v>1351728.343538327</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4362,18 +4079,15 @@
         <v>10</v>
       </c>
       <c r="G120" t="n">
-        <v>1351738.343538327</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4395,18 +4109,15 @@
         <v>71597.2062</v>
       </c>
       <c r="G121" t="n">
-        <v>1280141.137338327</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4428,18 +4139,15 @@
         <v>10</v>
       </c>
       <c r="G122" t="n">
-        <v>1280151.137338327</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4461,18 +4169,15 @@
         <v>9377.104499999999</v>
       </c>
       <c r="G123" t="n">
-        <v>1270774.032838327</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4494,18 +4199,15 @@
         <v>85394.1906</v>
       </c>
       <c r="G124" t="n">
-        <v>1185379.842238327</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4527,18 +4229,15 @@
         <v>74023.9146</v>
       </c>
       <c r="G125" t="n">
-        <v>1185379.842238327</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4560,18 +4259,15 @@
         <v>1230</v>
       </c>
       <c r="G126" t="n">
-        <v>1186609.842238327</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4593,18 +4289,15 @@
         <v>16986.3235</v>
       </c>
       <c r="G127" t="n">
-        <v>1186609.842238327</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4626,18 +4319,15 @@
         <v>10</v>
       </c>
       <c r="G128" t="n">
-        <v>1186619.842238327</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4659,18 +4349,15 @@
         <v>1237.4436</v>
       </c>
       <c r="G129" t="n">
-        <v>1186619.842238327</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4692,18 +4379,15 @@
         <v>209129.1211</v>
       </c>
       <c r="G130" t="n">
-        <v>1186619.842238327</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4725,18 +4409,15 @@
         <v>20596.8007</v>
       </c>
       <c r="G131" t="n">
-        <v>1207216.642938327</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4758,18 +4439,15 @@
         <v>526544.1176</v>
       </c>
       <c r="G132" t="n">
-        <v>1733760.760538327</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4791,18 +4469,15 @@
         <v>141393.8648</v>
       </c>
       <c r="G133" t="n">
-        <v>1733760.760538327</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4824,18 +4499,15 @@
         <v>12684.7143</v>
       </c>
       <c r="G134" t="n">
-        <v>1746445.474838327</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4857,18 +4529,15 @@
         <v>22192.8156</v>
       </c>
       <c r="G135" t="n">
-        <v>1746445.474838327</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4890,18 +4559,15 @@
         <v>24.568</v>
       </c>
       <c r="G136" t="n">
-        <v>1746420.906838327</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4923,18 +4589,15 @@
         <v>97455.8518</v>
       </c>
       <c r="G137" t="n">
-        <v>1746420.906838327</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4956,18 +4619,15 @@
         <v>23064.9864</v>
       </c>
       <c r="G138" t="n">
-        <v>1723355.920438327</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4989,18 +4649,15 @@
         <v>214343.5956</v>
       </c>
       <c r="G139" t="n">
-        <v>1723355.920438327</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5022,18 +4679,15 @@
         <v>312200.522</v>
       </c>
       <c r="G140" t="n">
-        <v>1723355.920438327</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5055,18 +4709,15 @@
         <v>333</v>
       </c>
       <c r="G141" t="n">
-        <v>1723688.920438327</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5088,18 +4739,15 @@
         <v>177819.037</v>
       </c>
       <c r="G142" t="n">
-        <v>1723688.920438327</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5121,18 +4769,15 @@
         <v>333</v>
       </c>
       <c r="G143" t="n">
-        <v>1724021.920438327</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5154,18 +4799,15 @@
         <v>16199.4074</v>
       </c>
       <c r="G144" t="n">
-        <v>1707822.513038327</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5187,18 +4829,15 @@
         <v>333</v>
       </c>
       <c r="G145" t="n">
-        <v>1708155.513038327</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5220,18 +4859,15 @@
         <v>9020</v>
       </c>
       <c r="G146" t="n">
-        <v>1699135.513038327</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5253,18 +4889,15 @@
         <v>89071.65119999999</v>
       </c>
       <c r="G147" t="n">
-        <v>1610063.861838327</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5286,18 +4919,15 @@
         <v>135661.4934</v>
       </c>
       <c r="G148" t="n">
-        <v>1474402.368438327</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5319,18 +4949,15 @@
         <v>6000</v>
       </c>
       <c r="G149" t="n">
-        <v>1480402.368438327</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5352,18 +4979,15 @@
         <v>12079.0457</v>
       </c>
       <c r="G150" t="n">
-        <v>1480402.368438327</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5385,18 +5009,15 @@
         <v>1044.6139</v>
       </c>
       <c r="G151" t="n">
-        <v>1480402.368438327</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5418,18 +5039,15 @@
         <v>16170.2299</v>
       </c>
       <c r="G152" t="n">
-        <v>1480402.368438327</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5451,18 +5069,15 @@
         <v>109926.3602</v>
       </c>
       <c r="G153" t="n">
-        <v>1480402.368438327</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5484,18 +5099,15 @@
         <v>15290.3308</v>
       </c>
       <c r="G154" t="n">
-        <v>1480402.368438327</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5517,18 +5129,15 @@
         <v>153849.3414</v>
       </c>
       <c r="G155" t="n">
-        <v>1634251.709838327</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5550,18 +5159,15 @@
         <v>121566.6423</v>
       </c>
       <c r="G156" t="n">
-        <v>1634251.709838327</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5583,18 +5189,15 @@
         <v>81215.47440000001</v>
       </c>
       <c r="G157" t="n">
-        <v>1553036.235438327</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5616,18 +5219,15 @@
         <v>56270.1013</v>
       </c>
       <c r="G158" t="n">
-        <v>1609306.336738327</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5649,18 +5249,15 @@
         <v>14267.49</v>
       </c>
       <c r="G159" t="n">
-        <v>1595038.846738327</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5682,18 +5279,15 @@
         <v>56553.1573</v>
       </c>
       <c r="G160" t="n">
-        <v>1651592.004038327</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5715,18 +5309,15 @@
         <v>72455.2173</v>
       </c>
       <c r="G161" t="n">
-        <v>1651592.004038327</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5748,18 +5339,15 @@
         <v>112476.3768</v>
       </c>
       <c r="G162" t="n">
-        <v>1651592.004038327</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5781,18 +5369,15 @@
         <v>6310</v>
       </c>
       <c r="G163" t="n">
-        <v>1645282.004038327</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5814,18 +5399,15 @@
         <v>26260.3623</v>
       </c>
       <c r="G164" t="n">
-        <v>1671542.366338327</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5847,18 +5429,15 @@
         <v>25223.1739</v>
       </c>
       <c r="G165" t="n">
-        <v>1671542.366338327</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5880,18 +5459,15 @@
         <v>92620.37669999999</v>
       </c>
       <c r="G166" t="n">
-        <v>1671542.366338327</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5913,18 +5489,15 @@
         <v>72699.3839</v>
       </c>
       <c r="G167" t="n">
-        <v>1671542.366338327</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5946,18 +5519,15 @@
         <v>14492.75362318841</v>
       </c>
       <c r="G168" t="n">
-        <v>1671542.366338327</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5979,18 +5549,15 @@
         <v>204060.870155535</v>
       </c>
       <c r="G169" t="n">
-        <v>1875603.236493862</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6012,18 +5579,15 @@
         <v>345219.3038522625</v>
       </c>
       <c r="G170" t="n">
-        <v>2220822.540346125</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6045,18 +5609,15 @@
         <v>2816.901408450704</v>
       </c>
       <c r="G171" t="n">
-        <v>2220822.540346125</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6078,18 +5639,15 @@
         <v>171348.0281380282</v>
       </c>
       <c r="G172" t="n">
-        <v>2220822.540346125</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6111,18 +5669,15 @@
         <v>21024.4028</v>
       </c>
       <c r="G173" t="n">
-        <v>2199798.137546125</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6144,18 +5699,15 @@
         <v>18862.50742340425</v>
       </c>
       <c r="G174" t="n">
-        <v>2218660.644969529</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6177,18 +5729,15 @@
         <v>3522.671337159125</v>
       </c>
       <c r="G175" t="n">
-        <v>2222183.316306688</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6210,18 +5759,15 @@
         <v>131626.5034</v>
       </c>
       <c r="G176" t="n">
-        <v>2353809.819706688</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6243,18 +5789,15 @@
         <v>57971.6083</v>
       </c>
       <c r="G177" t="n">
-        <v>2353809.819706688</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6276,18 +5819,15 @@
         <v>24272.9858</v>
       </c>
       <c r="G178" t="n">
-        <v>2353809.819706688</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6309,18 +5849,15 @@
         <v>8215.422500000001</v>
       </c>
       <c r="G179" t="n">
-        <v>2345594.397206688</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6342,18 +5879,15 @@
         <v>46474.6367</v>
       </c>
       <c r="G180" t="n">
-        <v>2299119.760506688</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6375,18 +5909,15 @@
         <v>8857.1422</v>
       </c>
       <c r="G181" t="n">
-        <v>2290262.618306688</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6408,18 +5939,15 @@
         <v>8194.883900000001</v>
       </c>
       <c r="G182" t="n">
-        <v>2290262.618306688</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6441,18 +5969,15 @@
         <v>1221.31</v>
       </c>
       <c r="G183" t="n">
-        <v>2290262.618306688</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6474,18 +5999,15 @@
         <v>3184.5711</v>
       </c>
       <c r="G184" t="n">
-        <v>2293447.189406688</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6507,18 +6029,15 @@
         <v>4100.5717</v>
       </c>
       <c r="G185" t="n">
-        <v>2293447.189406688</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6540,18 +6059,15 @@
         <v>8878.5988</v>
       </c>
       <c r="G186" t="n">
-        <v>2284568.590606688</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6573,18 +6089,15 @@
         <v>2898.1071</v>
       </c>
       <c r="G187" t="n">
-        <v>2287466.697706688</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6606,18 +6119,15 @@
         <v>10744.2778</v>
       </c>
       <c r="G188" t="n">
-        <v>2298210.975506688</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6639,18 +6149,15 @@
         <v>3000</v>
       </c>
       <c r="G189" t="n">
-        <v>2301210.975506688</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6672,18 +6179,15 @@
         <v>7460</v>
       </c>
       <c r="G190" t="n">
-        <v>2293750.975506688</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6705,18 +6209,15 @@
         <v>59485.5819</v>
       </c>
       <c r="G191" t="n">
-        <v>2234265.393606688</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6738,18 +6239,15 @@
         <v>13157.9847</v>
       </c>
       <c r="G192" t="n">
-        <v>2234265.393606688</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6771,18 +6269,15 @@
         <v>3000</v>
       </c>
       <c r="G193" t="n">
-        <v>2234265.393606688</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6804,18 +6299,15 @@
         <v>27050.7807</v>
       </c>
       <c r="G194" t="n">
-        <v>2207214.612906688</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6837,18 +6329,15 @@
         <v>26049.3045</v>
       </c>
       <c r="G195" t="n">
-        <v>2181165.308406688</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6870,18 +6359,15 @@
         <v>65212.8746</v>
       </c>
       <c r="G196" t="n">
-        <v>2115952.433806688</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6903,18 +6389,15 @@
         <v>26115.1515</v>
       </c>
       <c r="G197" t="n">
-        <v>2142067.585306688</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6936,18 +6419,15 @@
         <v>116557.2472</v>
       </c>
       <c r="G198" t="n">
-        <v>2025510.338106688</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -6969,18 +6449,15 @@
         <v>10</v>
       </c>
       <c r="G199" t="n">
-        <v>2025520.338106688</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7002,18 +6479,15 @@
         <v>2742.1726</v>
       </c>
       <c r="G200" t="n">
-        <v>2025520.338106688</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7035,18 +6509,15 @@
         <v>15424.7481</v>
       </c>
       <c r="G201" t="n">
-        <v>2025520.338106688</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7068,18 +6539,15 @@
         <v>48421.3308</v>
       </c>
       <c r="G202" t="n">
-        <v>2025520.338106688</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7101,18 +6569,15 @@
         <v>51217.8812</v>
       </c>
       <c r="G203" t="n">
-        <v>2025520.338106688</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7134,18 +6599,15 @@
         <v>5757.5357</v>
       </c>
       <c r="G204" t="n">
-        <v>2031277.873806688</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7167,18 +6629,15 @@
         <v>34362.8801</v>
       </c>
       <c r="G205" t="n">
-        <v>2031277.873806688</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7200,18 +6659,15 @@
         <v>37474.3266</v>
       </c>
       <c r="G206" t="n">
-        <v>2068752.200406688</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7233,18 +6689,15 @@
         <v>39629.5442</v>
       </c>
       <c r="G207" t="n">
-        <v>2029122.656206688</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7266,18 +6719,15 @@
         <v>11936.7011</v>
       </c>
       <c r="G208" t="n">
-        <v>2029122.656206688</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7299,18 +6749,15 @@
         <v>188285.5985</v>
       </c>
       <c r="G209" t="n">
-        <v>2029122.656206688</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7332,18 +6779,15 @@
         <v>461700.8645</v>
       </c>
       <c r="G210" t="n">
-        <v>1567421.791706688</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7365,18 +6809,15 @@
         <v>100</v>
       </c>
       <c r="G211" t="n">
-        <v>1567521.791706688</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7398,18 +6839,15 @@
         <v>18908.0714</v>
       </c>
       <c r="G212" t="n">
-        <v>1586429.863106688</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7431,18 +6869,15 @@
         <v>11981.1085</v>
       </c>
       <c r="G213" t="n">
-        <v>1574448.754606688</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7464,18 +6899,15 @@
         <v>24212.3033</v>
       </c>
       <c r="G214" t="n">
-        <v>1550236.451306688</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7497,18 +6929,15 @@
         <v>2876.4748</v>
       </c>
       <c r="G215" t="n">
-        <v>1553112.926106688</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7530,18 +6959,15 @@
         <v>42811.7985</v>
       </c>
       <c r="G216" t="n">
-        <v>1553112.926106688</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7563,18 +6989,15 @@
         <v>2917.8417</v>
       </c>
       <c r="G217" t="n">
-        <v>1553112.926106688</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7596,18 +7019,15 @@
         <v>11073.4105</v>
       </c>
       <c r="G218" t="n">
-        <v>1564186.336606688</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7629,18 +7049,15 @@
         <v>394.6428</v>
       </c>
       <c r="G219" t="n">
-        <v>1564186.336606688</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7662,18 +7079,15 @@
         <v>214.2857</v>
       </c>
       <c r="G220" t="n">
-        <v>1564186.336606688</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7695,18 +7109,15 @@
         <v>408839.6561</v>
       </c>
       <c r="G221" t="n">
-        <v>1973025.992706688</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7728,18 +7139,15 @@
         <v>3775.27</v>
       </c>
       <c r="G222" t="n">
-        <v>1976801.262706688</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7761,18 +7169,15 @@
         <v>23728.9436</v>
       </c>
       <c r="G223" t="n">
-        <v>1976801.262706688</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -7794,18 +7199,15 @@
         <v>13150.0709</v>
       </c>
       <c r="G224" t="n">
-        <v>1963651.191806688</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -7827,18 +7229,15 @@
         <v>39893.1914</v>
       </c>
       <c r="G225" t="n">
-        <v>1963651.191806688</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -7860,18 +7259,15 @@
         <v>139867.8882</v>
       </c>
       <c r="G226" t="n">
-        <v>1963651.191806688</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -7893,18 +7289,15 @@
         <v>45251.5443</v>
       </c>
       <c r="G227" t="n">
-        <v>1963651.191806688</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -7926,18 +7319,15 @@
         <v>76882.70450000001</v>
       </c>
       <c r="G228" t="n">
-        <v>1963651.191806688</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -7959,18 +7349,15 @@
         <v>7501.702127659574</v>
       </c>
       <c r="G229" t="n">
-        <v>1963651.191806688</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -7992,18 +7379,15 @@
         <v>6216.0992</v>
       </c>
       <c r="G230" t="n">
-        <v>1963651.191806688</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8025,18 +7409,15 @@
         <v>2947.7408</v>
       </c>
       <c r="G231" t="n">
-        <v>1963651.191806688</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8058,18 +7439,15 @@
         <v>500</v>
       </c>
       <c r="G232" t="n">
-        <v>1963651.191806688</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8091,18 +7469,15 @@
         <v>1631.9382</v>
       </c>
       <c r="G233" t="n">
-        <v>1962019.253606688</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8124,18 +7499,15 @@
         <v>20884.8162</v>
       </c>
       <c r="G234" t="n">
-        <v>1962019.253606688</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8157,18 +7529,15 @@
         <v>19550.9165</v>
       </c>
       <c r="G235" t="n">
-        <v>1962019.253606688</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8190,18 +7559,15 @@
         <v>35609.7163</v>
       </c>
       <c r="G236" t="n">
-        <v>1997628.969906688</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8223,18 +7589,15 @@
         <v>6951.749572340425</v>
       </c>
       <c r="G237" t="n">
-        <v>1997628.969906688</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8256,18 +7619,15 @@
         <v>5000</v>
       </c>
       <c r="G238" t="n">
-        <v>1997628.969906688</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8289,18 +7649,15 @@
         <v>4694.92</v>
       </c>
       <c r="G239" t="n">
-        <v>1997628.969906688</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8322,18 +7679,15 @@
         <v>10000</v>
       </c>
       <c r="G240" t="n">
-        <v>1997628.969906688</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8355,18 +7709,15 @@
         <v>142533.0379276596</v>
       </c>
       <c r="G241" t="n">
-        <v>1855095.931979028</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8388,18 +7739,15 @@
         <v>77708.8028</v>
       </c>
       <c r="G242" t="n">
-        <v>1932804.734779028</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8421,18 +7769,15 @@
         <v>14701.8548</v>
       </c>
       <c r="G243" t="n">
-        <v>1918102.879979028</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8454,18 +7799,15 @@
         <v>10</v>
       </c>
       <c r="G244" t="n">
-        <v>1918112.879979028</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8487,18 +7829,15 @@
         <v>32827.234</v>
       </c>
       <c r="G245" t="n">
-        <v>1918112.879979028</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8520,18 +7859,15 @@
         <v>6007.8392</v>
       </c>
       <c r="G246" t="n">
-        <v>1912105.040779028</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8553,18 +7889,15 @@
         <v>35521.1869</v>
       </c>
       <c r="G247" t="n">
-        <v>1876583.853879028</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8586,18 +7919,15 @@
         <v>100000.0001</v>
       </c>
       <c r="G248" t="n">
-        <v>1776583.853779028</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -8619,18 +7949,15 @@
         <v>190540.0581</v>
       </c>
       <c r="G249" t="n">
-        <v>1776583.853779028</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -8652,18 +7979,15 @@
         <v>10</v>
       </c>
       <c r="G250" t="n">
-        <v>1776593.853779028</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -8685,18 +8009,15 @@
         <v>10</v>
       </c>
       <c r="G251" t="n">
-        <v>1776583.853779028</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -8718,18 +8039,15 @@
         <v>11.5217</v>
       </c>
       <c r="G252" t="n">
-        <v>1776583.853779028</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -8751,18 +8069,15 @@
         <v>99837.0882</v>
       </c>
       <c r="G253" t="n">
-        <v>1776583.853779028</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -8784,18 +8099,15 @@
         <v>17831.105</v>
       </c>
       <c r="G254" t="n">
-        <v>1776583.853779028</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -8817,18 +8129,15 @@
         <v>433.4822</v>
       </c>
       <c r="G255" t="n">
-        <v>1776583.853779028</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -8850,18 +8159,15 @@
         <v>61528.7336</v>
       </c>
       <c r="G256" t="n">
-        <v>1715055.120179028</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -8883,18 +8189,15 @@
         <v>1500</v>
       </c>
       <c r="G257" t="n">
-        <v>1716555.120179028</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -8916,18 +8219,15 @@
         <v>500</v>
       </c>
       <c r="G258" t="n">
-        <v>1716555.120179028</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -8949,18 +8249,15 @@
         <v>405096.1661</v>
       </c>
       <c r="G259" t="n">
-        <v>1716555.120179028</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -8982,18 +8279,15 @@
         <v>18110.21526376812</v>
       </c>
       <c r="G260" t="n">
-        <v>1698444.90491526</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9015,18 +8309,15 @@
         <v>31540.3724</v>
       </c>
       <c r="G261" t="n">
-        <v>1729985.27731526</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9048,18 +8339,15 @@
         <v>22906.13683623188</v>
       </c>
       <c r="G262" t="n">
-        <v>1729985.27731526</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9081,18 +8369,15 @@
         <v>8782.3174</v>
       </c>
       <c r="G263" t="n">
-        <v>1721202.95991526</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9114,18 +8399,15 @@
         <v>321643.5319</v>
       </c>
       <c r="G264" t="n">
-        <v>2042846.49181526</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9147,18 +8429,15 @@
         <v>163.9395</v>
       </c>
       <c r="G265" t="n">
-        <v>2042846.49181526</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9180,18 +8459,15 @@
         <v>44369.4509</v>
       </c>
       <c r="G266" t="n">
-        <v>2087215.94271526</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9213,18 +8489,15 @@
         <v>40</v>
       </c>
       <c r="G267" t="n">
-        <v>2087175.94271526</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -9246,18 +8519,15 @@
         <v>10</v>
       </c>
       <c r="G268" t="n">
-        <v>2087185.94271526</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -9279,18 +8549,15 @@
         <v>71948.0851</v>
       </c>
       <c r="G269" t="n">
-        <v>2087185.94271526</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -9312,18 +8579,15 @@
         <v>16915.125</v>
       </c>
       <c r="G270" t="n">
-        <v>2070270.81771526</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -9345,18 +8609,15 @@
         <v>16162.6785</v>
       </c>
       <c r="G271" t="n">
-        <v>2070270.81771526</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -9378,18 +8639,15 @@
         <v>71429</v>
       </c>
       <c r="G272" t="n">
-        <v>2070270.81771526</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -9411,18 +8669,15 @@
         <v>141420.8609</v>
       </c>
       <c r="G273" t="n">
-        <v>1928849.95681526</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -9444,18 +8699,15 @@
         <v>10798.0098</v>
       </c>
       <c r="G274" t="n">
-        <v>1928849.95681526</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -9477,18 +8729,15 @@
         <v>4373.989</v>
       </c>
       <c r="G275" t="n">
-        <v>1928849.95681526</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -9510,18 +8759,15 @@
         <v>32401.9119</v>
       </c>
       <c r="G276" t="n">
-        <v>1928849.95681526</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -9543,18 +8789,15 @@
         <v>8081.3571</v>
       </c>
       <c r="G277" t="n">
-        <v>1936931.31391526</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -9576,18 +8819,15 @@
         <v>69187.11</v>
       </c>
       <c r="G278" t="n">
-        <v>1867744.20391526</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>1</v>
+      </c>
+      <c r="L278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -9609,18 +8849,15 @@
         <v>98436.0328</v>
       </c>
       <c r="G279" t="n">
-        <v>1769308.17111526</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>1</v>
+      </c>
+      <c r="L279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -9642,18 +8879,15 @@
         <v>32160.7803</v>
       </c>
       <c r="G280" t="n">
-        <v>1769308.17111526</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>1</v>
+      </c>
+      <c r="L280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -9675,18 +8909,15 @@
         <v>7351.9387</v>
       </c>
       <c r="G281" t="n">
-        <v>1776660.10981526</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>1</v>
+      </c>
+      <c r="L281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -9708,18 +8939,15 @@
         <v>90657.5953</v>
       </c>
       <c r="G282" t="n">
-        <v>1686002.51451526</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>1</v>
+      </c>
+      <c r="L282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -9741,18 +8969,15 @@
         <v>71949.9034</v>
       </c>
       <c r="G283" t="n">
-        <v>1614052.61111526</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>1</v>
+      </c>
+      <c r="L283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -9774,18 +8999,15 @@
         <v>509.369</v>
       </c>
       <c r="G284" t="n">
-        <v>1614052.61111526</v>
-      </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>1</v>
+      </c>
+      <c r="L284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -9807,18 +9029,15 @@
         <v>9841.475399999999</v>
       </c>
       <c r="G285" t="n">
-        <v>1614052.61111526</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>1</v>
+      </c>
+      <c r="L285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -9840,18 +9059,15 @@
         <v>108924.8531</v>
       </c>
       <c r="G286" t="n">
-        <v>1722977.46421526</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>1</v>
+      </c>
+      <c r="L286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -9873,18 +9089,15 @@
         <v>2520</v>
       </c>
       <c r="G287" t="n">
-        <v>1722977.46421526</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>1</v>
+      </c>
+      <c r="L287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -9906,18 +9119,15 @@
         <v>2520</v>
       </c>
       <c r="G288" t="n">
-        <v>1722977.46421526</v>
-      </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>1</v>
+      </c>
+      <c r="L288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -9939,18 +9149,15 @@
         <v>292876.7707</v>
       </c>
       <c r="G289" t="n">
-        <v>2015854.23491526</v>
-      </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>1</v>
+      </c>
+      <c r="L289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -9972,18 +9179,15 @@
         <v>51247.6622</v>
       </c>
       <c r="G290" t="n">
-        <v>1964606.57271526</v>
-      </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>1</v>
+      </c>
+      <c r="L290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -10005,18 +9209,15 @@
         <v>51595.8836</v>
       </c>
       <c r="G291" t="n">
-        <v>1964606.57271526</v>
-      </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>1</v>
+      </c>
+      <c r="L291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -10038,18 +9239,15 @@
         <v>9285.6163</v>
       </c>
       <c r="G292" t="n">
-        <v>1964606.57271526</v>
-      </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>1</v>
+      </c>
+      <c r="L292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -10071,18 +9269,15 @@
         <v>24009.5714</v>
       </c>
       <c r="G293" t="n">
-        <v>1964606.57271526</v>
-      </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
-      <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>1</v>
+      </c>
+      <c r="L293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -10104,18 +9299,15 @@
         <v>2914.67</v>
       </c>
       <c r="G294" t="n">
-        <v>1961691.90271526</v>
-      </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
-      <c r="L294" t="n">
-        <v>1</v>
-      </c>
-      <c r="M294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>1</v>
+      </c>
+      <c r="L294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -10137,18 +9329,15 @@
         <v>2920</v>
       </c>
       <c r="G295" t="n">
-        <v>1964611.90271526</v>
-      </c>
-      <c r="H295" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
-      <c r="L295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>1</v>
+      </c>
+      <c r="L295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -10170,18 +9359,15 @@
         <v>119742.6241</v>
       </c>
       <c r="G296" t="n">
-        <v>2084354.52681526</v>
-      </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="n">
-        <v>1</v>
-      </c>
-      <c r="M296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>1</v>
+      </c>
+      <c r="L296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -10203,18 +9389,15 @@
         <v>53235.6382</v>
       </c>
       <c r="G297" t="n">
-        <v>2084354.52681526</v>
-      </c>
-      <c r="H297" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H297" t="inlineStr"/>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="n">
-        <v>1</v>
-      </c>
-      <c r="M297" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>1</v>
+      </c>
+      <c r="L297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -10236,18 +9419,15 @@
         <v>35415.1321</v>
       </c>
       <c r="G298" t="n">
-        <v>2084354.52681526</v>
-      </c>
-      <c r="H298" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H298" t="inlineStr"/>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
-      <c r="L298" t="n">
-        <v>1</v>
-      </c>
-      <c r="M298" t="inlineStr"/>
+      <c r="K298" t="n">
+        <v>1</v>
+      </c>
+      <c r="L298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -10269,18 +9449,15 @@
         <v>741.4893</v>
       </c>
       <c r="G299" t="n">
-        <v>2084354.52681526</v>
-      </c>
-      <c r="H299" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
-      <c r="L299" t="n">
-        <v>1</v>
-      </c>
-      <c r="M299" t="inlineStr"/>
+      <c r="K299" t="n">
+        <v>1</v>
+      </c>
+      <c r="L299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -10302,18 +9479,15 @@
         <v>29989.7508</v>
       </c>
       <c r="G300" t="n">
-        <v>2084354.52681526</v>
-      </c>
-      <c r="H300" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H300" t="inlineStr"/>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
-      <c r="L300" t="n">
-        <v>1</v>
-      </c>
-      <c r="M300" t="inlineStr"/>
+      <c r="K300" t="n">
+        <v>1</v>
+      </c>
+      <c r="L300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -10335,18 +9509,15 @@
         <v>84629.4365</v>
       </c>
       <c r="G301" t="n">
-        <v>2168983.96331526</v>
-      </c>
-      <c r="H301" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
-      <c r="L301" t="n">
-        <v>1</v>
-      </c>
-      <c r="M301" t="inlineStr"/>
+      <c r="K301" t="n">
+        <v>1</v>
+      </c>
+      <c r="L301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -10368,18 +9539,15 @@
         <v>76036.2066</v>
       </c>
       <c r="G302" t="n">
-        <v>2168983.96331526</v>
-      </c>
-      <c r="H302" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
-      <c r="L302" t="n">
-        <v>1</v>
-      </c>
-      <c r="M302" t="inlineStr"/>
+      <c r="K302" t="n">
+        <v>1</v>
+      </c>
+      <c r="L302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -10401,18 +9569,15 @@
         <v>6827.3144</v>
       </c>
       <c r="G303" t="n">
-        <v>2168983.96331526</v>
-      </c>
-      <c r="H303" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
-      <c r="L303" t="n">
-        <v>1</v>
-      </c>
-      <c r="M303" t="inlineStr"/>
+      <c r="K303" t="n">
+        <v>1</v>
+      </c>
+      <c r="L303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -10434,18 +9599,15 @@
         <v>3580</v>
       </c>
       <c r="G304" t="n">
-        <v>2168983.96331526</v>
-      </c>
-      <c r="H304" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H304" t="inlineStr"/>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
-      <c r="L304" t="n">
-        <v>1</v>
-      </c>
-      <c r="M304" t="inlineStr"/>
+      <c r="K304" t="n">
+        <v>1</v>
+      </c>
+      <c r="L304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -10467,18 +9629,15 @@
         <v>559.2957</v>
       </c>
       <c r="G305" t="n">
-        <v>2168983.96331526</v>
-      </c>
-      <c r="H305" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
-      <c r="L305" t="n">
-        <v>1</v>
-      </c>
-      <c r="M305" t="inlineStr"/>
+      <c r="K305" t="n">
+        <v>1</v>
+      </c>
+      <c r="L305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -10500,18 +9659,15 @@
         <v>10</v>
       </c>
       <c r="G306" t="n">
-        <v>2168973.96331526</v>
-      </c>
-      <c r="H306" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
-      <c r="L306" t="n">
-        <v>1</v>
-      </c>
-      <c r="M306" t="inlineStr"/>
+      <c r="K306" t="n">
+        <v>1</v>
+      </c>
+      <c r="L306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -10533,18 +9689,15 @@
         <v>33280.1747</v>
       </c>
       <c r="G307" t="n">
-        <v>2202254.13801526</v>
-      </c>
-      <c r="H307" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
-      <c r="L307" t="n">
-        <v>1</v>
-      </c>
-      <c r="M307" t="inlineStr"/>
+      <c r="K307" t="n">
+        <v>1</v>
+      </c>
+      <c r="L307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -10566,18 +9719,15 @@
         <v>331754.7407</v>
       </c>
       <c r="G308" t="n">
-        <v>2534008.878715259</v>
-      </c>
-      <c r="H308" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H308" t="inlineStr"/>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
-      <c r="L308" t="n">
-        <v>1</v>
-      </c>
-      <c r="M308" t="inlineStr"/>
+      <c r="K308" t="n">
+        <v>1</v>
+      </c>
+      <c r="L308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -10599,18 +9749,15 @@
         <v>407.73</v>
       </c>
       <c r="G309" t="n">
-        <v>2534008.878715259</v>
-      </c>
-      <c r="H309" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H309" t="inlineStr"/>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
-      <c r="L309" t="n">
-        <v>1</v>
-      </c>
-      <c r="M309" t="inlineStr"/>
+      <c r="K309" t="n">
+        <v>1</v>
+      </c>
+      <c r="L309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -10632,18 +9779,15 @@
         <v>149000</v>
       </c>
       <c r="G310" t="n">
-        <v>2534008.878715259</v>
-      </c>
-      <c r="H310" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H310" t="inlineStr"/>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
-      <c r="L310" t="n">
-        <v>1</v>
-      </c>
-      <c r="M310" t="inlineStr"/>
+      <c r="K310" t="n">
+        <v>1</v>
+      </c>
+      <c r="L310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -10665,18 +9809,15 @@
         <v>61387.4364</v>
       </c>
       <c r="G311" t="n">
-        <v>2534008.878715259</v>
-      </c>
-      <c r="H311" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H311" t="inlineStr"/>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
-      <c r="L311" t="n">
-        <v>1</v>
-      </c>
-      <c r="M311" t="inlineStr"/>
+      <c r="K311" t="n">
+        <v>1</v>
+      </c>
+      <c r="L311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -10698,18 +9839,15 @@
         <v>120051</v>
       </c>
       <c r="G312" t="n">
-        <v>2654059.878715259</v>
-      </c>
-      <c r="H312" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H312" t="inlineStr"/>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
-      <c r="L312" t="n">
-        <v>1</v>
-      </c>
-      <c r="M312" t="inlineStr"/>
+      <c r="K312" t="n">
+        <v>1</v>
+      </c>
+      <c r="L312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -10731,18 +9869,15 @@
         <v>337319.4699</v>
       </c>
       <c r="G313" t="n">
-        <v>2991379.348615259</v>
-      </c>
-      <c r="H313" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H313" t="inlineStr"/>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
-      <c r="L313" t="n">
-        <v>1</v>
-      </c>
-      <c r="M313" t="inlineStr"/>
+      <c r="K313" t="n">
+        <v>1</v>
+      </c>
+      <c r="L313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -10764,18 +9899,15 @@
         <v>642629.6448631579</v>
       </c>
       <c r="G314" t="n">
-        <v>3634008.993478417</v>
-      </c>
-      <c r="H314" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H314" t="inlineStr"/>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
-      <c r="L314" t="n">
-        <v>1</v>
-      </c>
-      <c r="M314" t="inlineStr"/>
+      <c r="K314" t="n">
+        <v>1</v>
+      </c>
+      <c r="L314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -10797,18 +9929,15 @@
         <v>383068.1962</v>
       </c>
       <c r="G315" t="n">
-        <v>3250940.797278417</v>
-      </c>
-      <c r="H315" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H315" t="inlineStr"/>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
-      <c r="L315" t="n">
-        <v>1</v>
-      </c>
-      <c r="M315" t="inlineStr"/>
+      <c r="K315" t="n">
+        <v>1</v>
+      </c>
+      <c r="L315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -10830,18 +9959,15 @@
         <v>266864.0481</v>
       </c>
       <c r="G316" t="n">
-        <v>2984076.749178417</v>
-      </c>
-      <c r="H316" t="n">
         <v>2</v>
       </c>
+      <c r="H316" t="inlineStr"/>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
-      <c r="L316" t="n">
-        <v>1</v>
-      </c>
-      <c r="M316" t="inlineStr"/>
+      <c r="K316" t="n">
+        <v>1</v>
+      </c>
+      <c r="L316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -10863,18 +9989,15 @@
         <v>63007.8798</v>
       </c>
       <c r="G317" t="n">
-        <v>2984076.749178417</v>
-      </c>
-      <c r="H317" t="n">
         <v>2</v>
       </c>
+      <c r="H317" t="inlineStr"/>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
-      <c r="L317" t="n">
-        <v>1</v>
-      </c>
-      <c r="M317" t="inlineStr"/>
+      <c r="K317" t="n">
+        <v>1</v>
+      </c>
+      <c r="L317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -10896,18 +10019,15 @@
         <v>27930.9342</v>
       </c>
       <c r="G318" t="n">
-        <v>2984076.749178417</v>
-      </c>
-      <c r="H318" t="n">
         <v>2</v>
       </c>
+      <c r="H318" t="inlineStr"/>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
-      <c r="L318" t="n">
-        <v>1</v>
-      </c>
-      <c r="M318" t="inlineStr"/>
+      <c r="K318" t="n">
+        <v>1</v>
+      </c>
+      <c r="L318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -10929,18 +10049,15 @@
         <v>12.0898</v>
       </c>
       <c r="G319" t="n">
-        <v>2984076.749178417</v>
-      </c>
-      <c r="H319" t="n">
         <v>2</v>
       </c>
+      <c r="H319" t="inlineStr"/>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
-      <c r="L319" t="n">
-        <v>1</v>
-      </c>
-      <c r="M319" t="inlineStr"/>
+      <c r="K319" t="n">
+        <v>1</v>
+      </c>
+      <c r="L319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -10962,18 +10079,15 @@
         <v>129075.2838</v>
       </c>
       <c r="G320" t="n">
-        <v>2855001.465378417</v>
-      </c>
-      <c r="H320" t="n">
         <v>2</v>
       </c>
+      <c r="H320" t="inlineStr"/>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
-      <c r="L320" t="n">
-        <v>1</v>
-      </c>
-      <c r="M320" t="inlineStr"/>
+      <c r="K320" t="n">
+        <v>1</v>
+      </c>
+      <c r="L320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -10995,18 +10109,15 @@
         <v>274349.5996</v>
       </c>
       <c r="G321" t="n">
-        <v>2580651.865778417</v>
-      </c>
-      <c r="H321" t="n">
         <v>2</v>
       </c>
+      <c r="H321" t="inlineStr"/>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
-      <c r="L321" t="n">
-        <v>1</v>
-      </c>
-      <c r="M321" t="inlineStr"/>
+      <c r="K321" t="n">
+        <v>1</v>
+      </c>
+      <c r="L321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -11028,18 +10139,15 @@
         <v>74000</v>
       </c>
       <c r="G322" t="n">
-        <v>2580651.865778417</v>
-      </c>
-      <c r="H322" t="n">
         <v>2</v>
       </c>
+      <c r="H322" t="inlineStr"/>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
-      <c r="L322" t="n">
-        <v>1</v>
-      </c>
-      <c r="M322" t="inlineStr"/>
+      <c r="K322" t="n">
+        <v>1</v>
+      </c>
+      <c r="L322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -11061,18 +10169,15 @@
         <v>794344.681</v>
       </c>
       <c r="G323" t="n">
-        <v>1786307.184778417</v>
-      </c>
-      <c r="H323" t="n">
         <v>2</v>
       </c>
+      <c r="H323" t="inlineStr"/>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
-      <c r="L323" t="n">
-        <v>1</v>
-      </c>
-      <c r="M323" t="inlineStr"/>
+      <c r="K323" t="n">
+        <v>1</v>
+      </c>
+      <c r="L323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -11094,18 +10199,15 @@
         <v>480133.1388</v>
       </c>
       <c r="G324" t="n">
-        <v>2266440.323578417</v>
-      </c>
-      <c r="H324" t="n">
         <v>2</v>
       </c>
+      <c r="H324" t="inlineStr"/>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
-      <c r="L324" t="n">
-        <v>1</v>
-      </c>
-      <c r="M324" t="inlineStr"/>
+      <c r="K324" t="n">
+        <v>1</v>
+      </c>
+      <c r="L324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -11127,18 +10229,15 @@
         <v>118762.6116</v>
       </c>
       <c r="G325" t="n">
-        <v>2385202.935178417</v>
-      </c>
-      <c r="H325" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H325" t="inlineStr"/>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
-      <c r="L325" t="n">
-        <v>1</v>
-      </c>
-      <c r="M325" t="inlineStr"/>
+      <c r="K325" t="n">
+        <v>1</v>
+      </c>
+      <c r="L325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -11160,18 +10259,15 @@
         <v>23002.6712</v>
       </c>
       <c r="G326" t="n">
-        <v>2385202.935178417</v>
-      </c>
-      <c r="H326" t="n">
         <v>2</v>
       </c>
+      <c r="H326" t="inlineStr"/>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
-      <c r="L326" t="n">
-        <v>1</v>
-      </c>
-      <c r="M326" t="inlineStr"/>
+      <c r="K326" t="n">
+        <v>1</v>
+      </c>
+      <c r="L326" t="inlineStr"/>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -11193,18 +10289,15 @@
         <v>165611.5109</v>
       </c>
       <c r="G327" t="n">
-        <v>2219591.424278417</v>
-      </c>
-      <c r="H327" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H327" t="inlineStr"/>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
-      <c r="L327" t="n">
-        <v>1</v>
-      </c>
-      <c r="M327" t="inlineStr"/>
+      <c r="K327" t="n">
+        <v>1</v>
+      </c>
+      <c r="L327" t="inlineStr"/>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -11226,18 +10319,15 @@
         <v>4746.4899</v>
       </c>
       <c r="G328" t="n">
-        <v>2224337.914178417</v>
-      </c>
-      <c r="H328" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H328" t="inlineStr"/>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
-      <c r="L328" t="n">
-        <v>1</v>
-      </c>
-      <c r="M328" t="inlineStr"/>
+      <c r="K328" t="n">
+        <v>1</v>
+      </c>
+      <c r="L328" t="inlineStr"/>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -11259,18 +10349,15 @@
         <v>11024.2873</v>
       </c>
       <c r="G329" t="n">
-        <v>2213313.626878417</v>
-      </c>
-      <c r="H329" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H329" t="inlineStr"/>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
-      <c r="L329" t="n">
-        <v>1</v>
-      </c>
-      <c r="M329" t="inlineStr"/>
+      <c r="K329" t="n">
+        <v>1</v>
+      </c>
+      <c r="L329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -11292,18 +10379,15 @@
         <v>94341.6597</v>
       </c>
       <c r="G330" t="n">
-        <v>2307655.286578417</v>
-      </c>
-      <c r="H330" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H330" t="inlineStr"/>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
-      <c r="L330" t="n">
-        <v>1</v>
-      </c>
-      <c r="M330" t="inlineStr"/>
+      <c r="K330" t="n">
+        <v>1</v>
+      </c>
+      <c r="L330" t="inlineStr"/>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -11325,18 +10409,15 @@
         <v>4259.931</v>
       </c>
       <c r="G331" t="n">
-        <v>2307655.286578417</v>
-      </c>
-      <c r="H331" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H331" t="inlineStr"/>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
-      <c r="L331" t="n">
-        <v>1</v>
-      </c>
-      <c r="M331" t="inlineStr"/>
+      <c r="K331" t="n">
+        <v>1</v>
+      </c>
+      <c r="L331" t="inlineStr"/>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -11358,18 +10439,15 @@
         <v>3868.9459</v>
       </c>
       <c r="G332" t="n">
-        <v>2307655.286578417</v>
-      </c>
-      <c r="H332" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H332" t="inlineStr"/>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
-      <c r="L332" t="n">
-        <v>1</v>
-      </c>
-      <c r="M332" t="inlineStr"/>
+      <c r="K332" t="n">
+        <v>1</v>
+      </c>
+      <c r="L332" t="inlineStr"/>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -11391,18 +10469,15 @@
         <v>128724.7085</v>
       </c>
       <c r="G333" t="n">
-        <v>2178930.578078417</v>
-      </c>
-      <c r="H333" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H333" t="inlineStr"/>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
-      <c r="L333" t="n">
-        <v>1</v>
-      </c>
-      <c r="M333" t="inlineStr"/>
+      <c r="K333" t="n">
+        <v>1</v>
+      </c>
+      <c r="L333" t="inlineStr"/>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -11424,18 +10499,15 @@
         <v>36886.3448</v>
       </c>
       <c r="G334" t="n">
-        <v>2215816.922878417</v>
-      </c>
-      <c r="H334" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H334" t="inlineStr"/>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
-      <c r="L334" t="n">
-        <v>1</v>
-      </c>
-      <c r="M334" t="inlineStr"/>
+      <c r="K334" t="n">
+        <v>1</v>
+      </c>
+      <c r="L334" t="inlineStr"/>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -11457,18 +10529,15 @@
         <v>6030</v>
       </c>
       <c r="G335" t="n">
-        <v>2209786.922878417</v>
-      </c>
-      <c r="H335" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H335" t="inlineStr"/>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
-      <c r="L335" t="n">
-        <v>1</v>
-      </c>
-      <c r="M335" t="inlineStr"/>
+      <c r="K335" t="n">
+        <v>1</v>
+      </c>
+      <c r="L335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -11490,18 +10559,15 @@
         <v>48766.4079</v>
       </c>
       <c r="G336" t="n">
-        <v>2209786.922878417</v>
-      </c>
-      <c r="H336" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H336" t="inlineStr"/>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
-      <c r="L336" t="n">
-        <v>1</v>
-      </c>
-      <c r="M336" t="inlineStr"/>
+      <c r="K336" t="n">
+        <v>1</v>
+      </c>
+      <c r="L336" t="inlineStr"/>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -11523,18 +10589,15 @@
         <v>178746.7324</v>
       </c>
       <c r="G337" t="n">
-        <v>2209786.922878417</v>
-      </c>
-      <c r="H337" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H337" t="inlineStr"/>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
-      <c r="L337" t="n">
-        <v>1</v>
-      </c>
-      <c r="M337" t="inlineStr"/>
+      <c r="K337" t="n">
+        <v>1</v>
+      </c>
+      <c r="L337" t="inlineStr"/>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -11556,18 +10619,15 @@
         <v>67960.58560000001</v>
       </c>
       <c r="G338" t="n">
-        <v>2209786.922878417</v>
-      </c>
-      <c r="H338" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H338" t="inlineStr"/>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
-      <c r="L338" t="n">
-        <v>1</v>
-      </c>
-      <c r="M338" t="inlineStr"/>
+      <c r="K338" t="n">
+        <v>1</v>
+      </c>
+      <c r="L338" t="inlineStr"/>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -11589,18 +10649,15 @@
         <v>6038.3084</v>
       </c>
       <c r="G339" t="n">
-        <v>2203748.614478417</v>
-      </c>
-      <c r="H339" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H339" t="inlineStr"/>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
-      <c r="L339" t="n">
-        <v>1</v>
-      </c>
-      <c r="M339" t="inlineStr"/>
+      <c r="K339" t="n">
+        <v>1</v>
+      </c>
+      <c r="L339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -11622,18 +10679,15 @@
         <v>39535.6622</v>
       </c>
       <c r="G340" t="n">
-        <v>2243284.276678417</v>
-      </c>
-      <c r="H340" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H340" t="inlineStr"/>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
-      <c r="L340" t="n">
-        <v>1</v>
-      </c>
-      <c r="M340" t="inlineStr"/>
+      <c r="K340" t="n">
+        <v>1</v>
+      </c>
+      <c r="L340" t="inlineStr"/>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -11655,18 +10709,15 @@
         <v>50998.4878</v>
       </c>
       <c r="G341" t="n">
-        <v>2294282.764478417</v>
-      </c>
-      <c r="H341" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H341" t="inlineStr"/>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
-      <c r="L341" t="n">
-        <v>1</v>
-      </c>
-      <c r="M341" t="inlineStr"/>
+      <c r="K341" t="n">
+        <v>1</v>
+      </c>
+      <c r="L341" t="inlineStr"/>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -11688,18 +10739,15 @@
         <v>784.931506849315</v>
       </c>
       <c r="G342" t="n">
-        <v>2295067.695985266</v>
-      </c>
-      <c r="H342" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H342" t="inlineStr"/>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
-      <c r="L342" t="n">
-        <v>1</v>
-      </c>
-      <c r="M342" t="inlineStr"/>
+      <c r="K342" t="n">
+        <v>1</v>
+      </c>
+      <c r="L342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -11721,18 +10769,15 @@
         <v>1369.86301369863</v>
       </c>
       <c r="G343" t="n">
-        <v>2295067.695985266</v>
-      </c>
-      <c r="H343" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H343" t="inlineStr"/>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
-      <c r="L343" t="n">
-        <v>1</v>
-      </c>
-      <c r="M343" t="inlineStr"/>
+      <c r="K343" t="n">
+        <v>1</v>
+      </c>
+      <c r="L343" t="inlineStr"/>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -11754,18 +10799,15 @@
         <v>4999.85</v>
       </c>
       <c r="G344" t="n">
-        <v>2290067.845985266</v>
-      </c>
-      <c r="H344" t="n">
         <v>2</v>
       </c>
+      <c r="H344" t="inlineStr"/>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
-      <c r="L344" t="n">
-        <v>1</v>
-      </c>
-      <c r="M344" t="inlineStr"/>
+      <c r="K344" t="n">
+        <v>1</v>
+      </c>
+      <c r="L344" t="inlineStr"/>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -11787,18 +10829,15 @@
         <v>13656.83457241379</v>
       </c>
       <c r="G345" t="n">
-        <v>2290067.845985266</v>
-      </c>
-      <c r="H345" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H345" t="inlineStr"/>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
-      <c r="L345" t="n">
-        <v>1</v>
-      </c>
-      <c r="M345" t="inlineStr"/>
+      <c r="K345" t="n">
+        <v>1</v>
+      </c>
+      <c r="L345" t="inlineStr"/>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -11820,18 +10859,15 @@
         <v>18114.8893</v>
       </c>
       <c r="G346" t="n">
-        <v>2271952.956685266</v>
-      </c>
-      <c r="H346" t="n">
         <v>2</v>
       </c>
+      <c r="H346" t="inlineStr"/>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
-      <c r="L346" t="n">
-        <v>1</v>
-      </c>
-      <c r="M346" t="inlineStr"/>
+      <c r="K346" t="n">
+        <v>1</v>
+      </c>
+      <c r="L346" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
